--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FAC9F9-61E3-4058-98EF-A8290211121D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3004B2-77E9-4C42-B79E-D92B7F5BE8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="1665" windowWidth="25590" windowHeight="21630" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
+    <workbookView xWindow="5280" yWindow="1680" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="139">
   <si>
     <t>губ</t>
   </si>
@@ -289,15 +289,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Средняя Азия</t>
-  </si>
-  <si>
-    <t>Азиатская Россия</t>
-  </si>
-  <si>
-    <t>Империя</t>
-  </si>
-  <si>
     <t xml:space="preserve">Орловская </t>
   </si>
   <si>
@@ -347,6 +338,117 @@
   </si>
   <si>
     <t>в Европейской Россіи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бакинская </t>
+  </si>
+  <si>
+    <t>Бакинское градонач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Батумская    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дагестанская </t>
+  </si>
+  <si>
+    <t>Елисаветпольская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карсская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кубанская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кутаисская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставропольская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терская </t>
+  </si>
+  <si>
+    <t>Тифлисская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черноморская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эриванская </t>
+  </si>
+  <si>
+    <t>Итого на Кавказѣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амурская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Енисейская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забайкальская </t>
+  </si>
+  <si>
+    <t>Иркутская</t>
+  </si>
+  <si>
+    <t>Камчатская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приморская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сахалинская   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тобольская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Томская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якутская </t>
+  </si>
+  <si>
+    <t>Итого въ Сибири</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акмолинская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закаспійская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самаркандская </t>
+  </si>
+  <si>
+    <t>Семипалатинская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семирѣченская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тургайская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уральская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ферганская </t>
+  </si>
+  <si>
+    <t>Всего въ Имперіи</t>
+  </si>
+  <si>
+    <t>Итого въ Азіатской России</t>
+  </si>
+  <si>
+    <t>Сыръ-Дарьинская</t>
+  </si>
+  <si>
+    <t>Итого въ Средней Азии</t>
   </si>
 </sst>
 </file>
@@ -717,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB66042-D18B-4B8B-B422-63A48AAE11FF}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N54" sqref="N54:P54"/>
     </sheetView>
   </sheetViews>
@@ -3269,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,7 +3820,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32" s="4">
         <v>2589388</v>
@@ -3746,7 +3848,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4">
         <v>3883643</v>
@@ -3774,7 +3876,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" s="4">
         <v>1774300</v>
@@ -3788,7 +3890,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4">
         <v>3889224</v>
@@ -3816,7 +3918,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="4">
         <v>1471431</v>
@@ -3830,7 +3932,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="4">
         <v>2692024</v>
@@ -3844,7 +3946,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4">
         <v>3894583</v>
@@ -3858,7 +3960,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4">
         <v>3327984</v>
@@ -3872,7 +3974,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" s="4">
         <v>2059274</v>
@@ -3914,7 +4016,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" s="4">
         <v>87500</v>
@@ -3942,7 +4044,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B48" s="4">
         <v>2413383</v>
@@ -3970,7 +4072,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B50" s="4">
         <v>3103309</v>
@@ -4012,7 +4114,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B53" s="4">
         <v>117579</v>
@@ -4026,7 +4128,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B54" s="4">
         <v>655246</v>
@@ -4040,7 +4142,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B55" s="4">
         <v>1087800</v>
@@ -4068,7 +4170,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B57" s="4">
         <v>535727</v>
@@ -4096,7 +4198,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B59" s="4">
         <v>127607083</v>
@@ -4110,95 +4212,524 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B60" s="4">
-        <v>13215347</v>
+        <v>855465</v>
       </c>
       <c r="C60" s="4">
-        <v>480758</v>
+        <v>20509</v>
       </c>
       <c r="D60" s="4">
-        <v>286417</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B61" s="4">
-        <v>10353673</v>
+        <v>392638</v>
       </c>
       <c r="C61" s="4">
-        <v>530623</v>
+        <v>11194</v>
       </c>
       <c r="D61" s="4">
-        <v>818708</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B62" s="4">
-        <v>11335059</v>
+        <v>183100</v>
       </c>
       <c r="C62" s="4">
-        <v>290522</v>
+        <v>1839</v>
       </c>
       <c r="D62" s="4">
-        <v>174761</v>
+        <v>791</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B63" s="4">
-        <v>34904079</v>
+        <v>703510</v>
       </c>
       <c r="C63" s="4">
-        <v>1301903</v>
+        <v>15567</v>
       </c>
       <c r="D63" s="4">
-        <v>779886</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B64" s="4">
+        <v>1260416</v>
+      </c>
+      <c r="C64" s="4">
+        <v>28903</v>
+      </c>
+      <c r="D64" s="4">
+        <v>18002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="4">
+        <v>396200</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2984500</v>
+      </c>
+      <c r="C66" s="4">
+        <v>154045</v>
+      </c>
+      <c r="D66" s="4">
+        <v>85762</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1233460</v>
+      </c>
+      <c r="C67" s="4">
+        <v>28622</v>
+      </c>
+      <c r="D67" s="4">
+        <v>15702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1293652</v>
+      </c>
+      <c r="C68" s="4">
+        <v>72789</v>
+      </c>
+      <c r="D68" s="4">
+        <v>49338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1321328</v>
+      </c>
+      <c r="C69" s="4">
+        <v>57068</v>
+      </c>
+      <c r="D69" s="4">
+        <v>33268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1460802</v>
+      </c>
+      <c r="C70" s="4">
+        <v>48463</v>
+      </c>
+      <c r="D70" s="4">
+        <v>26951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="4">
+        <v>194470</v>
+      </c>
+      <c r="C71" s="4">
+        <v>5528</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="4">
+        <v>935806</v>
+      </c>
+      <c r="C72" s="4">
+        <v>36231</v>
+      </c>
+      <c r="D72" s="4">
+        <v>19553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="4">
+        <v>13215347</v>
+      </c>
+      <c r="C73" s="4">
+        <v>480758</v>
+      </c>
+      <c r="D73" s="4">
+        <v>286417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="4">
+        <v>320202</v>
+      </c>
+      <c r="C74" s="4">
+        <v>16557</v>
+      </c>
+      <c r="D74" s="4">
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1134208</v>
+      </c>
+      <c r="C75" s="4">
+        <v>60741</v>
+      </c>
+      <c r="D75" s="4">
+        <v>35696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="4">
+        <v>953470</v>
+      </c>
+      <c r="C76" s="4">
+        <v>42001</v>
+      </c>
+      <c r="D76" s="4">
+        <v>24791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="4">
+        <v>744361</v>
+      </c>
+      <c r="C77" s="4">
+        <v>35331</v>
+      </c>
+      <c r="D77" s="4">
+        <v>21326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="4">
+        <v>32530</v>
+      </c>
+      <c r="C78" s="4">
+        <v>756</v>
+      </c>
+      <c r="D78" s="4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="4">
+        <v>524133</v>
+      </c>
+      <c r="C79" s="4">
+        <v>19945</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="4">
+        <v>33801</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1230</v>
+      </c>
+      <c r="D80" s="4">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2125692</v>
+      </c>
+      <c r="C81" s="4">
+        <v>117379</v>
+      </c>
+      <c r="D81" s="4">
+        <v>80174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4215163</v>
+      </c>
+      <c r="C82" s="4">
+        <v>226588</v>
+      </c>
+      <c r="D82" s="4">
+        <v>131947</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="4">
+        <v>270113</v>
+      </c>
+      <c r="C83" s="4">
+        <v>10095</v>
+      </c>
+      <c r="D83" s="4">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="4">
+        <v>10353673</v>
+      </c>
+      <c r="C84" s="4">
+        <v>530623</v>
+      </c>
+      <c r="D84" s="4">
+        <v>318708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1555679</v>
+      </c>
+      <c r="C85" s="4">
+        <v>66740</v>
+      </c>
+      <c r="D85" s="4">
+        <v>36604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="4">
+        <v>507136</v>
+      </c>
+      <c r="C86" s="4">
+        <v>15667</v>
+      </c>
+      <c r="D86" s="4">
+        <v>13113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1198000</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="4">
+        <v>928509</v>
+      </c>
+      <c r="C88" s="4">
+        <v>25601</v>
+      </c>
+      <c r="D88" s="4">
+        <v>15983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1331165</v>
+      </c>
+      <c r="C89" s="4">
+        <v>56233</v>
+      </c>
+      <c r="D89" s="4">
+        <v>34688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2012300</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="4">
+        <v>842406</v>
+      </c>
+      <c r="C91" s="4">
+        <v>39877</v>
+      </c>
+      <c r="D91" s="4">
+        <v>24917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="4">
+        <v>835928</v>
+      </c>
+      <c r="C92" s="4">
+        <v>20701</v>
+      </c>
+      <c r="D92" s="4">
+        <v>14953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2123936</v>
+      </c>
+      <c r="C93" s="4">
+        <v>65703</v>
+      </c>
+      <c r="D93" s="4">
+        <v>34503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="4">
+        <v>11335059</v>
+      </c>
+      <c r="C94" s="4">
+        <v>290522</v>
+      </c>
+      <c r="D94" s="4">
+        <v>174761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="4">
+        <v>34904079</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1301903</v>
+      </c>
+      <c r="D95" s="4">
+        <v>779886</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="4">
         <v>162511162</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C96" s="4">
         <v>6237082</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D96" s="4">
         <v>3788721</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3004B2-77E9-4C42-B79E-D92B7F5BE8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D9D19-FF73-4025-8CD2-3B99020828F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1680" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
   <si>
     <t>губ</t>
   </si>
@@ -449,6 +449,48 @@
   </si>
   <si>
     <t>Итого въ Средней Азии</t>
+  </si>
+  <si>
+    <t>чж-гор-м 1915</t>
+  </si>
+  <si>
+    <t>чж-гор-ж 1915</t>
+  </si>
+  <si>
+    <t>чр-гор-м 1914</t>
+  </si>
+  <si>
+    <t>чр-гор-ж 1914</t>
+  </si>
+  <si>
+    <t>чс-гор-м 1914</t>
+  </si>
+  <si>
+    <t>чс-гор-ж 1914</t>
+  </si>
+  <si>
+    <t>чж-уез-м 1915</t>
+  </si>
+  <si>
+    <t>чж-уез-ж 1915</t>
+  </si>
+  <si>
+    <t>чр-уез-м 1914</t>
+  </si>
+  <si>
+    <t>чр-уез-ж 1914</t>
+  </si>
+  <si>
+    <t>чс-уез-м 1914</t>
+  </si>
+  <si>
+    <t>чс-уез-ж 1914</t>
+  </si>
+  <si>
+    <t>5421(10</t>
+  </si>
+  <si>
+    <t>25042!</t>
   </si>
 </sst>
 </file>
@@ -3371,20 +3413,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3397,8 +3443,45 @@
       <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3411,8 +3494,44 @@
       <c r="D2" s="3">
         <v>13587</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>30314</v>
+      </c>
+      <c r="G2" s="3">
+        <v>29498</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1093</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1056</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1011</v>
+      </c>
+      <c r="K2" s="3">
+        <v>752</v>
+      </c>
+      <c r="L2" s="3">
+        <v>201470</v>
+      </c>
+      <c r="M2" s="3">
+        <v>218792</v>
+      </c>
+      <c r="N2" s="3">
+        <v>9478</v>
+      </c>
+      <c r="O2" s="3">
+        <v>9069</v>
+      </c>
+      <c r="P2" s="3">
+        <v>6124</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3425,8 +3544,44 @@
       <c r="D3" s="3">
         <v>29166</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>96617</v>
+      </c>
+      <c r="G3" s="3">
+        <v>95116</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4054</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3913</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3347</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2685</v>
+      </c>
+      <c r="L3" s="3">
+        <v>637293</v>
+      </c>
+      <c r="M3" s="3">
+        <v>610801</v>
+      </c>
+      <c r="N3" s="3">
+        <v>23014</v>
+      </c>
+      <c r="O3" s="3">
+        <v>21371</v>
+      </c>
+      <c r="P3" s="3">
+        <v>12334</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3439,8 +3594,44 @@
       <c r="D4" s="3">
         <v>40566</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>144750</v>
+      </c>
+      <c r="G4" s="3">
+        <v>138303</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4293</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4107</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3250</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2611</v>
+      </c>
+      <c r="L4" s="3">
+        <v>797599</v>
+      </c>
+      <c r="M4" s="3">
+        <v>793899</v>
+      </c>
+      <c r="N4" s="3">
+        <v>35470</v>
+      </c>
+      <c r="O4" s="3">
+        <v>33471</v>
+      </c>
+      <c r="P4" s="3">
+        <v>18202</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>16503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3453,8 +3644,44 @@
       <c r="D5" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>153500</v>
+      </c>
+      <c r="G5" s="3">
+        <v>135700</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="3">
+        <v>890700</v>
+      </c>
+      <c r="M5" s="3">
+        <v>896000</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3467,8 +3694,44 @@
       <c r="D6" s="3">
         <v>34049</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>167018</v>
+      </c>
+      <c r="G6" s="3">
+        <v>173712</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4179</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3828</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3054</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2428</v>
+      </c>
+      <c r="L6" s="3">
+        <v>744304</v>
+      </c>
+      <c r="M6" s="3">
+        <v>798602</v>
+      </c>
+      <c r="N6" s="3">
+        <v>28404</v>
+      </c>
+      <c r="O6" s="3">
+        <v>27228</v>
+      </c>
+      <c r="P6" s="3">
+        <v>15346</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>13221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -3481,8 +3744,44 @@
       <c r="D7" s="3">
         <v>53324</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>160193</v>
+      </c>
+      <c r="G7" s="3">
+        <v>158948</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6755</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6705</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4805</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3972</v>
+      </c>
+      <c r="L7" s="3">
+        <v>821075</v>
+      </c>
+      <c r="M7" s="3">
+        <v>877799</v>
+      </c>
+      <c r="N7" s="3">
+        <v>38496</v>
+      </c>
+      <c r="O7" s="3">
+        <v>37059</v>
+      </c>
+      <c r="P7" s="3">
+        <v>23183</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>21364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3495,8 +3794,44 @@
       <c r="D8" s="3">
         <v>50804</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>36142</v>
+      </c>
+      <c r="G8" s="3">
+        <v>36710</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1810</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1772</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1224</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1028</v>
+      </c>
+      <c r="L8" s="3">
+        <v>781501</v>
+      </c>
+      <c r="M8" s="3">
+        <v>850547</v>
+      </c>
+      <c r="N8" s="3">
+        <v>39262</v>
+      </c>
+      <c r="O8" s="3">
+        <v>37237</v>
+      </c>
+      <c r="P8" s="3">
+        <v>25053</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>23499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3509,8 +3844,44 @@
       <c r="D9" s="3">
         <v>90733</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>155354</v>
+      </c>
+      <c r="G9" s="3">
+        <v>170152</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5484</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4973</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4126</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3427</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1766883</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1792936</v>
+      </c>
+      <c r="N9" s="3">
+        <v>68315</v>
+      </c>
+      <c r="O9" s="3">
+        <v>63466</v>
+      </c>
+      <c r="P9" s="3">
+        <v>43901</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>39279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3523,8 +3894,44 @@
       <c r="D10" s="3">
         <v>110219</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>83316</v>
+      </c>
+      <c r="G10" s="3">
+        <v>82419</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2727</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2548</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2219</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1810</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1823618</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1787211</v>
+      </c>
+      <c r="N10" s="3">
+        <v>89014</v>
+      </c>
+      <c r="O10" s="3">
+        <v>84875</v>
+      </c>
+      <c r="P10" s="3">
+        <v>54959</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>51231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3537,8 +3944,44 @@
       <c r="D11" s="3">
         <v>126554</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>83495</v>
+      </c>
+      <c r="G11" s="3">
+        <v>69093</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2288</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2071</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1974</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1637</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1769805</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1869285</v>
+      </c>
+      <c r="N11" s="3">
+        <v>99093</v>
+      </c>
+      <c r="O11" s="3">
+        <v>94518</v>
+      </c>
+      <c r="P11" s="3">
+        <v>63448</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>59495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3551,8 +3994,44 @@
       <c r="D12" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>190700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>180900</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="3">
+        <v>850800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>825800</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3565,8 +4044,44 @@
       <c r="D13" s="3">
         <v>98490</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>105511</v>
+      </c>
+      <c r="G13" s="3">
+        <v>95741</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4537</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4503</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3263</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2656</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1668639</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1576017</v>
+      </c>
+      <c r="N13" s="3">
+        <v>81704</v>
+      </c>
+      <c r="O13" s="3">
+        <v>77257</v>
+      </c>
+      <c r="P13" s="3">
+        <v>48939</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3579,8 +4094,44 @@
       <c r="D14" s="3">
         <v>4343</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>111117</v>
+      </c>
+      <c r="G14" s="3">
+        <v>116971</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3529</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3279</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2360</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1983</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3593,8 +4144,44 @@
       <c r="D15" s="3">
         <v>76108</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>262178</v>
+      </c>
+      <c r="G15" s="3">
+        <v>242386</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9455</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8886</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5923</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4672</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1585850</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1426958</v>
+      </c>
+      <c r="N15" s="3">
+        <v>74133</v>
+      </c>
+      <c r="O15" s="3">
+        <v>70627</v>
+      </c>
+      <c r="P15" s="3">
+        <v>35674</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>29839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3607,8 +4194,44 @@
       <c r="D16" s="3">
         <v>83342</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>135881</v>
+      </c>
+      <c r="G16" s="3">
+        <v>134274</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4641</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4688</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3823</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3692</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1317999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1308194</v>
+      </c>
+      <c r="N16" s="3">
+        <v>61255</v>
+      </c>
+      <c r="O16" s="3">
+        <v>60758</v>
+      </c>
+      <c r="P16" s="3">
+        <v>38303</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>37524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3621,8 +4244,44 @@
       <c r="D17" s="3">
         <v>47895</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>49601</v>
+      </c>
+      <c r="G17" s="3">
+        <v>48865</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2196</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2115</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1886</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1586</v>
+      </c>
+      <c r="L17" s="3">
+        <v>664839</v>
+      </c>
+      <c r="M17" s="3">
+        <v>754209</v>
+      </c>
+      <c r="N17" s="3">
+        <v>33129</v>
+      </c>
+      <c r="O17" s="3">
+        <v>31710</v>
+      </c>
+      <c r="P17" s="3">
+        <v>22839</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>21584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -3635,8 +4294,44 @@
       <c r="D18" s="3">
         <v>107838</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>448287</v>
+      </c>
+      <c r="G18" s="3">
+        <v>469367</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11089</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10473</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9149</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6545</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1939589</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1997959</v>
+      </c>
+      <c r="N18" s="3">
+        <v>82667</v>
+      </c>
+      <c r="O18" s="3">
+        <v>78894</v>
+      </c>
+      <c r="P18" s="3">
+        <v>48486</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3649,8 +4344,44 @@
       <c r="D19" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>104000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>91100</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="3">
+        <v>810100</v>
+      </c>
+      <c r="M19" s="3">
+        <v>851900</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3663,8 +4394,44 @@
       <c r="D20" s="3">
         <v>50241</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>49132</v>
+      </c>
+      <c r="G20" s="3">
+        <v>52033</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2814</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2638</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1981</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1601</v>
+      </c>
+      <c r="L20" s="3">
+        <v>803537</v>
+      </c>
+      <c r="M20" s="3">
+        <v>905247</v>
+      </c>
+      <c r="N20" s="3">
+        <v>40316</v>
+      </c>
+      <c r="O20" s="3">
+        <v>38376</v>
+      </c>
+      <c r="P20" s="3">
+        <v>24441</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>22218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -3677,8 +4444,44 @@
       <c r="D21" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>108400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>106900</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="3">
+        <v>280100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>302900</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3691,8 +4494,44 @@
       <c r="D22" s="3">
         <v>82335</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>126699</v>
+      </c>
+      <c r="G22" s="3">
+        <v>129574</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4691</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4701</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3503</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3628</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1428337</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1436650</v>
+      </c>
+      <c r="N22" s="3">
+        <v>54479</v>
+      </c>
+      <c r="O22" s="3">
+        <v>55094</v>
+      </c>
+      <c r="P22" s="3">
+        <v>37288</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>37916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -3705,8 +4544,44 @@
       <c r="D23" s="3">
         <v>24966</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>265433</v>
+      </c>
+      <c r="G23" s="3">
+        <v>276744</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7278</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6803</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6570</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5453</v>
+      </c>
+      <c r="L23" s="3">
+        <v>494392</v>
+      </c>
+      <c r="M23" s="3">
+        <v>528215</v>
+      </c>
+      <c r="N23" s="3">
+        <v>8434</v>
+      </c>
+      <c r="O23" s="3">
+        <v>8086</v>
+      </c>
+      <c r="P23" s="3">
+        <v>6628</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3719,8 +4594,44 @@
       <c r="D24" s="3">
         <v>60057</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>134674</v>
+      </c>
+      <c r="G24" s="3">
+        <v>131610</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4860</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4243</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3247</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2517</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1389564</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1386954</v>
+      </c>
+      <c r="N24" s="3">
+        <v>51933</v>
+      </c>
+      <c r="O24" s="3">
+        <v>49380</v>
+      </c>
+      <c r="P24" s="3">
+        <v>28800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>25493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3733,8 +4644,44 @@
       <c r="D25" s="3">
         <v>45588</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <v>145749</v>
+      </c>
+      <c r="G25" s="3">
+        <v>145138</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2926</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2766</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1864</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1503</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1065620</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1059606</v>
+      </c>
+      <c r="N25" s="3">
+        <v>42606</v>
+      </c>
+      <c r="O25" s="3">
+        <v>40502</v>
+      </c>
+      <c r="P25" s="3">
+        <v>22327</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>19894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3747,8 +4694,44 @@
       <c r="D26" s="3">
         <v>54156</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>84110</v>
+      </c>
+      <c r="G26" s="3">
+        <v>74893</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3950</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3674</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2999</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2452</v>
+      </c>
+      <c r="L26" s="3">
+        <v>760123</v>
+      </c>
+      <c r="M26" s="3">
+        <v>947190</v>
+      </c>
+      <c r="N26" s="3">
+        <v>37932</v>
+      </c>
+      <c r="O26" s="3">
+        <v>36364</v>
+      </c>
+      <c r="P26" s="3">
+        <v>25673</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>23032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3761,8 +4744,44 @@
       <c r="D27" s="3">
         <v>42198</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>930200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>793200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>27961</v>
+      </c>
+      <c r="I27" s="3">
+        <v>26412</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23991</v>
+      </c>
+      <c r="K27" s="3">
+        <v>18207</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3775,8 +4794,44 @@
       <c r="D28" s="3">
         <v>60172</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>88659</v>
+      </c>
+      <c r="G28" s="3">
+        <v>83485</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2845</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2659</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2549</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1934</v>
+      </c>
+      <c r="L28" s="3">
+        <v>903076</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1008569</v>
+      </c>
+      <c r="N28" s="3">
+        <v>46311</v>
+      </c>
+      <c r="O28" s="3">
+        <v>45108</v>
+      </c>
+      <c r="P28" s="3">
+        <v>29255</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>26434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3789,8 +4844,44 @@
       <c r="D29" s="3">
         <v>43554</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <v>48541</v>
+      </c>
+      <c r="G29" s="3">
+        <v>51038</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2089</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1851</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1568</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1304</v>
+      </c>
+      <c r="L29" s="3">
+        <v>759257</v>
+      </c>
+      <c r="M29" s="3">
+        <v>830633</v>
+      </c>
+      <c r="N29" s="3">
+        <v>36207</v>
+      </c>
+      <c r="O29" s="3">
+        <v>34474</v>
+      </c>
+      <c r="P29" s="3">
+        <v>21712</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>18970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3803,8 +4894,44 @@
       <c r="D30" s="3">
         <v>14689</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>18031</v>
+      </c>
+      <c r="G30" s="3">
+        <v>19396</v>
+      </c>
+      <c r="H30" s="3">
+        <v>765</v>
+      </c>
+      <c r="I30" s="3">
+        <v>790</v>
+      </c>
+      <c r="J30" s="3">
+        <v>605</v>
+      </c>
+      <c r="K30" s="3">
+        <v>507</v>
+      </c>
+      <c r="L30" s="3">
+        <v>196267</v>
+      </c>
+      <c r="M30" s="3">
+        <v>214007</v>
+      </c>
+      <c r="N30" s="3">
+        <v>10933</v>
+      </c>
+      <c r="O30" s="3">
+        <v>10404</v>
+      </c>
+      <c r="P30" s="3">
+        <v>7050</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3817,8 +4944,44 @@
       <c r="D31" s="3">
         <v>68492</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <v>136235</v>
+      </c>
+      <c r="G31" s="3">
+        <v>125561</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5953</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5798</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4747</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3939</v>
+      </c>
+      <c r="L31" s="3">
+        <v>992647</v>
+      </c>
+      <c r="M31" s="3">
+        <v>994945</v>
+      </c>
+      <c r="N31" s="3">
+        <v>54917</v>
+      </c>
+      <c r="O31" s="3">
+        <v>52629</v>
+      </c>
+      <c r="P31" s="3">
+        <v>30907</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>28899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -3831,8 +4994,44 @@
       <c r="D32" s="4">
         <v>74196</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>153768</v>
+      </c>
+      <c r="G32" s="3">
+        <v>140525</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5140</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4342</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4034</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3382</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1143657</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1151438</v>
+      </c>
+      <c r="N32" s="3">
+        <v>53558</v>
+      </c>
+      <c r="O32" s="3">
+        <v>51334</v>
+      </c>
+      <c r="P32" s="3">
+        <v>34974</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>31806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3845,8 +5044,44 @@
       <c r="D33" s="4">
         <v>57035</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>104009</v>
+      </c>
+      <c r="G33" s="3">
+        <v>94552</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3715</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3556</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2886</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2373</v>
+      </c>
+      <c r="L33" s="3">
+        <v>903189</v>
+      </c>
+      <c r="M33" s="3">
+        <v>944049</v>
+      </c>
+      <c r="N33" s="3">
+        <v>43079</v>
+      </c>
+      <c r="O33" s="3">
+        <v>42611</v>
+      </c>
+      <c r="P33" s="3">
+        <v>27005</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>24771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -3859,8 +5094,44 @@
       <c r="D34" s="4">
         <v>148935</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>104232</v>
+      </c>
+      <c r="G34" s="3">
+        <v>103369</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5502</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5310</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4653</v>
+      </c>
+      <c r="K34" s="3">
+        <v>3890</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1776630</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1899412</v>
+      </c>
+      <c r="N34" s="3">
+        <v>97313</v>
+      </c>
+      <c r="O34" s="3">
+        <v>93328</v>
+      </c>
+      <c r="P34" s="3">
+        <v>72848</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>67544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -3873,8 +5144,44 @@
       <c r="D35" s="4">
         <v>34703</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>286547</v>
+      </c>
+      <c r="G35" s="3">
+        <v>240300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7752</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7256</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7744</v>
+      </c>
+      <c r="K35" s="3">
+        <v>5984</v>
+      </c>
+      <c r="L35" s="3">
+        <v>473191</v>
+      </c>
+      <c r="M35" s="3">
+        <v>499534</v>
+      </c>
+      <c r="N35" s="3">
+        <v>15572</v>
+      </c>
+      <c r="O35" s="3">
+        <v>14756</v>
+      </c>
+      <c r="P35" s="3">
+        <v>11234</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>9741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3887,8 +5194,44 @@
       <c r="D36" s="4">
         <v>37940</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>926200</v>
+      </c>
+      <c r="G36" s="3">
+        <v>848100</v>
+      </c>
+      <c r="H36" s="3">
+        <v>21751</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20883</v>
+      </c>
+      <c r="J36" s="3">
+        <v>21496</v>
+      </c>
+      <c r="K36" s="3">
+        <v>16444</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -3901,8 +5244,44 @@
       <c r="D37" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <v>144451</v>
+      </c>
+      <c r="G37" s="3">
+        <v>150935</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1780396</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1813442</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -3915,8 +5294,44 @@
       <c r="D38" s="4">
         <v>70321</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <v>192124</v>
+      </c>
+      <c r="G38" s="3">
+        <v>206043</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6166</v>
+      </c>
+      <c r="I38" s="3">
+        <v>5646</v>
+      </c>
+      <c r="J38" s="3">
+        <v>4283</v>
+      </c>
+      <c r="K38" s="3">
+        <v>3284</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1599896</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1632704</v>
+      </c>
+      <c r="N38" s="3">
+        <v>63633</v>
+      </c>
+      <c r="O38" s="3">
+        <v>60427</v>
+      </c>
+      <c r="P38" s="3">
+        <v>33325</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>29429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3929,8 +5344,44 @@
       <c r="D39" s="4">
         <v>34852</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>41931</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44439</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1626</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1506</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1443</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1199</v>
+      </c>
+      <c r="L39" s="3">
+        <v>667651</v>
+      </c>
+      <c r="M39" s="3">
+        <v>717410</v>
+      </c>
+      <c r="N39" s="3">
+        <v>27571</v>
+      </c>
+      <c r="O39" s="3">
+        <v>25979</v>
+      </c>
+      <c r="P39" s="3">
+        <v>17031</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>15179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -3943,8 +5394,44 @@
       <c r="D40" s="4">
         <v>62717</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>75193</v>
+      </c>
+      <c r="G40" s="3">
+        <v>70982</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2852</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2879</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2415</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2040</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1262671</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1283178</v>
+      </c>
+      <c r="N40" s="3">
+        <v>49555</v>
+      </c>
+      <c r="O40" s="3">
+        <v>47380</v>
+      </c>
+      <c r="P40" s="3">
+        <v>30546</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>27716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -3957,8 +5444,44 @@
       <c r="D41" s="4">
         <v>125052</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>85863</v>
+      </c>
+      <c r="G41" s="3">
+        <v>96453</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6801</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6640</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5934</v>
+      </c>
+      <c r="K41" s="3">
+        <v>4804</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1838285</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1873982</v>
+      </c>
+      <c r="N41" s="3">
+        <v>102412</v>
+      </c>
+      <c r="O41" s="3">
+        <v>97886</v>
+      </c>
+      <c r="P41" s="3">
+        <v>59686</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>54628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -3971,8 +5494,44 @@
       <c r="D42" s="4">
         <v>98378</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <v>278506</v>
+      </c>
+      <c r="G42" s="3">
+        <v>278132</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10083</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9934</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7848</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6631</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1366608</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1404738</v>
+      </c>
+      <c r="N42" s="3">
+        <v>69964</v>
+      </c>
+      <c r="O42" s="3">
+        <v>66679</v>
+      </c>
+      <c r="P42" s="3">
+        <v>43559</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>40340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3985,8 +5544,44 @@
       <c r="D43" s="4">
         <v>60247</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>106664</v>
+      </c>
+      <c r="G43" s="3">
+        <v>83127</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4467</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4049</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3306</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2752</v>
+      </c>
+      <c r="L43" s="3">
+        <v>907777</v>
+      </c>
+      <c r="M43" s="3">
+        <v>961706</v>
+      </c>
+      <c r="N43" s="3">
+        <v>46412</v>
+      </c>
+      <c r="O43" s="3">
+        <v>43915</v>
+      </c>
+      <c r="P43" s="3">
+        <v>27443</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>26746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -3999,8 +5594,44 @@
       <c r="D44" s="4">
         <v>59098</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <v>116540</v>
+      </c>
+      <c r="G44" s="3">
+        <v>91374</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2030</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1942</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1788</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1463</v>
+      </c>
+      <c r="L44" s="3">
+        <v>911132</v>
+      </c>
+      <c r="M44" s="3">
+        <v>901996</v>
+      </c>
+      <c r="N44" s="3">
+        <v>44643</v>
+      </c>
+      <c r="O44" s="3">
+        <v>42905</v>
+      </c>
+      <c r="P44" s="3">
+        <v>29372</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>26475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -4013,8 +5644,44 @@
       <c r="D45" s="4">
         <v>46327</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <v>198986</v>
+      </c>
+      <c r="G45" s="3">
+        <v>174760</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7103</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6560</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5468</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4160</v>
+      </c>
+      <c r="L45" s="3">
+        <v>774871</v>
+      </c>
+      <c r="M45" s="3">
+        <v>739225</v>
+      </c>
+      <c r="N45" s="3">
+        <v>37078</v>
+      </c>
+      <c r="O45" s="3">
+        <v>34988</v>
+      </c>
+      <c r="P45" s="3">
+        <v>19074</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -4027,8 +5694,44 @@
       <c r="D46" s="4">
         <v>1350</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <v>47200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>40300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1279</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1177</v>
+      </c>
+      <c r="J46" s="3">
+        <v>786</v>
+      </c>
+      <c r="K46" s="3">
+        <v>564</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -4041,8 +5744,44 @@
       <c r="D47" s="4">
         <v>109126</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>155603</v>
+      </c>
+      <c r="G47" s="3">
+        <v>143138</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5650</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5709</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4211</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4026</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1761144</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1798701</v>
+      </c>
+      <c r="N47" s="3">
+        <v>84163</v>
+      </c>
+      <c r="O47" s="3">
+        <v>83956</v>
+      </c>
+      <c r="P47" s="3">
+        <v>50686</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>50203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4055,8 +5794,44 @@
       <c r="D48" s="4">
         <v>61633</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <v>84812</v>
+      </c>
+      <c r="G48" s="3">
+        <v>85337</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2634</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2509</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1918</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1773</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1022726</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1220508</v>
+      </c>
+      <c r="N48" s="3">
+        <v>47606</v>
+      </c>
+      <c r="O48" s="3">
+        <v>45588</v>
+      </c>
+      <c r="P48" s="3">
+        <v>30520</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>27422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +5844,44 @@
       <c r="D49" s="4">
         <v>58705</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>106820</v>
+      </c>
+      <c r="G49" s="3">
+        <v>104792</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4019</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3782</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3208</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2556</v>
+      </c>
+      <c r="L49" s="3">
+        <v>861707</v>
+      </c>
+      <c r="M49" s="3">
+        <v>896681</v>
+      </c>
+      <c r="N49" s="3">
+        <v>39083</v>
+      </c>
+      <c r="O49" s="3">
+        <v>37065</v>
+      </c>
+      <c r="P49" s="3">
+        <v>28029</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>24912</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -4083,8 +5894,44 @@
       <c r="D50" s="4">
         <v>84641</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>95051</v>
+      </c>
+      <c r="G50" s="3">
+        <v>96958</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4096</v>
+      </c>
+      <c r="I50" s="3">
+        <v>3898</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3026</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2589</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1460800</v>
+      </c>
+      <c r="N50" s="3">
+        <v>71278</v>
+      </c>
+      <c r="O50" s="3">
+        <v>68425</v>
+      </c>
+      <c r="P50" s="3">
+        <v>40486</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>38540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -4097,8 +5944,44 @@
       <c r="D51" s="4">
         <v>79007</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>225344</v>
+      </c>
+      <c r="G51" s="3">
+        <v>219523</v>
+      </c>
+      <c r="H51" s="3">
+        <v>7882</v>
+      </c>
+      <c r="I51" s="3">
+        <v>7467</v>
+      </c>
+      <c r="J51" s="3">
+        <v>6008</v>
+      </c>
+      <c r="K51" s="3">
+        <v>4642</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1560328</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1530477</v>
+      </c>
+      <c r="N51" s="3">
+        <v>69989</v>
+      </c>
+      <c r="O51" s="3">
+        <v>65865</v>
+      </c>
+      <c r="P51" s="3">
+        <v>36834</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>31523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -4111,8 +5994,44 @@
       <c r="D52" s="4">
         <v>68866</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
+        <v>119426</v>
+      </c>
+      <c r="G52" s="3">
+        <v>107776</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4259</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4170</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3283</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2669</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1466043</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1421165</v>
+      </c>
+      <c r="N52" s="3">
+        <v>61028</v>
+      </c>
+      <c r="O52" s="3">
+        <v>58713</v>
+      </c>
+      <c r="P52" s="3">
+        <v>33453</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>29461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4125,8 +6044,44 @@
       <c r="D53" s="4">
         <v>3289</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
+        <v>61975</v>
+      </c>
+      <c r="G53" s="3">
+        <v>55604</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2427</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2289</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1852</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1437</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -4139,8 +6094,44 @@
       <c r="D54" s="4">
         <v>9742</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>317363</v>
+      </c>
+      <c r="G54" s="3">
+        <v>337883</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7317</v>
+      </c>
+      <c r="I54" s="3">
+        <v>6466</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5379</v>
+      </c>
+      <c r="K54" s="3">
+        <v>4363</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -4153,8 +6144,44 @@
       <c r="D55" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>79100</v>
+      </c>
+      <c r="G55" s="3">
+        <v>69000</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="3">
+        <v>474400</v>
+      </c>
+      <c r="M55" s="3">
+        <v>465300</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -4167,8 +6194,44 @@
       <c r="D56" s="4">
         <v>65334</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>136928</v>
+      </c>
+      <c r="G56" s="3">
+        <v>141433</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3924</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3717</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2828</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2471</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1332078</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1353699</v>
+      </c>
+      <c r="N56" s="3">
+        <v>54773</v>
+      </c>
+      <c r="O56" s="3">
+        <v>52132</v>
+      </c>
+      <c r="P56" s="3">
+        <v>31400</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>28635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -4181,8 +6244,44 @@
       <c r="D57" s="4">
         <v>9188</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>74231</v>
+      </c>
+      <c r="G57" s="3">
+        <v>69457</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1788</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1670</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1685</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1276</v>
+      </c>
+      <c r="L57" s="3">
+        <v>191497</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200542</v>
+      </c>
+      <c r="N57" s="3">
+        <v>4292</v>
+      </c>
+      <c r="O57" s="3">
+        <v>4073</v>
+      </c>
+      <c r="P57" s="3">
+        <v>3287</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -4195,8 +6294,44 @@
       <c r="D58" s="4">
         <v>31687</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>97782</v>
+      </c>
+      <c r="G58" s="3">
+        <v>115329</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4284</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4087</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3535</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2817</v>
+      </c>
+      <c r="L58" s="3">
+        <v>540351</v>
+      </c>
+      <c r="M58" s="3">
+        <v>633925</v>
+      </c>
+      <c r="N58" s="3">
+        <v>23262</v>
+      </c>
+      <c r="O58" s="3">
+        <v>21946</v>
+      </c>
+      <c r="P58" s="3">
+        <v>14517</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>13818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -4209,8 +6344,44 @@
       <c r="D59" s="4">
         <v>3008885</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <v>9070486</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8668443</v>
+      </c>
+      <c r="H59" s="3">
+        <v>268809</v>
+      </c>
+      <c r="I59" s="3">
+        <v>254696</v>
+      </c>
+      <c r="J59" s="3">
+        <v>216055</v>
+      </c>
+      <c r="K59" s="3">
+        <v>171118</v>
+      </c>
+      <c r="L59" s="3">
+        <v>54211712</v>
+      </c>
+      <c r="M59" s="3">
+        <v>55656437</v>
+      </c>
+      <c r="N59" s="3">
+        <v>2253766</v>
+      </c>
+      <c r="O59" s="3">
+        <v>2157908</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1366181</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1252481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -4223,8 +6394,44 @@
       <c r="D60" s="4">
         <v>14405</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>53044</v>
+      </c>
+      <c r="G60" s="3">
+        <v>47115</v>
+      </c>
+      <c r="H60" s="3">
+        <v>901</v>
+      </c>
+      <c r="I60" s="3">
+        <v>671</v>
+      </c>
+      <c r="J60" s="3">
+        <v>766</v>
+      </c>
+      <c r="K60" s="3">
+        <v>522</v>
+      </c>
+      <c r="L60" s="3">
+        <v>402464</v>
+      </c>
+      <c r="M60" s="3">
+        <v>352842</v>
+      </c>
+      <c r="N60" s="3">
+        <v>10010</v>
+      </c>
+      <c r="O60" s="3">
+        <v>8927</v>
+      </c>
+      <c r="P60" s="3">
+        <v>7126</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -4237,8 +6444,44 @@
       <c r="D61" s="4">
         <v>8058</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <v>226096</v>
+      </c>
+      <c r="G61" s="3">
+        <v>166542</v>
+      </c>
+      <c r="H61" s="3">
+        <v>6047</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5147</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4731</v>
+      </c>
+      <c r="K61" s="3">
+        <v>3327</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -4251,8 +6494,44 @@
       <c r="D62" s="4">
         <v>791</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
+        <v>31900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>167</v>
+      </c>
+      <c r="I62" s="3">
+        <v>130</v>
+      </c>
+      <c r="J62" s="3">
+        <v>159</v>
+      </c>
+      <c r="K62" s="3">
+        <v>109</v>
+      </c>
+      <c r="L62" s="3">
+        <v>64800</v>
+      </c>
+      <c r="M62" s="3">
+        <v>63800</v>
+      </c>
+      <c r="N62" s="3">
+        <v>898</v>
+      </c>
+      <c r="O62" s="3">
+        <v>644</v>
+      </c>
+      <c r="P62" s="3">
+        <v>269</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -4265,8 +6544,44 @@
       <c r="D63" s="4">
         <v>11929</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
+        <v>42453</v>
+      </c>
+      <c r="G63" s="3">
+        <v>27303</v>
+      </c>
+      <c r="H63" s="3">
+        <v>990</v>
+      </c>
+      <c r="I63" s="3">
+        <v>771</v>
+      </c>
+      <c r="J63" s="3">
+        <v>932</v>
+      </c>
+      <c r="K63" s="3">
+        <v>659</v>
+      </c>
+      <c r="L63" s="3">
+        <v>321842</v>
+      </c>
+      <c r="M63" s="3">
+        <v>311912</v>
+      </c>
+      <c r="N63" s="3">
+        <v>7355</v>
+      </c>
+      <c r="O63" s="3">
+        <v>6451</v>
+      </c>
+      <c r="P63" s="3">
+        <v>5317</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -4279,8 +6594,44 @@
       <c r="D64" s="4">
         <v>18002</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
+        <v>72434</v>
+      </c>
+      <c r="G64" s="3">
+        <v>73018</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1468</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1185</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1028</v>
+      </c>
+      <c r="K64" s="3">
+        <v>778</v>
+      </c>
+      <c r="L64" s="3">
+        <v>585066</v>
+      </c>
+      <c r="M64" s="3">
+        <v>529898</v>
+      </c>
+      <c r="N64" s="3">
+        <v>13954</v>
+      </c>
+      <c r="O64" s="3">
+        <v>12296</v>
+      </c>
+      <c r="P64" s="3">
+        <v>8385</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>7811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -4293,8 +6644,44 @@
       <c r="D65" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>25400</v>
+      </c>
+      <c r="G65" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L65" s="3">
+        <v>185700</v>
+      </c>
+      <c r="M65" s="3">
+        <v>163400</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -4307,8 +6694,44 @@
       <c r="D66" s="4">
         <v>85762</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>125300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>120200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4507</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4342</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3952</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3286</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1388300</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1350700</v>
+      </c>
+      <c r="N66" s="3">
+        <v>74423</v>
+      </c>
+      <c r="O66" s="3">
+        <v>70773</v>
+      </c>
+      <c r="P66" s="3">
+        <v>40904</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -4321,8 +6744,44 @@
       <c r="D67" s="4">
         <v>15702</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>74381</v>
+      </c>
+      <c r="G67" s="3">
+        <v>50037</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1038</v>
+      </c>
+      <c r="I67" s="3">
+        <v>888</v>
+      </c>
+      <c r="J67" s="3">
+        <v>860</v>
+      </c>
+      <c r="K67" s="3">
+        <v>650</v>
+      </c>
+      <c r="L67" s="3">
+        <v>597152</v>
+      </c>
+      <c r="M67" s="3">
+        <v>511890</v>
+      </c>
+      <c r="N67" s="3">
+        <v>13698</v>
+      </c>
+      <c r="O67" s="3">
+        <v>12998</v>
+      </c>
+      <c r="P67" s="3">
+        <v>7327</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>6865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -4335,8 +6794,44 @@
       <c r="D68" s="4">
         <v>49338</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <v>31728</v>
+      </c>
+      <c r="G68" s="3">
+        <v>31122</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1314</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1256</v>
+      </c>
+      <c r="J68" s="3">
+        <v>947</v>
+      </c>
+      <c r="K68" s="3">
+        <v>815</v>
+      </c>
+      <c r="L68" s="3">
+        <v>626104</v>
+      </c>
+      <c r="M68" s="3">
+        <v>604698</v>
+      </c>
+      <c r="N68" s="3">
+        <v>35898</v>
+      </c>
+      <c r="O68" s="3">
+        <v>34321</v>
+      </c>
+      <c r="P68" s="3">
+        <v>24612</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>22964</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -4349,8 +6844,44 @@
       <c r="D69" s="4">
         <v>33268</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <v>119909</v>
+      </c>
+      <c r="G69" s="3">
+        <v>103747</v>
+      </c>
+      <c r="H69" s="3">
+        <v>4124</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3919</v>
+      </c>
+      <c r="J69" s="3">
+        <v>3136</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2472</v>
+      </c>
+      <c r="L69" s="3">
+        <v>574823</v>
+      </c>
+      <c r="M69" s="3">
+        <v>522849</v>
+      </c>
+      <c r="N69" s="3">
+        <v>25337</v>
+      </c>
+      <c r="O69" s="3">
+        <v>23688</v>
+      </c>
+      <c r="P69" s="3">
+        <v>14339</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>13321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -4363,8 +6894,44 @@
       <c r="D70" s="4">
         <v>26951</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <v>224342</v>
+      </c>
+      <c r="G70" s="3">
+        <v>194711</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3601</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3380</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3233</v>
+      </c>
+      <c r="K70" s="3">
+        <v>2395</v>
+      </c>
+      <c r="L70" s="3">
+        <v>554740</v>
+      </c>
+      <c r="M70" s="3">
+        <v>487009</v>
+      </c>
+      <c r="N70" s="3">
+        <v>22239</v>
+      </c>
+      <c r="O70" s="3">
+        <v>19243</v>
+      </c>
+      <c r="P70" s="3">
+        <v>11959</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>9364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -4377,8 +6944,44 @@
       <c r="D71" s="4">
         <v>2658</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <v>62013</v>
+      </c>
+      <c r="G71" s="3">
+        <v>37886</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1105</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1095</v>
+      </c>
+      <c r="J71" s="3">
+        <v>778</v>
+      </c>
+      <c r="K71" s="3">
+        <v>551</v>
+      </c>
+      <c r="L71" s="3">
+        <v>56061</v>
+      </c>
+      <c r="M71" s="3">
+        <v>38510</v>
+      </c>
+      <c r="N71" s="3">
+        <v>1764</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1564</v>
+      </c>
+      <c r="P71" s="3">
+        <v>726</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -4391,8 +6994,44 @@
       <c r="D72" s="4">
         <v>19553</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <v>53440</v>
+      </c>
+      <c r="G72" s="3">
+        <v>39472</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1242</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1215</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1186</v>
+      </c>
+      <c r="K72" s="3">
+        <v>880</v>
+      </c>
+      <c r="L72" s="3">
+        <v>447652</v>
+      </c>
+      <c r="M72" s="3">
+        <v>395242</v>
+      </c>
+      <c r="N72" s="3">
+        <v>17967</v>
+      </c>
+      <c r="O72" s="3">
+        <v>15807</v>
+      </c>
+      <c r="P72" s="3">
+        <v>9174</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>8313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -4405,8 +7044,44 @@
       <c r="D73" s="4">
         <v>286417</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>1142440</v>
+      </c>
+      <c r="G73" s="3">
+        <v>935453</v>
+      </c>
+      <c r="H73" s="3">
+        <v>26504</v>
+      </c>
+      <c r="I73" s="3">
+        <v>23999</v>
+      </c>
+      <c r="J73" s="3">
+        <v>21708</v>
+      </c>
+      <c r="K73" s="3">
+        <v>16444</v>
+      </c>
+      <c r="L73" s="3">
+        <v>5804704</v>
+      </c>
+      <c r="M73" s="3">
+        <v>5332750</v>
+      </c>
+      <c r="N73" s="3">
+        <v>223543</v>
+      </c>
+      <c r="O73" s="3">
+        <v>206712</v>
+      </c>
+      <c r="P73" s="3">
+        <v>130138</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>118127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -4419,8 +7094,44 @@
       <c r="D74" s="4">
         <v>7725</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>38790</v>
+      </c>
+      <c r="G74" s="3">
+        <v>24224</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2181</v>
+      </c>
+      <c r="I74" s="3">
+        <v>2116</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1311</v>
+      </c>
+      <c r="K74" s="3">
+        <v>953</v>
+      </c>
+      <c r="L74" s="3">
+        <v>154714</v>
+      </c>
+      <c r="M74" s="3">
+        <v>102474</v>
+      </c>
+      <c r="N74" s="3">
+        <v>6532</v>
+      </c>
+      <c r="O74" s="3">
+        <v>5728</v>
+      </c>
+      <c r="P74" s="3">
+        <v>3101</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -4433,8 +7144,44 @@
       <c r="D75" s="4">
         <v>35696</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <v>84229</v>
+      </c>
+      <c r="G75" s="3">
+        <v>69193</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2609</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2441</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2103</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1612</v>
+      </c>
+      <c r="L75" s="3">
+        <v>503119</v>
+      </c>
+      <c r="M75" s="3">
+        <v>477667</v>
+      </c>
+      <c r="N75" s="3">
+        <v>28692</v>
+      </c>
+      <c r="O75" s="3">
+        <v>26999</v>
+      </c>
+      <c r="P75" s="3">
+        <v>16781</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -4447,8 +7194,44 @@
       <c r="D76" s="4">
         <v>24791</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <v>82591</v>
+      </c>
+      <c r="G76" s="3">
+        <v>60776</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2674</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2575</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1985</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1482</v>
+      </c>
+      <c r="L76" s="3">
+        <v>421751</v>
+      </c>
+      <c r="M76" s="3">
+        <v>388352</v>
+      </c>
+      <c r="N76" s="3">
+        <v>18910</v>
+      </c>
+      <c r="O76" s="3">
+        <v>17842</v>
+      </c>
+      <c r="P76" s="3">
+        <v>11115</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -4461,8 +7244,44 @@
       <c r="D77" s="4">
         <v>21326</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>77730</v>
+      </c>
+      <c r="G77" s="3">
+        <v>65064</v>
+      </c>
+      <c r="H77" s="3">
+        <v>3207</v>
+      </c>
+      <c r="I77" s="3">
+        <v>3021</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2081</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1726</v>
+      </c>
+      <c r="L77" s="3">
+        <v>323501</v>
+      </c>
+      <c r="M77" s="3">
+        <v>278066</v>
+      </c>
+      <c r="N77" s="3">
+        <v>15174</v>
+      </c>
+      <c r="O77" s="3">
+        <v>13929</v>
+      </c>
+      <c r="P77" s="3">
+        <v>9414</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -4475,8 +7294,44 @@
       <c r="D78" s="4">
         <v>605</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <v>1623</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1119</v>
+      </c>
+      <c r="H78" s="3">
+        <v>40</v>
+      </c>
+      <c r="I78" s="3">
+        <v>45</v>
+      </c>
+      <c r="J78" s="3">
+        <v>24</v>
+      </c>
+      <c r="K78" s="3">
+        <v>30</v>
+      </c>
+      <c r="L78" s="3">
+        <v>15282</v>
+      </c>
+      <c r="M78" s="3">
+        <v>14506</v>
+      </c>
+      <c r="N78" s="3">
+        <v>364</v>
+      </c>
+      <c r="O78" s="3">
+        <v>307</v>
+      </c>
+      <c r="P78" s="3">
+        <v>287</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -4489,8 +7344,44 @@
       <c r="D79" s="4">
         <v>8698</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <v>98440</v>
+      </c>
+      <c r="G79" s="3">
+        <v>53783</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2721</v>
+      </c>
+      <c r="I79" s="3">
+        <v>2519</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1779</v>
+      </c>
+      <c r="K79" s="3">
+        <v>983</v>
+      </c>
+      <c r="L79" s="3">
+        <v>206361</v>
+      </c>
+      <c r="M79" s="3">
+        <v>165549</v>
+      </c>
+      <c r="N79" s="3">
+        <v>7720</v>
+      </c>
+      <c r="O79" s="3">
+        <v>6985</v>
+      </c>
+      <c r="P79" s="3">
+        <v>3243</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -4503,8 +7394,44 @@
       <c r="D80" s="4">
         <v>699</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <v>9079</v>
+      </c>
+      <c r="G80" s="3">
+        <v>5335</v>
+      </c>
+      <c r="H80" s="3">
+        <v>279</v>
+      </c>
+      <c r="I80" s="3">
+        <v>225</v>
+      </c>
+      <c r="J80" s="3">
+        <v>173</v>
+      </c>
+      <c r="K80" s="3">
+        <v>127</v>
+      </c>
+      <c r="L80" s="3">
+        <v>11719</v>
+      </c>
+      <c r="M80" s="3">
+        <v>7668</v>
+      </c>
+      <c r="N80" s="3">
+        <v>413</v>
+      </c>
+      <c r="O80" s="3">
+        <v>313</v>
+      </c>
+      <c r="P80" s="3">
+        <v>248</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -4517,8 +7444,44 @@
       <c r="D81" s="4">
         <v>80174</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <v>83792</v>
+      </c>
+      <c r="G81" s="3">
+        <v>66273</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2990</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2771</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2692</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2187</v>
+      </c>
+      <c r="L81" s="3">
+        <v>979559</v>
+      </c>
+      <c r="M81" s="3">
+        <v>996068</v>
+      </c>
+      <c r="N81" s="3">
+        <v>56949</v>
+      </c>
+      <c r="O81" s="3">
+        <v>54669</v>
+      </c>
+      <c r="P81" s="3">
+        <v>39142</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>36153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -4531,8 +7494,44 @@
       <c r="D82" s="4">
         <v>131947</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>119671</v>
+      </c>
+      <c r="G82" s="3">
+        <v>114875</v>
+      </c>
+      <c r="H82" s="3">
+        <v>4917</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4732</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3319</v>
+      </c>
+      <c r="K82" s="3">
+        <v>2686</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1999810</v>
+      </c>
+      <c r="M82" s="3">
+        <v>1980807</v>
+      </c>
+      <c r="N82" s="3">
+        <v>110491</v>
+      </c>
+      <c r="O82" s="3">
+        <v>106448</v>
+      </c>
+      <c r="P82" s="3">
+        <v>65199</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>60743</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -4545,8 +7544,44 @@
       <c r="D83" s="4">
         <v>7047</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>6724</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4686</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L83" s="3">
+        <v>136946</v>
+      </c>
+      <c r="M83" s="3">
+        <v>121757</v>
+      </c>
+      <c r="N83" s="3">
+        <v>5176</v>
+      </c>
+      <c r="O83" s="3">
+        <v>4919</v>
+      </c>
+      <c r="P83" s="3">
+        <v>3651</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -4559,8 +7594,44 @@
       <c r="D84" s="4">
         <v>318708</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <v>602669</v>
+      </c>
+      <c r="G84" s="3">
+        <v>465328</v>
+      </c>
+      <c r="H84" s="3">
+        <v>21618</v>
+      </c>
+      <c r="I84" s="3">
+        <v>20445</v>
+      </c>
+      <c r="J84" s="3">
+        <v>15467</v>
+      </c>
+      <c r="K84" s="3">
+        <v>11786</v>
+      </c>
+      <c r="L84" s="3">
+        <v>4752762</v>
+      </c>
+      <c r="M84" s="3">
+        <v>4532914</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O84" s="3">
+        <v>238139</v>
+      </c>
+      <c r="P84" s="3">
+        <v>152181</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>139274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -4573,8 +7644,44 @@
       <c r="D85" s="4">
         <v>36604</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>111779</v>
+      </c>
+      <c r="G85" s="3">
+        <v>105722</v>
+      </c>
+      <c r="H85" s="3">
+        <v>3128</v>
+      </c>
+      <c r="I85" s="3">
+        <v>3044</v>
+      </c>
+      <c r="J85" s="3">
+        <v>2488</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2070</v>
+      </c>
+      <c r="L85" s="3">
+        <v>693896</v>
+      </c>
+      <c r="M85" s="3">
+        <v>644282</v>
+      </c>
+      <c r="N85" s="3">
+        <v>31244</v>
+      </c>
+      <c r="O85" s="3">
+        <v>29324</v>
+      </c>
+      <c r="P85" s="3">
+        <v>16664</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>15382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -4587,8 +7694,44 @@
       <c r="D86" s="4">
         <v>13113</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <v>37665</v>
+      </c>
+      <c r="G86" s="3">
+        <v>35649</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1379</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1353</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1376</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1337</v>
+      </c>
+      <c r="L86" s="3">
+        <v>224989</v>
+      </c>
+      <c r="M86" s="3">
+        <v>208833</v>
+      </c>
+      <c r="N86" s="3">
+        <v>6652</v>
+      </c>
+      <c r="O86" s="3">
+        <v>6283</v>
+      </c>
+      <c r="P86" s="3">
+        <v>5338</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -4601,8 +7744,44 @@
       <c r="D87" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>114600</v>
+      </c>
+      <c r="G87" s="3">
+        <v>93900</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M87" s="3">
+        <v>447400</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -4615,8 +7794,44 @@
       <c r="D88" s="4">
         <v>15983</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <v>48064</v>
+      </c>
+      <c r="G88" s="3">
+        <v>42166</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1911</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1719</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1290</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1096</v>
+      </c>
+      <c r="L88" s="3">
+        <v>457107</v>
+      </c>
+      <c r="M88" s="3">
+        <v>381172</v>
+      </c>
+      <c r="N88" s="3">
+        <v>11524</v>
+      </c>
+      <c r="O88" s="3">
+        <v>10447</v>
+      </c>
+      <c r="P88" s="3">
+        <v>7301</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>6296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -4629,8 +7844,44 @@
       <c r="D89" s="4">
         <v>34688</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>55448</v>
+      </c>
+      <c r="G89" s="3">
+        <v>47156</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3402</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3205</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2267</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2258</v>
+      </c>
+      <c r="L89" s="3">
+        <v>679477</v>
+      </c>
+      <c r="M89" s="3">
+        <v>549084</v>
+      </c>
+      <c r="N89" s="3">
+        <v>26794</v>
+      </c>
+      <c r="O89" s="3">
+        <v>22832</v>
+      </c>
+      <c r="P89" s="3">
+        <v>16080</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>14083</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -4643,8 +7894,44 @@
       <c r="D90" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>200600</v>
+      </c>
+      <c r="G90" s="3">
+        <v>162700</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L90" s="3">
+        <v>884500</v>
+      </c>
+      <c r="M90" s="3">
+        <v>764500</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -4657,8 +7944,44 @@
       <c r="D91" s="4">
         <v>24917</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <v>19694</v>
+      </c>
+      <c r="G91" s="3">
+        <v>20348</v>
+      </c>
+      <c r="H91" s="3">
+        <v>819</v>
+      </c>
+      <c r="I91" s="3">
+        <v>913</v>
+      </c>
+      <c r="J91" s="3">
+        <v>543</v>
+      </c>
+      <c r="K91" s="3">
+        <v>517</v>
+      </c>
+      <c r="L91" s="3">
+        <v>420492</v>
+      </c>
+      <c r="M91" s="3">
+        <v>381872</v>
+      </c>
+      <c r="N91" s="3">
+        <v>19921</v>
+      </c>
+      <c r="O91" s="3">
+        <v>18224</v>
+      </c>
+      <c r="P91" s="3">
+        <v>13557</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -4671,8 +7994,44 @@
       <c r="D92" s="4">
         <v>14953</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>32850</v>
+      </c>
+      <c r="G92" s="3">
+        <v>32147</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1154</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1099</v>
+      </c>
+      <c r="J92" s="3">
+        <v>661</v>
+      </c>
+      <c r="K92" s="3">
+        <v>497</v>
+      </c>
+      <c r="L92" s="3">
+        <v>406600</v>
+      </c>
+      <c r="M92" s="3">
+        <v>364331</v>
+      </c>
+      <c r="N92" s="3">
+        <v>9976</v>
+      </c>
+      <c r="O92" s="3">
+        <v>8472</v>
+      </c>
+      <c r="P92" s="3">
+        <v>7410</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -4685,8 +8044,44 @@
       <c r="D93" s="4">
         <v>34503</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>242988</v>
+      </c>
+      <c r="G93" s="3">
+        <v>168999</v>
+      </c>
+      <c r="H93" s="3">
+        <v>9297</v>
+      </c>
+      <c r="I93" s="3">
+        <v>6599</v>
+      </c>
+      <c r="J93" s="3">
+        <v>5014</v>
+      </c>
+      <c r="K93" s="3">
+        <v>4784</v>
+      </c>
+      <c r="L93" s="3">
+        <v>926425</v>
+      </c>
+      <c r="M93" s="3">
+        <v>785524</v>
+      </c>
+      <c r="N93" s="3">
+        <v>27598</v>
+      </c>
+      <c r="O93" s="3">
+        <v>22209</v>
+      </c>
+      <c r="P93" s="3">
+        <v>12919</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>11786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -4699,8 +8094,44 @@
       <c r="D94" s="4">
         <v>174761</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>863688</v>
+      </c>
+      <c r="G94" s="3">
+        <v>708787</v>
+      </c>
+      <c r="H94" s="3">
+        <v>21090</v>
+      </c>
+      <c r="I94" s="3">
+        <v>17932</v>
+      </c>
+      <c r="J94" s="3">
+        <v>13639</v>
+      </c>
+      <c r="K94" s="3">
+        <v>12559</v>
+      </c>
+      <c r="L94" s="3">
+        <v>5235586</v>
+      </c>
+      <c r="M94" s="3">
+        <v>4526998</v>
+      </c>
+      <c r="N94" s="3">
+        <v>133709</v>
+      </c>
+      <c r="O94" s="3">
+        <v>117791</v>
+      </c>
+      <c r="P94" s="3">
+        <v>79269</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>69294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -4713,8 +8144,44 @@
       <c r="D95" s="4">
         <v>779886</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>2608797</v>
+      </c>
+      <c r="G95" s="3">
+        <v>2109568</v>
+      </c>
+      <c r="H95" s="3">
+        <v>69212</v>
+      </c>
+      <c r="I95" s="3">
+        <v>62376</v>
+      </c>
+      <c r="J95" s="3">
+        <v>50814</v>
+      </c>
+      <c r="K95" s="3">
+        <v>40789</v>
+      </c>
+      <c r="L95" s="3">
+        <v>15793052</v>
+      </c>
+      <c r="M95" s="3">
+        <v>14392662</v>
+      </c>
+      <c r="N95" s="3">
+        <v>607678</v>
+      </c>
+      <c r="O95" s="3">
+        <v>562642</v>
+      </c>
+      <c r="P95" s="3">
+        <v>361588</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>326695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -4726,6 +8193,42 @@
       </c>
       <c r="D96" s="4">
         <v>3788721</v>
+      </c>
+      <c r="F96" s="3">
+        <v>11679283</v>
+      </c>
+      <c r="G96" s="3">
+        <v>10778016</v>
+      </c>
+      <c r="H96" s="3">
+        <v>338021</v>
+      </c>
+      <c r="I96" s="3">
+        <v>317072</v>
+      </c>
+      <c r="J96" s="3">
+        <v>266869</v>
+      </c>
+      <c r="K96" s="3">
+        <v>214907</v>
+      </c>
+      <c r="L96" s="3">
+        <v>70004764</v>
+      </c>
+      <c r="M96" s="3">
+        <v>70049099</v>
+      </c>
+      <c r="N96" s="3">
+        <v>2861439</v>
+      </c>
+      <c r="O96" s="3">
+        <v>2720550</v>
+      </c>
+      <c r="P96" s="3">
+        <v>1727769</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>1579176</v>
       </c>
     </row>
   </sheetData>

--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D9D19-FF73-4025-8CD2-3B99020828F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C761E-F2C7-46A3-B905-B361FEE62ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
+    <workbookView xWindow="3465" yWindow="2865" windowWidth="26340" windowHeight="18825" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,46 +451,46 @@
     <t>Итого въ Средней Азии</t>
   </si>
   <si>
-    <t>чж-гор-м 1915</t>
-  </si>
-  <si>
-    <t>чж-гор-ж 1915</t>
-  </si>
-  <si>
-    <t>чр-гор-м 1914</t>
-  </si>
-  <si>
-    <t>чр-гор-ж 1914</t>
-  </si>
-  <si>
-    <t>чс-гор-м 1914</t>
-  </si>
-  <si>
-    <t>чс-гор-ж 1914</t>
-  </si>
-  <si>
-    <t>чж-уез-м 1915</t>
-  </si>
-  <si>
-    <t>чж-уез-ж 1915</t>
-  </si>
-  <si>
-    <t>чр-уез-м 1914</t>
-  </si>
-  <si>
-    <t>чр-уез-ж 1914</t>
-  </si>
-  <si>
-    <t>чс-уез-м 1914</t>
-  </si>
-  <si>
-    <t>чс-уез-ж 1914</t>
-  </si>
-  <si>
     <t>5421(10</t>
   </si>
   <si>
     <t>25042!</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
   </si>
 </sst>
 </file>
@@ -3415,7 +3415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3444,40 +3446,40 @@
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -7619,7 +7621,7 @@
         <v>4532914</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O84" s="3">
         <v>238139</v>
@@ -7763,7 +7765,7 @@
         <v>84</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M87" s="3">
         <v>447400</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C761E-F2C7-46A3-B905-B361FEE62ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD62DB9-CFE1-4714-ABE9-65F310F7FAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="2865" windowWidth="26340" windowHeight="18825" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="160">
   <si>
     <t>губ</t>
   </si>
@@ -491,6 +491,27 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -3413,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,15 +3445,26 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3452,38 +3484,73 @@
         <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3502,38 +3569,48 @@
       <c r="G2" s="3">
         <v>29498</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>1093</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="3">
         <v>1056</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>1011</v>
       </c>
-      <c r="K2" s="3">
+      <c r="O2" s="3">
         <v>752</v>
       </c>
-      <c r="L2" s="3">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
         <v>201470</v>
       </c>
-      <c r="M2" s="3">
+      <c r="S2" s="3">
         <v>218792</v>
       </c>
-      <c r="N2" s="3">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3">
         <v>9478</v>
       </c>
-      <c r="O2" s="3">
+      <c r="W2" s="3">
         <v>9069</v>
       </c>
-      <c r="P2" s="3">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3">
         <v>6124</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="AA2" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3552,38 +3629,48 @@
       <c r="G3" s="3">
         <v>95116</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>4054</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>3913</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>3347</v>
       </c>
-      <c r="K3" s="3">
+      <c r="O3" s="3">
         <v>2685</v>
       </c>
-      <c r="L3" s="3">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
         <v>637293</v>
       </c>
-      <c r="M3" s="3">
+      <c r="S3" s="3">
         <v>610801</v>
       </c>
-      <c r="N3" s="3">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3">
         <v>23014</v>
       </c>
-      <c r="O3" s="3">
+      <c r="W3" s="3">
         <v>21371</v>
       </c>
-      <c r="P3" s="3">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
         <v>12334</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="AA3" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3602,38 +3689,48 @@
       <c r="G4" s="3">
         <v>138303</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>4293</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>4107</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>3250</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>2611</v>
       </c>
-      <c r="L4" s="3">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
         <v>797599</v>
       </c>
-      <c r="M4" s="3">
+      <c r="S4" s="3">
         <v>793899</v>
       </c>
-      <c r="N4" s="3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
         <v>35470</v>
       </c>
-      <c r="O4" s="3">
+      <c r="W4" s="3">
         <v>33471</v>
       </c>
-      <c r="P4" s="3">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
         <v>18202</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="AA4" s="3">
         <v>16503</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3652,38 +3749,48 @@
       <c r="G5" s="3">
         <v>135700</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <v>890700</v>
       </c>
-      <c r="M5" s="3">
+      <c r="S5" s="3">
         <v>896000</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3702,38 +3809,48 @@
       <c r="G6" s="3">
         <v>173712</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>4179</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>3828</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>3054</v>
       </c>
-      <c r="K6" s="3">
+      <c r="O6" s="3">
         <v>2428</v>
       </c>
-      <c r="L6" s="3">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <v>744304</v>
       </c>
-      <c r="M6" s="3">
+      <c r="S6" s="3">
         <v>798602</v>
       </c>
-      <c r="N6" s="3">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
         <v>28404</v>
       </c>
-      <c r="O6" s="3">
+      <c r="W6" s="3">
         <v>27228</v>
       </c>
-      <c r="P6" s="3">
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3">
         <v>15346</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="AA6" s="3">
         <v>13221</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -3752,38 +3869,48 @@
       <c r="G7" s="3">
         <v>158948</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>6755</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>6705</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>4805</v>
       </c>
-      <c r="K7" s="3">
+      <c r="O7" s="3">
         <v>3972</v>
       </c>
-      <c r="L7" s="3">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
         <v>821075</v>
       </c>
-      <c r="M7" s="3">
+      <c r="S7" s="3">
         <v>877799</v>
       </c>
-      <c r="N7" s="3">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3">
         <v>38496</v>
       </c>
-      <c r="O7" s="3">
+      <c r="W7" s="3">
         <v>37059</v>
       </c>
-      <c r="P7" s="3">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3">
         <v>23183</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="AA7" s="3">
         <v>21364</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3802,38 +3929,48 @@
       <c r="G8" s="3">
         <v>36710</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>1810</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1772</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <v>1224</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>1028</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
         <v>781501</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>850547</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
         <v>39262</v>
       </c>
-      <c r="O8" s="3">
+      <c r="W8" s="3">
         <v>37237</v>
       </c>
-      <c r="P8" s="3">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3">
         <v>25053</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="AA8" s="3">
         <v>23499</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3852,38 +3989,48 @@
       <c r="G9" s="3">
         <v>170152</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>5484</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4973</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>4126</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>3427</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
         <v>1766883</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <v>1792936</v>
       </c>
-      <c r="N9" s="3">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3">
         <v>68315</v>
       </c>
-      <c r="O9" s="3">
+      <c r="W9" s="3">
         <v>63466</v>
       </c>
-      <c r="P9" s="3">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3">
         <v>43901</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="AA9" s="3">
         <v>39279</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3902,38 +4049,48 @@
       <c r="G10" s="3">
         <v>82419</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>2727</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2548</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <v>2219</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1810</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
         <v>1823618</v>
       </c>
-      <c r="M10" s="3">
+      <c r="S10" s="3">
         <v>1787211</v>
       </c>
-      <c r="N10" s="3">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
         <v>89014</v>
       </c>
-      <c r="O10" s="3">
+      <c r="W10" s="3">
         <v>84875</v>
       </c>
-      <c r="P10" s="3">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3">
         <v>54959</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="AA10" s="3">
         <v>51231</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3952,38 +4109,48 @@
       <c r="G11" s="3">
         <v>69093</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>2288</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>2071</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <v>1974</v>
       </c>
-      <c r="K11" s="3">
+      <c r="O11" s="3">
         <v>1637</v>
       </c>
-      <c r="L11" s="3">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
         <v>1769805</v>
       </c>
-      <c r="M11" s="3">
+      <c r="S11" s="3">
         <v>1869285</v>
       </c>
-      <c r="N11" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3">
         <v>99093</v>
       </c>
-      <c r="O11" s="3">
+      <c r="W11" s="3">
         <v>94518</v>
       </c>
-      <c r="P11" s="3">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3">
         <v>63448</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="AA11" s="3">
         <v>59495</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -4002,38 +4169,48 @@
       <c r="G12" s="3">
         <v>180900</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>850800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="S12" s="3">
         <v>825800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -4052,38 +4229,48 @@
       <c r="G13" s="3">
         <v>95741</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>4537</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>4503</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <v>3263</v>
       </c>
-      <c r="K13" s="3">
+      <c r="O13" s="3">
         <v>2656</v>
       </c>
-      <c r="L13" s="3">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
         <v>1668639</v>
       </c>
-      <c r="M13" s="3">
+      <c r="S13" s="3">
         <v>1576017</v>
       </c>
-      <c r="N13" s="3">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
         <v>81704</v>
       </c>
-      <c r="O13" s="3">
+      <c r="W13" s="3">
         <v>77257</v>
       </c>
-      <c r="P13" s="3">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3">
         <v>48939</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="AA13" s="3">
         <v>43632</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4102,38 +4289,48 @@
       <c r="G14" s="3">
         <v>116971</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>3529</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3279</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <v>2360</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>1983</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4152,38 +4349,48 @@
       <c r="G15" s="3">
         <v>242386</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>9455</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8886</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
         <v>5923</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>4672</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
         <v>1585850</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <v>1426958</v>
       </c>
-      <c r="N15" s="3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3">
         <v>74133</v>
       </c>
-      <c r="O15" s="3">
+      <c r="W15" s="3">
         <v>70627</v>
       </c>
-      <c r="P15" s="3">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3">
         <v>35674</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="AA15" s="3">
         <v>29839</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4202,38 +4409,48 @@
       <c r="G16" s="3">
         <v>134274</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>4641</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>4688</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
         <v>3823</v>
       </c>
-      <c r="K16" s="3">
+      <c r="O16" s="3">
         <v>3692</v>
       </c>
-      <c r="L16" s="3">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>1317999</v>
       </c>
-      <c r="M16" s="3">
+      <c r="S16" s="3">
         <v>1308194</v>
       </c>
-      <c r="N16" s="3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
         <v>61255</v>
       </c>
-      <c r="O16" s="3">
+      <c r="W16" s="3">
         <v>60758</v>
       </c>
-      <c r="P16" s="3">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3">
         <v>38303</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="AA16" s="3">
         <v>37524</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4252,38 +4469,48 @@
       <c r="G17" s="3">
         <v>48865</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>2196</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2115</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <v>1886</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>1586</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3">
         <v>664839</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>754209</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3">
         <v>33129</v>
       </c>
-      <c r="O17" s="3">
+      <c r="W17" s="3">
         <v>31710</v>
       </c>
-      <c r="P17" s="3">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3">
         <v>22839</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="AA17" s="3">
         <v>21584</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -4302,38 +4529,48 @@
       <c r="G18" s="3">
         <v>469367</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>11089</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>10473</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
         <v>9149</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>6545</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
         <v>1939589</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>1997959</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3">
         <v>82667</v>
       </c>
-      <c r="O18" s="3">
+      <c r="W18" s="3">
         <v>78894</v>
       </c>
-      <c r="P18" s="3">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3">
         <v>48486</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="AA18" s="3">
         <v>43658</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4352,38 +4589,48 @@
       <c r="G19" s="3">
         <v>91100</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3">
         <v>810100</v>
       </c>
-      <c r="M19" s="3">
+      <c r="S19" s="3">
         <v>851900</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4402,38 +4649,48 @@
       <c r="G20" s="3">
         <v>52033</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
         <v>2814</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2638</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
         <v>1981</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>1601</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
         <v>803537</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>905247</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3">
         <v>40316</v>
       </c>
-      <c r="O20" s="3">
+      <c r="W20" s="3">
         <v>38376</v>
       </c>
-      <c r="P20" s="3">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3">
         <v>24441</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="AA20" s="3">
         <v>22218</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -4452,38 +4709,48 @@
       <c r="G21" s="3">
         <v>106900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3">
         <v>280100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>302900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -4502,38 +4769,48 @@
       <c r="G22" s="3">
         <v>129574</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>4691</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4701</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
         <v>3503</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>3628</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
         <v>1428337</v>
       </c>
-      <c r="M22" s="3">
+      <c r="S22" s="3">
         <v>1436650</v>
       </c>
-      <c r="N22" s="3">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3">
         <v>54479</v>
       </c>
-      <c r="O22" s="3">
+      <c r="W22" s="3">
         <v>55094</v>
       </c>
-      <c r="P22" s="3">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3">
         <v>37288</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="AA22" s="3">
         <v>37916</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -4552,38 +4829,48 @@
       <c r="G23" s="3">
         <v>276744</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>7278</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6803</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
         <v>6570</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>5453</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3">
         <v>494392</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>528215</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3">
         <v>8434</v>
       </c>
-      <c r="O23" s="3">
+      <c r="W23" s="3">
         <v>8086</v>
       </c>
-      <c r="P23" s="3">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3">
         <v>6628</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="AA23" s="3">
         <v>6315</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -4602,38 +4889,48 @@
       <c r="G24" s="3">
         <v>131610</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>4860</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4243</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
         <v>3247</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>2517</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
         <v>1389564</v>
       </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
         <v>1386954</v>
       </c>
-      <c r="N24" s="3">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
         <v>51933</v>
       </c>
-      <c r="O24" s="3">
+      <c r="W24" s="3">
         <v>49380</v>
       </c>
-      <c r="P24" s="3">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3">
         <v>28800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="AA24" s="3">
         <v>25493</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4652,38 +4949,48 @@
       <c r="G25" s="3">
         <v>145138</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>2926</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>2766</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
         <v>1864</v>
       </c>
-      <c r="K25" s="3">
+      <c r="O25" s="3">
         <v>1503</v>
       </c>
-      <c r="L25" s="3">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3">
         <v>1065620</v>
       </c>
-      <c r="M25" s="3">
+      <c r="S25" s="3">
         <v>1059606</v>
       </c>
-      <c r="N25" s="3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3">
         <v>42606</v>
       </c>
-      <c r="O25" s="3">
+      <c r="W25" s="3">
         <v>40502</v>
       </c>
-      <c r="P25" s="3">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3">
         <v>22327</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="AA25" s="3">
         <v>19894</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -4702,38 +5009,48 @@
       <c r="G26" s="3">
         <v>74893</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>3950</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3674</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
         <v>2999</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>2452</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
         <v>760123</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>947190</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3">
         <v>37932</v>
       </c>
-      <c r="O26" s="3">
+      <c r="W26" s="3">
         <v>36364</v>
       </c>
-      <c r="P26" s="3">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3">
         <v>25673</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="AA26" s="3">
         <v>23032</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -4752,38 +5069,48 @@
       <c r="G27" s="3">
         <v>793200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>27961</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>26412</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
         <v>23991</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>18207</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4802,38 +5129,48 @@
       <c r="G28" s="3">
         <v>83485</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>2845</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>2659</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
         <v>2549</v>
       </c>
-      <c r="K28" s="3">
+      <c r="O28" s="3">
         <v>1934</v>
       </c>
-      <c r="L28" s="3">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
         <v>903076</v>
       </c>
-      <c r="M28" s="3">
+      <c r="S28" s="3">
         <v>1008569</v>
       </c>
-      <c r="N28" s="3">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3">
         <v>46311</v>
       </c>
-      <c r="O28" s="3">
+      <c r="W28" s="3">
         <v>45108</v>
       </c>
-      <c r="P28" s="3">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3">
         <v>29255</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="AA28" s="3">
         <v>26434</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4852,38 +5189,48 @@
       <c r="G29" s="3">
         <v>51038</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>2089</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>1851</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
         <v>1568</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>1304</v>
       </c>
-      <c r="L29" s="3">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3">
         <v>759257</v>
       </c>
-      <c r="M29" s="3">
+      <c r="S29" s="3">
         <v>830633</v>
       </c>
-      <c r="N29" s="3">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3">
         <v>36207</v>
       </c>
-      <c r="O29" s="3">
+      <c r="W29" s="3">
         <v>34474</v>
       </c>
-      <c r="P29" s="3">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3">
         <v>21712</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="AA29" s="3">
         <v>18970</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -4902,38 +5249,48 @@
       <c r="G30" s="3">
         <v>19396</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>765</v>
       </c>
-      <c r="I30" s="3">
+      <c r="K30" s="3">
         <v>790</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
         <v>605</v>
       </c>
-      <c r="K30" s="3">
+      <c r="O30" s="3">
         <v>507</v>
       </c>
-      <c r="L30" s="3">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
         <v>196267</v>
       </c>
-      <c r="M30" s="3">
+      <c r="S30" s="3">
         <v>214007</v>
       </c>
-      <c r="N30" s="3">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3">
         <v>10933</v>
       </c>
-      <c r="O30" s="3">
+      <c r="W30" s="3">
         <v>10404</v>
       </c>
-      <c r="P30" s="3">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3">
         <v>7050</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="AA30" s="3">
         <v>6527</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4952,38 +5309,48 @@
       <c r="G31" s="3">
         <v>125561</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
         <v>5953</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
         <v>5798</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
         <v>4747</v>
       </c>
-      <c r="K31" s="3">
+      <c r="O31" s="3">
         <v>3939</v>
       </c>
-      <c r="L31" s="3">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3">
         <v>992647</v>
       </c>
-      <c r="M31" s="3">
+      <c r="S31" s="3">
         <v>994945</v>
       </c>
-      <c r="N31" s="3">
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3">
         <v>54917</v>
       </c>
-      <c r="O31" s="3">
+      <c r="W31" s="3">
         <v>52629</v>
       </c>
-      <c r="P31" s="3">
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3">
         <v>30907</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="AA31" s="3">
         <v>28899</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -5002,38 +5369,48 @@
       <c r="G32" s="3">
         <v>140525</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
         <v>5140</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4342</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
         <v>4034</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>3382</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
         <v>1143657</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>1151438</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3">
         <v>53558</v>
       </c>
-      <c r="O32" s="3">
+      <c r="W32" s="3">
         <v>51334</v>
       </c>
-      <c r="P32" s="3">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3">
         <v>34974</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="AA32" s="3">
         <v>31806</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -5052,38 +5429,48 @@
       <c r="G33" s="3">
         <v>94552</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
         <v>3715</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3556</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
         <v>2886</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>2373</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3">
         <v>903189</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>944049</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3">
         <v>43079</v>
       </c>
-      <c r="O33" s="3">
+      <c r="W33" s="3">
         <v>42611</v>
       </c>
-      <c r="P33" s="3">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3">
         <v>27005</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="AA33" s="3">
         <v>24771</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -5102,38 +5489,48 @@
       <c r="G34" s="3">
         <v>103369</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
         <v>5502</v>
       </c>
-      <c r="I34" s="3">
+      <c r="K34" s="3">
         <v>5310</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
         <v>4653</v>
       </c>
-      <c r="K34" s="3">
+      <c r="O34" s="3">
         <v>3890</v>
       </c>
-      <c r="L34" s="3">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
         <v>1776630</v>
       </c>
-      <c r="M34" s="3">
+      <c r="S34" s="3">
         <v>1899412</v>
       </c>
-      <c r="N34" s="3">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3">
         <v>97313</v>
       </c>
-      <c r="O34" s="3">
+      <c r="W34" s="3">
         <v>93328</v>
       </c>
-      <c r="P34" s="3">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3">
         <v>72848</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="AA34" s="3">
         <v>67544</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -5152,38 +5549,48 @@
       <c r="G35" s="3">
         <v>240300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
         <v>7752</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>7256</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
         <v>7744</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>5984</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3">
         <v>473191</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>499534</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3">
         <v>15572</v>
       </c>
-      <c r="O35" s="3">
+      <c r="W35" s="3">
         <v>14756</v>
       </c>
-      <c r="P35" s="3">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3">
         <v>11234</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="AA35" s="3">
         <v>9741</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -5202,38 +5609,48 @@
       <c r="G36" s="3">
         <v>848100</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>21751</v>
       </c>
-      <c r="I36" s="3">
+      <c r="K36" s="3">
         <v>20883</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
         <v>21496</v>
       </c>
-      <c r="K36" s="3">
+      <c r="O36" s="3">
         <v>16444</v>
       </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5252,38 +5669,48 @@
       <c r="G37" s="3">
         <v>150935</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3">
         <v>1780396</v>
       </c>
-      <c r="M37" s="3">
+      <c r="S37" s="3">
         <v>1813442</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -5302,38 +5729,48 @@
       <c r="G38" s="3">
         <v>206043</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
         <v>6166</v>
       </c>
-      <c r="I38" s="3">
+      <c r="K38" s="3">
         <v>5646</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <v>4283</v>
       </c>
-      <c r="K38" s="3">
+      <c r="O38" s="3">
         <v>3284</v>
       </c>
-      <c r="L38" s="3">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
         <v>1599896</v>
       </c>
-      <c r="M38" s="3">
+      <c r="S38" s="3">
         <v>1632704</v>
       </c>
-      <c r="N38" s="3">
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3">
         <v>63633</v>
       </c>
-      <c r="O38" s="3">
+      <c r="W38" s="3">
         <v>60427</v>
       </c>
-      <c r="P38" s="3">
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3">
         <v>33325</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="AA38" s="3">
         <v>29429</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -5352,38 +5789,48 @@
       <c r="G39" s="3">
         <v>44439</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
         <v>1626</v>
       </c>
-      <c r="I39" s="3">
+      <c r="K39" s="3">
         <v>1506</v>
       </c>
-      <c r="J39" s="3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <v>1443</v>
       </c>
-      <c r="K39" s="3">
+      <c r="O39" s="3">
         <v>1199</v>
       </c>
-      <c r="L39" s="3">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3">
         <v>667651</v>
       </c>
-      <c r="M39" s="3">
+      <c r="S39" s="3">
         <v>717410</v>
       </c>
-      <c r="N39" s="3">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3">
         <v>27571</v>
       </c>
-      <c r="O39" s="3">
+      <c r="W39" s="3">
         <v>25979</v>
       </c>
-      <c r="P39" s="3">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3">
         <v>17031</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="AA39" s="3">
         <v>15179</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -5402,38 +5849,48 @@
       <c r="G40" s="3">
         <v>70982</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
         <v>2852</v>
       </c>
-      <c r="I40" s="3">
+      <c r="K40" s="3">
         <v>2879</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
         <v>2415</v>
       </c>
-      <c r="K40" s="3">
+      <c r="O40" s="3">
         <v>2040</v>
       </c>
-      <c r="L40" s="3">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
         <v>1262671</v>
       </c>
-      <c r="M40" s="3">
+      <c r="S40" s="3">
         <v>1283178</v>
       </c>
-      <c r="N40" s="3">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3">
         <v>49555</v>
       </c>
-      <c r="O40" s="3">
+      <c r="W40" s="3">
         <v>47380</v>
       </c>
-      <c r="P40" s="3">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3">
         <v>30546</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="AA40" s="3">
         <v>27716</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -5452,38 +5909,48 @@
       <c r="G41" s="3">
         <v>96453</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
         <v>6801</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6640</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
         <v>5934</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>4804</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3">
         <v>1838285</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>1873982</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3">
         <v>102412</v>
       </c>
-      <c r="O41" s="3">
+      <c r="W41" s="3">
         <v>97886</v>
       </c>
-      <c r="P41" s="3">
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3">
         <v>59686</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="AA41" s="3">
         <v>54628</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5502,38 +5969,48 @@
       <c r="G42" s="3">
         <v>278132</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
         <v>10083</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>9934</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3">
         <v>7848</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>6631</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
         <v>1366608</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <v>1404738</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3">
         <v>69964</v>
       </c>
-      <c r="O42" s="3">
+      <c r="W42" s="3">
         <v>66679</v>
       </c>
-      <c r="P42" s="3">
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3">
         <v>43559</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="AA42" s="3">
         <v>40340</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -5552,38 +6029,48 @@
       <c r="G43" s="3">
         <v>83127</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
         <v>4467</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4049</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <v>3306</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>2752</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3">
         <v>907777</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <v>961706</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3">
         <v>46412</v>
       </c>
-      <c r="O43" s="3">
+      <c r="W43" s="3">
         <v>43915</v>
       </c>
-      <c r="P43" s="3">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3">
         <v>27443</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="AA43" s="3">
         <v>26746</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -5602,38 +6089,48 @@
       <c r="G44" s="3">
         <v>91374</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
         <v>2030</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1942</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <v>1788</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1463</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
         <v>911132</v>
       </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
         <v>901996</v>
       </c>
-      <c r="N44" s="3">
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3">
         <v>44643</v>
       </c>
-      <c r="O44" s="3">
+      <c r="W44" s="3">
         <v>42905</v>
       </c>
-      <c r="P44" s="3">
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3">
         <v>29372</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="AA44" s="3">
         <v>26475</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -5652,38 +6149,48 @@
       <c r="G45" s="3">
         <v>174760</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
         <v>7103</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6560</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
         <v>5468</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>4160</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3">
         <v>774871</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <v>739225</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3">
         <v>37078</v>
       </c>
-      <c r="O45" s="3">
+      <c r="W45" s="3">
         <v>34988</v>
       </c>
-      <c r="P45" s="3">
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3">
         <v>19074</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="AA45" s="3">
         <v>17625</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -5702,38 +6209,48 @@
       <c r="G46" s="3">
         <v>40300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>1279</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1177</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <v>786</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>564</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -5752,38 +6269,48 @@
       <c r="G47" s="3">
         <v>143138</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
         <v>5650</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5709</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3">
         <v>4211</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>4026</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3">
         <v>1761144</v>
       </c>
-      <c r="M47" s="3">
+      <c r="S47" s="3">
         <v>1798701</v>
       </c>
-      <c r="N47" s="3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3">
         <v>84163</v>
       </c>
-      <c r="O47" s="3">
+      <c r="W47" s="3">
         <v>83956</v>
       </c>
-      <c r="P47" s="3">
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3">
         <v>50686</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="AA47" s="3">
         <v>50203</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5802,38 +6329,48 @@
       <c r="G48" s="3">
         <v>85337</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
         <v>2634</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2509</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3">
         <v>1918</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>1773</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
         <v>1022726</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <v>1220508</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3">
         <v>47606</v>
       </c>
-      <c r="O48" s="3">
+      <c r="W48" s="3">
         <v>45588</v>
       </c>
-      <c r="P48" s="3">
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3">
         <v>30520</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="AA48" s="3">
         <v>27422</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -5852,38 +6389,48 @@
       <c r="G49" s="3">
         <v>104792</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
         <v>4019</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3782</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3">
         <v>3208</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>2556</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3">
         <v>861707</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>896681</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3">
         <v>39083</v>
       </c>
-      <c r="O49" s="3">
+      <c r="W49" s="3">
         <v>37065</v>
       </c>
-      <c r="P49" s="3">
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3">
         <v>28029</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="AA49" s="3">
         <v>24912</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -5902,38 +6449,48 @@
       <c r="G50" s="3">
         <v>96958</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
         <v>4096</v>
       </c>
-      <c r="I50" s="3">
+      <c r="K50" s="3">
         <v>3898</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
         <v>3026</v>
       </c>
-      <c r="K50" s="3">
+      <c r="O50" s="3">
         <v>2589</v>
       </c>
-      <c r="L50" s="3">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
         <v>1450500</v>
       </c>
-      <c r="M50" s="3">
+      <c r="S50" s="3">
         <v>1460800</v>
       </c>
-      <c r="N50" s="3">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3">
         <v>71278</v>
       </c>
-      <c r="O50" s="3">
+      <c r="W50" s="3">
         <v>68425</v>
       </c>
-      <c r="P50" s="3">
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3">
         <v>40486</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="AA50" s="3">
         <v>38540</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5952,38 +6509,48 @@
       <c r="G51" s="3">
         <v>219523</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
         <v>7882</v>
       </c>
-      <c r="I51" s="3">
+      <c r="K51" s="3">
         <v>7467</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3">
         <v>6008</v>
       </c>
-      <c r="K51" s="3">
+      <c r="O51" s="3">
         <v>4642</v>
       </c>
-      <c r="L51" s="3">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3">
         <v>1560328</v>
       </c>
-      <c r="M51" s="3">
+      <c r="S51" s="3">
         <v>1530477</v>
       </c>
-      <c r="N51" s="3">
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3">
         <v>69989</v>
       </c>
-      <c r="O51" s="3">
+      <c r="W51" s="3">
         <v>65865</v>
       </c>
-      <c r="P51" s="3">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3">
         <v>36834</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="AA51" s="3">
         <v>31523</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -6002,38 +6569,48 @@
       <c r="G52" s="3">
         <v>107776</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
         <v>4259</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4170</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
         <v>3283</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>2669</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
         <v>1466043</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <v>1421165</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3">
         <v>61028</v>
       </c>
-      <c r="O52" s="3">
+      <c r="W52" s="3">
         <v>58713</v>
       </c>
-      <c r="P52" s="3">
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3">
         <v>33453</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="AA52" s="3">
         <v>29461</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -6052,38 +6629,48 @@
       <c r="G53" s="3">
         <v>55604</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
         <v>2427</v>
       </c>
-      <c r="I53" s="3">
+      <c r="K53" s="3">
         <v>2289</v>
       </c>
-      <c r="J53" s="3">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3">
         <v>1852</v>
       </c>
-      <c r="K53" s="3">
+      <c r="O53" s="3">
         <v>1437</v>
       </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -6102,38 +6689,48 @@
       <c r="G54" s="3">
         <v>337883</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
         <v>7317</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6466</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
         <v>5379</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>4363</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -6152,38 +6749,48 @@
       <c r="G55" s="3">
         <v>69000</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3">
         <v>474400</v>
       </c>
-      <c r="M55" s="3">
+      <c r="S55" s="3">
         <v>465300</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -6202,38 +6809,48 @@
       <c r="G56" s="3">
         <v>141433</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
         <v>3924</v>
       </c>
-      <c r="I56" s="3">
+      <c r="K56" s="3">
         <v>3717</v>
       </c>
-      <c r="J56" s="3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3">
         <v>2828</v>
       </c>
-      <c r="K56" s="3">
+      <c r="O56" s="3">
         <v>2471</v>
       </c>
-      <c r="L56" s="3">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
         <v>1332078</v>
       </c>
-      <c r="M56" s="3">
+      <c r="S56" s="3">
         <v>1353699</v>
       </c>
-      <c r="N56" s="3">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3">
         <v>54773</v>
       </c>
-      <c r="O56" s="3">
+      <c r="W56" s="3">
         <v>52132</v>
       </c>
-      <c r="P56" s="3">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3">
         <v>31400</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="AA56" s="3">
         <v>28635</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -6252,38 +6869,48 @@
       <c r="G57" s="3">
         <v>69457</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
         <v>1788</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1670</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
         <v>1685</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>1276</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3">
         <v>191497</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <v>200542</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3">
         <v>4292</v>
       </c>
-      <c r="O57" s="3">
+      <c r="W57" s="3">
         <v>4073</v>
       </c>
-      <c r="P57" s="3">
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3">
         <v>3287</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="AA57" s="3">
         <v>2940</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -6302,38 +6929,48 @@
       <c r="G58" s="3">
         <v>115329</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
         <v>4284</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4087</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
         <v>3535</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>2817</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
         <v>540351</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <v>633925</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3">
         <v>23262</v>
       </c>
-      <c r="O58" s="3">
+      <c r="W58" s="3">
         <v>21946</v>
       </c>
-      <c r="P58" s="3">
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3">
         <v>14517</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="AA58" s="3">
         <v>13818</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -6352,38 +6989,48 @@
       <c r="G59" s="3">
         <v>8668443</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
         <v>268809</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>254696</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
         <v>216055</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>171118</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3">
         <v>54211712</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <v>55656437</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3">
         <v>2253766</v>
       </c>
-      <c r="O59" s="3">
+      <c r="W59" s="3">
         <v>2157908</v>
       </c>
-      <c r="P59" s="3">
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3">
         <v>1366181</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="AA59" s="3">
         <v>1252481</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -6402,38 +7049,48 @@
       <c r="G60" s="3">
         <v>47115</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
         <v>901</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>671</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
         <v>766</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>522</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
         <v>402464</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>352842</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3">
         <v>10010</v>
       </c>
-      <c r="O60" s="3">
+      <c r="W60" s="3">
         <v>8927</v>
       </c>
-      <c r="P60" s="3">
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3">
         <v>7126</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="AA60" s="3">
         <v>5991</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -6452,38 +7109,48 @@
       <c r="G61" s="3">
         <v>166542</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
         <v>6047</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5147</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3">
         <v>4731</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>3327</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -6502,38 +7169,48 @@
       <c r="G62" s="3">
         <v>22600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
         <v>167</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>130</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3">
         <v>159</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>109</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
         <v>64800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="S62" s="3">
         <v>63800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3">
         <v>898</v>
       </c>
-      <c r="O62" s="3">
+      <c r="W62" s="3">
         <v>644</v>
       </c>
-      <c r="P62" s="3">
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3">
         <v>269</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="AA62" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -6552,38 +7229,48 @@
       <c r="G63" s="3">
         <v>27303</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
         <v>990</v>
       </c>
-      <c r="I63" s="3">
+      <c r="K63" s="3">
         <v>771</v>
       </c>
-      <c r="J63" s="3">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3">
         <v>932</v>
       </c>
-      <c r="K63" s="3">
+      <c r="O63" s="3">
         <v>659</v>
       </c>
-      <c r="L63" s="3">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3">
         <v>321842</v>
       </c>
-      <c r="M63" s="3">
+      <c r="S63" s="3">
         <v>311912</v>
       </c>
-      <c r="N63" s="3">
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3">
         <v>7355</v>
       </c>
-      <c r="O63" s="3">
+      <c r="W63" s="3">
         <v>6451</v>
       </c>
-      <c r="P63" s="3">
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3">
         <v>5317</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="AA63" s="3">
         <v>5021</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -6602,38 +7289,48 @@
       <c r="G64" s="3">
         <v>73018</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
         <v>1468</v>
       </c>
-      <c r="I64" s="3">
+      <c r="K64" s="3">
         <v>1185</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3">
         <v>1028</v>
       </c>
-      <c r="K64" s="3">
+      <c r="O64" s="3">
         <v>778</v>
       </c>
-      <c r="L64" s="3">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
         <v>585066</v>
       </c>
-      <c r="M64" s="3">
+      <c r="S64" s="3">
         <v>529898</v>
       </c>
-      <c r="N64" s="3">
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3">
         <v>13954</v>
       </c>
-      <c r="O64" s="3">
+      <c r="W64" s="3">
         <v>12296</v>
       </c>
-      <c r="P64" s="3">
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3">
         <v>8385</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="AA64" s="3">
         <v>7811</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -6652,38 +7349,48 @@
       <c r="G65" s="3">
         <v>21700</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3">
         <v>185700</v>
       </c>
-      <c r="M65" s="3">
+      <c r="S65" s="3">
         <v>163400</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q65" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -6702,38 +7409,48 @@
       <c r="G66" s="3">
         <v>120200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
         <v>4507</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4342</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3">
         <v>3952</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>3286</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
         <v>1388300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>1350700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3">
         <v>74423</v>
       </c>
-      <c r="O66" s="3">
+      <c r="W66" s="3">
         <v>70773</v>
       </c>
-      <c r="P66" s="3">
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3">
         <v>40904</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="AA66" s="3">
         <v>37620</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -6752,38 +7469,48 @@
       <c r="G67" s="3">
         <v>50037</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
         <v>1038</v>
       </c>
-      <c r="I67" s="3">
+      <c r="K67" s="3">
         <v>888</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3">
         <v>860</v>
       </c>
-      <c r="K67" s="3">
+      <c r="O67" s="3">
         <v>650</v>
       </c>
-      <c r="L67" s="3">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3">
         <v>597152</v>
       </c>
-      <c r="M67" s="3">
+      <c r="S67" s="3">
         <v>511890</v>
       </c>
-      <c r="N67" s="3">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3">
         <v>13698</v>
       </c>
-      <c r="O67" s="3">
+      <c r="W67" s="3">
         <v>12998</v>
       </c>
-      <c r="P67" s="3">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3">
         <v>7327</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="AA67" s="3">
         <v>6865</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -6802,38 +7529,48 @@
       <c r="G68" s="3">
         <v>31122</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
         <v>1314</v>
       </c>
-      <c r="I68" s="3">
+      <c r="K68" s="3">
         <v>1256</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
         <v>947</v>
       </c>
-      <c r="K68" s="3">
+      <c r="O68" s="3">
         <v>815</v>
       </c>
-      <c r="L68" s="3">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
         <v>626104</v>
       </c>
-      <c r="M68" s="3">
+      <c r="S68" s="3">
         <v>604698</v>
       </c>
-      <c r="N68" s="3">
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3">
         <v>35898</v>
       </c>
-      <c r="O68" s="3">
+      <c r="W68" s="3">
         <v>34321</v>
       </c>
-      <c r="P68" s="3">
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3">
         <v>24612</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="AA68" s="3">
         <v>22964</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -6852,38 +7589,48 @@
       <c r="G69" s="3">
         <v>103747</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
         <v>4124</v>
       </c>
-      <c r="I69" s="3">
+      <c r="K69" s="3">
         <v>3919</v>
       </c>
-      <c r="J69" s="3">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
         <v>3136</v>
       </c>
-      <c r="K69" s="3">
+      <c r="O69" s="3">
         <v>2472</v>
       </c>
-      <c r="L69" s="3">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3">
         <v>574823</v>
       </c>
-      <c r="M69" s="3">
+      <c r="S69" s="3">
         <v>522849</v>
       </c>
-      <c r="N69" s="3">
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3">
         <v>25337</v>
       </c>
-      <c r="O69" s="3">
+      <c r="W69" s="3">
         <v>23688</v>
       </c>
-      <c r="P69" s="3">
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3">
         <v>14339</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="AA69" s="3">
         <v>13321</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6902,38 +7649,48 @@
       <c r="G70" s="3">
         <v>194711</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
         <v>3601</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>3380</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3">
         <v>3233</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>2395</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
         <v>554740</v>
       </c>
-      <c r="M70" s="3">
+      <c r="S70" s="3">
         <v>487009</v>
       </c>
-      <c r="N70" s="3">
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3">
         <v>22239</v>
       </c>
-      <c r="O70" s="3">
+      <c r="W70" s="3">
         <v>19243</v>
       </c>
-      <c r="P70" s="3">
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3">
         <v>11959</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="AA70" s="3">
         <v>9364</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -6952,38 +7709,48 @@
       <c r="G71" s="3">
         <v>37886</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
         <v>1105</v>
       </c>
-      <c r="I71" s="3">
+      <c r="K71" s="3">
         <v>1095</v>
       </c>
-      <c r="J71" s="3">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3">
         <v>778</v>
       </c>
-      <c r="K71" s="3">
+      <c r="O71" s="3">
         <v>551</v>
       </c>
-      <c r="L71" s="3">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3">
         <v>56061</v>
       </c>
-      <c r="M71" s="3">
+      <c r="S71" s="3">
         <v>38510</v>
       </c>
-      <c r="N71" s="3">
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3">
         <v>1764</v>
       </c>
-      <c r="O71" s="3">
+      <c r="W71" s="3">
         <v>1564</v>
       </c>
-      <c r="P71" s="3">
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3">
         <v>726</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="AA71" s="3">
         <v>603</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -7002,38 +7769,48 @@
       <c r="G72" s="3">
         <v>39472</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
         <v>1242</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1215</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3">
         <v>1186</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>880</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
         <v>447652</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>395242</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3">
         <v>17967</v>
       </c>
-      <c r="O72" s="3">
+      <c r="W72" s="3">
         <v>15807</v>
       </c>
-      <c r="P72" s="3">
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3">
         <v>9174</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="AA72" s="3">
         <v>8313</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -7052,38 +7829,48 @@
       <c r="G73" s="3">
         <v>935453</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>26504</v>
       </c>
-      <c r="I73" s="3">
+      <c r="K73" s="3">
         <v>23999</v>
       </c>
-      <c r="J73" s="3">
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
         <v>21708</v>
       </c>
-      <c r="K73" s="3">
+      <c r="O73" s="3">
         <v>16444</v>
       </c>
-      <c r="L73" s="3">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3">
         <v>5804704</v>
       </c>
-      <c r="M73" s="3">
+      <c r="S73" s="3">
         <v>5332750</v>
       </c>
-      <c r="N73" s="3">
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3">
         <v>223543</v>
       </c>
-      <c r="O73" s="3">
+      <c r="W73" s="3">
         <v>206712</v>
       </c>
-      <c r="P73" s="3">
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3">
         <v>130138</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="AA73" s="3">
         <v>118127</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -7102,38 +7889,48 @@
       <c r="G74" s="3">
         <v>24224</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
         <v>2181</v>
       </c>
-      <c r="I74" s="3">
+      <c r="K74" s="3">
         <v>2116</v>
       </c>
-      <c r="J74" s="3">
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3">
         <v>1311</v>
       </c>
-      <c r="K74" s="3">
+      <c r="O74" s="3">
         <v>953</v>
       </c>
-      <c r="L74" s="3">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
         <v>154714</v>
       </c>
-      <c r="M74" s="3">
+      <c r="S74" s="3">
         <v>102474</v>
       </c>
-      <c r="N74" s="3">
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3">
         <v>6532</v>
       </c>
-      <c r="O74" s="3">
+      <c r="W74" s="3">
         <v>5728</v>
       </c>
-      <c r="P74" s="3">
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3">
         <v>3101</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="AA74" s="3">
         <v>2360</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -7152,38 +7949,48 @@
       <c r="G75" s="3">
         <v>69193</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
         <v>2609</v>
       </c>
-      <c r="I75" s="3">
+      <c r="K75" s="3">
         <v>2441</v>
       </c>
-      <c r="J75" s="3">
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3">
         <v>2103</v>
       </c>
-      <c r="K75" s="3">
+      <c r="O75" s="3">
         <v>1612</v>
       </c>
-      <c r="L75" s="3">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3">
         <v>503119</v>
       </c>
-      <c r="M75" s="3">
+      <c r="S75" s="3">
         <v>477667</v>
       </c>
-      <c r="N75" s="3">
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3">
         <v>28692</v>
       </c>
-      <c r="O75" s="3">
+      <c r="W75" s="3">
         <v>26999</v>
       </c>
-      <c r="P75" s="3">
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3">
         <v>16781</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="AA75" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -7202,38 +8009,48 @@
       <c r="G76" s="3">
         <v>60776</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
         <v>2674</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2575</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
         <v>1985</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>1482</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
         <v>421751</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>388352</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3">
         <v>18910</v>
       </c>
-      <c r="O76" s="3">
+      <c r="W76" s="3">
         <v>17842</v>
       </c>
-      <c r="P76" s="3">
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3">
         <v>11115</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="AA76" s="3">
         <v>10209</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -7252,38 +8069,48 @@
       <c r="G77" s="3">
         <v>65064</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
         <v>3207</v>
       </c>
-      <c r="I77" s="3">
+      <c r="K77" s="3">
         <v>3021</v>
       </c>
-      <c r="J77" s="3">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
         <v>2081</v>
       </c>
-      <c r="K77" s="3">
+      <c r="O77" s="3">
         <v>1726</v>
       </c>
-      <c r="L77" s="3">
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3">
         <v>323501</v>
       </c>
-      <c r="M77" s="3">
+      <c r="S77" s="3">
         <v>278066</v>
       </c>
-      <c r="N77" s="3">
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3">
         <v>15174</v>
       </c>
-      <c r="O77" s="3">
+      <c r="W77" s="3">
         <v>13929</v>
       </c>
-      <c r="P77" s="3">
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3">
         <v>9414</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="AA77" s="3">
         <v>8105</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -7302,38 +8129,48 @@
       <c r="G78" s="3">
         <v>1119</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>40</v>
       </c>
-      <c r="I78" s="3">
+      <c r="K78" s="3">
         <v>45</v>
       </c>
-      <c r="J78" s="3">
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
         <v>24</v>
       </c>
-      <c r="K78" s="3">
+      <c r="O78" s="3">
         <v>30</v>
       </c>
-      <c r="L78" s="3">
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
         <v>15282</v>
       </c>
-      <c r="M78" s="3">
+      <c r="S78" s="3">
         <v>14506</v>
       </c>
-      <c r="N78" s="3">
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3">
         <v>364</v>
       </c>
-      <c r="O78" s="3">
+      <c r="W78" s="3">
         <v>307</v>
       </c>
-      <c r="P78" s="3">
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3">
         <v>287</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="AA78" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -7352,38 +8189,48 @@
       <c r="G79" s="3">
         <v>53783</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>2721</v>
       </c>
-      <c r="I79" s="3">
+      <c r="K79" s="3">
         <v>2519</v>
       </c>
-      <c r="J79" s="3">
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3">
         <v>1779</v>
       </c>
-      <c r="K79" s="3">
+      <c r="O79" s="3">
         <v>983</v>
       </c>
-      <c r="L79" s="3">
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3">
         <v>206361</v>
       </c>
-      <c r="M79" s="3">
+      <c r="S79" s="3">
         <v>165549</v>
       </c>
-      <c r="N79" s="3">
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3">
         <v>7720</v>
       </c>
-      <c r="O79" s="3">
+      <c r="W79" s="3">
         <v>6985</v>
       </c>
-      <c r="P79" s="3">
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3">
         <v>3243</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="AA79" s="3">
         <v>2693</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -7402,38 +8249,48 @@
       <c r="G80" s="3">
         <v>5335</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
         <v>279</v>
       </c>
-      <c r="I80" s="3">
+      <c r="K80" s="3">
         <v>225</v>
       </c>
-      <c r="J80" s="3">
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3">
         <v>173</v>
       </c>
-      <c r="K80" s="3">
+      <c r="O80" s="3">
         <v>127</v>
       </c>
-      <c r="L80" s="3">
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
         <v>11719</v>
       </c>
-      <c r="M80" s="3">
+      <c r="S80" s="3">
         <v>7668</v>
       </c>
-      <c r="N80" s="3">
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3">
         <v>413</v>
       </c>
-      <c r="O80" s="3">
+      <c r="W80" s="3">
         <v>313</v>
       </c>
-      <c r="P80" s="3">
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3">
         <v>248</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="AA80" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -7452,38 +8309,48 @@
       <c r="G81" s="3">
         <v>66273</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
         <v>2990</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2771</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3">
         <v>2692</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>2187</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3">
         <v>979559</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>996068</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3">
         <v>56949</v>
       </c>
-      <c r="O81" s="3">
+      <c r="W81" s="3">
         <v>54669</v>
       </c>
-      <c r="P81" s="3">
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3">
         <v>39142</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="AA81" s="3">
         <v>36153</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -7502,38 +8369,48 @@
       <c r="G82" s="3">
         <v>114875</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
         <v>4917</v>
       </c>
-      <c r="I82" s="3">
+      <c r="K82" s="3">
         <v>4732</v>
       </c>
-      <c r="J82" s="3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3">
         <v>3319</v>
       </c>
-      <c r="K82" s="3">
+      <c r="O82" s="3">
         <v>2686</v>
       </c>
-      <c r="L82" s="3">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
         <v>1999810</v>
       </c>
-      <c r="M82" s="3">
+      <c r="S82" s="3">
         <v>1980807</v>
       </c>
-      <c r="N82" s="3">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3">
         <v>110491</v>
       </c>
-      <c r="O82" s="3">
+      <c r="W82" s="3">
         <v>106448</v>
       </c>
-      <c r="P82" s="3">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3">
         <v>65199</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="AA82" s="3">
         <v>60743</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -7552,38 +8429,48 @@
       <c r="G83" s="3">
         <v>4686</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
       <c r="J83" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3">
         <v>136946</v>
       </c>
-      <c r="M83" s="3">
+      <c r="S83" s="3">
         <v>121757</v>
       </c>
-      <c r="N83" s="3">
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3">
         <v>5176</v>
       </c>
-      <c r="O83" s="3">
+      <c r="W83" s="3">
         <v>4919</v>
       </c>
-      <c r="P83" s="3">
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3">
         <v>3651</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="AA83" s="3">
         <v>3396</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -7602,38 +8489,48 @@
       <c r="G84" s="3">
         <v>465328</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
         <v>21618</v>
       </c>
-      <c r="I84" s="3">
+      <c r="K84" s="3">
         <v>20445</v>
       </c>
-      <c r="J84" s="3">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3">
         <v>15467</v>
       </c>
-      <c r="K84" s="3">
+      <c r="O84" s="3">
         <v>11786</v>
       </c>
-      <c r="L84" s="3">
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
         <v>4752762</v>
       </c>
-      <c r="M84" s="3">
+      <c r="S84" s="3">
         <v>4532914</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O84" s="3">
+      <c r="W84" s="3">
         <v>238139</v>
       </c>
-      <c r="P84" s="3">
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3">
         <v>152181</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="AA84" s="3">
         <v>139274</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -7652,38 +8549,48 @@
       <c r="G85" s="3">
         <v>105722</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
         <v>3128</v>
       </c>
-      <c r="I85" s="3">
+      <c r="K85" s="3">
         <v>3044</v>
       </c>
-      <c r="J85" s="3">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3">
         <v>2488</v>
       </c>
-      <c r="K85" s="3">
+      <c r="O85" s="3">
         <v>2070</v>
       </c>
-      <c r="L85" s="3">
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3">
         <v>693896</v>
       </c>
-      <c r="M85" s="3">
+      <c r="S85" s="3">
         <v>644282</v>
       </c>
-      <c r="N85" s="3">
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3">
         <v>31244</v>
       </c>
-      <c r="O85" s="3">
+      <c r="W85" s="3">
         <v>29324</v>
       </c>
-      <c r="P85" s="3">
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3">
         <v>16664</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="AA85" s="3">
         <v>15382</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -7702,38 +8609,48 @@
       <c r="G86" s="3">
         <v>35649</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
         <v>1379</v>
       </c>
-      <c r="I86" s="3">
+      <c r="K86" s="3">
         <v>1353</v>
       </c>
-      <c r="J86" s="3">
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3">
         <v>1376</v>
       </c>
-      <c r="K86" s="3">
+      <c r="O86" s="3">
         <v>1337</v>
       </c>
-      <c r="L86" s="3">
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
         <v>224989</v>
       </c>
-      <c r="M86" s="3">
+      <c r="S86" s="3">
         <v>208833</v>
       </c>
-      <c r="N86" s="3">
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3">
         <v>6652</v>
       </c>
-      <c r="O86" s="3">
+      <c r="W86" s="3">
         <v>6283</v>
       </c>
-      <c r="P86" s="3">
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3">
         <v>5338</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="AA86" s="3">
         <v>5062</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -7752,38 +8669,48 @@
       <c r="G87" s="3">
         <v>93900</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
       <c r="J87" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M87" s="3">
+      <c r="S87" s="3">
         <v>447400</v>
       </c>
-      <c r="N87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA87" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -7802,38 +8729,48 @@
       <c r="G88" s="3">
         <v>42166</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
         <v>1911</v>
       </c>
-      <c r="I88" s="3">
+      <c r="K88" s="3">
         <v>1719</v>
       </c>
-      <c r="J88" s="3">
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3">
         <v>1290</v>
       </c>
-      <c r="K88" s="3">
+      <c r="O88" s="3">
         <v>1096</v>
       </c>
-      <c r="L88" s="3">
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
         <v>457107</v>
       </c>
-      <c r="M88" s="3">
+      <c r="S88" s="3">
         <v>381172</v>
       </c>
-      <c r="N88" s="3">
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3">
         <v>11524</v>
       </c>
-      <c r="O88" s="3">
+      <c r="W88" s="3">
         <v>10447</v>
       </c>
-      <c r="P88" s="3">
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3">
         <v>7301</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="AA88" s="3">
         <v>6296</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -7852,38 +8789,48 @@
       <c r="G89" s="3">
         <v>47156</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
         <v>3402</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3205</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3">
         <v>2267</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>2258</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3">
         <v>679477</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>549084</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3">
         <v>26794</v>
       </c>
-      <c r="O89" s="3">
+      <c r="W89" s="3">
         <v>22832</v>
       </c>
-      <c r="P89" s="3">
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3">
         <v>16080</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="AA89" s="3">
         <v>14083</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -7902,38 +8849,48 @@
       <c r="G90" s="3">
         <v>162700</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
         <v>84</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
         <v>884500</v>
       </c>
-      <c r="M90" s="3">
+      <c r="S90" s="3">
         <v>764500</v>
       </c>
-      <c r="N90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q90" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -7952,38 +8909,48 @@
       <c r="G91" s="3">
         <v>20348</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
         <v>819</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>913</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3">
         <v>543</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>517</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3">
         <v>420492</v>
       </c>
-      <c r="M91" s="3">
+      <c r="S91" s="3">
         <v>381872</v>
       </c>
-      <c r="N91" s="3">
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3">
         <v>19921</v>
       </c>
-      <c r="O91" s="3">
+      <c r="W91" s="3">
         <v>18224</v>
       </c>
-      <c r="P91" s="3">
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3">
         <v>13557</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="AA91" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -8002,38 +8969,48 @@
       <c r="G92" s="3">
         <v>32147</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
         <v>1154</v>
       </c>
-      <c r="I92" s="3">
+      <c r="K92" s="3">
         <v>1099</v>
       </c>
-      <c r="J92" s="3">
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3">
         <v>661</v>
       </c>
-      <c r="K92" s="3">
+      <c r="O92" s="3">
         <v>497</v>
       </c>
-      <c r="L92" s="3">
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
         <v>406600</v>
       </c>
-      <c r="M92" s="3">
+      <c r="S92" s="3">
         <v>364331</v>
       </c>
-      <c r="N92" s="3">
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3">
         <v>9976</v>
       </c>
-      <c r="O92" s="3">
+      <c r="W92" s="3">
         <v>8472</v>
       </c>
-      <c r="P92" s="3">
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3">
         <v>7410</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="AA92" s="3">
         <v>6385</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -8052,38 +9029,48 @@
       <c r="G93" s="3">
         <v>168999</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
         <v>9297</v>
       </c>
-      <c r="I93" s="3">
+      <c r="K93" s="3">
         <v>6599</v>
       </c>
-      <c r="J93" s="3">
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
         <v>5014</v>
       </c>
-      <c r="K93" s="3">
+      <c r="O93" s="3">
         <v>4784</v>
       </c>
-      <c r="L93" s="3">
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3">
         <v>926425</v>
       </c>
-      <c r="M93" s="3">
+      <c r="S93" s="3">
         <v>785524</v>
       </c>
-      <c r="N93" s="3">
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3">
         <v>27598</v>
       </c>
-      <c r="O93" s="3">
+      <c r="W93" s="3">
         <v>22209</v>
       </c>
-      <c r="P93" s="3">
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3">
         <v>12919</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="AA93" s="3">
         <v>11786</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -8102,38 +9089,48 @@
       <c r="G94" s="3">
         <v>708787</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
         <v>21090</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>17932</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3">
         <v>13639</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>12559</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
         <v>5235586</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <v>4526998</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3">
         <v>133709</v>
       </c>
-      <c r="O94" s="3">
+      <c r="W94" s="3">
         <v>117791</v>
       </c>
-      <c r="P94" s="3">
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3">
         <v>79269</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="AA94" s="3">
         <v>69294</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -8152,38 +9149,48 @@
       <c r="G95" s="3">
         <v>2109568</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
         <v>69212</v>
       </c>
-      <c r="I95" s="3">
+      <c r="K95" s="3">
         <v>62376</v>
       </c>
-      <c r="J95" s="3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3">
         <v>50814</v>
       </c>
-      <c r="K95" s="3">
+      <c r="O95" s="3">
         <v>40789</v>
       </c>
-      <c r="L95" s="3">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3">
         <v>15793052</v>
       </c>
-      <c r="M95" s="3">
+      <c r="S95" s="3">
         <v>14392662</v>
       </c>
-      <c r="N95" s="3">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3">
         <v>607678</v>
       </c>
-      <c r="O95" s="3">
+      <c r="W95" s="3">
         <v>562642</v>
       </c>
-      <c r="P95" s="3">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3">
         <v>361588</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="AA95" s="3">
         <v>326695</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -8202,34 +9209,44 @@
       <c r="G96" s="3">
         <v>10778016</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
         <v>338021</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>317072</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3">
         <v>266869</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>214907</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
         <v>70004764</v>
       </c>
-      <c r="M96" s="3">
+      <c r="S96" s="3">
         <v>70049099</v>
       </c>
-      <c r="N96" s="3">
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3">
         <v>2861439</v>
       </c>
-      <c r="O96" s="3">
+      <c r="W96" s="3">
         <v>2720550</v>
       </c>
-      <c r="P96" s="3">
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3">
         <v>1727769</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="AA96" s="3">
         <v>1579176</v>
       </c>
     </row>

--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD62DB9-CFE1-4714-ABE9-65F310F7FAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4C5E8-A616-4679-9BD9-7EBD10DB89AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
   <si>
     <t>губ</t>
   </si>
@@ -449,12 +449,6 @@
   </si>
   <si>
     <t>Итого въ Средней Азии</t>
-  </si>
-  <si>
-    <t>5421(10</t>
-  </si>
-  <si>
-    <t>25042!</t>
   </si>
   <si>
     <t>чж-гор-м NYY</t>
@@ -558,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,6 +560,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3436,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,76 +3474,76 @@
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -3563,52 +3559,66 @@
       <c r="D2" s="3">
         <v>13587</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>30314</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>29498</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="H2" s="5">
+        <v>59812</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <v>1093</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>1056</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="L2" s="5">
+        <v>2149</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5">
         <v>1011</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>752</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3">
+      <c r="P2" s="5">
+        <v>1763</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5">
         <v>201470</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="5">
         <v>218792</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3">
+      <c r="T2" s="5">
+        <v>420262</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5">
         <v>9478</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="5">
         <v>9069</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3">
+      <c r="X2" s="5">
+        <v>18547</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5">
         <v>6124</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="5">
         <v>5700</v>
       </c>
+      <c r="AB2" s="5">
+        <v>11824</v>
+      </c>
+      <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3623,52 +3633,66 @@
       <c r="D3" s="3">
         <v>29166</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>96617</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>95116</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
+      <c r="H3" s="5">
+        <v>191733</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
         <v>4054</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>3913</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="L3" s="5">
+        <v>7967</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
         <v>3347</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="5">
         <v>2685</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3">
+      <c r="P3" s="5">
+        <v>6032</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5">
         <v>637293</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="5">
         <v>610801</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3">
+      <c r="T3" s="5">
+        <v>1248094</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5">
         <v>23014</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="5">
         <v>21371</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3">
+      <c r="X3" s="5">
+        <v>44385</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5">
         <v>12334</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="5">
         <v>10800</v>
       </c>
+      <c r="AB3" s="5">
+        <v>23134</v>
+      </c>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3683,52 +3707,66 @@
       <c r="D4" s="3">
         <v>40566</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>144750</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>138303</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
+      <c r="H4" s="5">
+        <v>283053</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
         <v>4293</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>4107</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3">
+      <c r="L4" s="5">
+        <v>8400</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
         <v>3250</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="5">
         <v>2611</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3">
+      <c r="P4" s="5">
+        <v>5861</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5">
         <v>797599</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="5">
         <v>793899</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3">
+      <c r="T4" s="5">
+        <v>1591498</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5">
         <v>35470</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="5">
         <v>33471</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3">
+      <c r="X4" s="5">
+        <v>68941</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5">
         <v>18202</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="5">
         <v>16503</v>
       </c>
+      <c r="AB4" s="5">
+        <v>34705</v>
+      </c>
+      <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3743,52 +3781,66 @@
       <c r="D5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>153500</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>135700</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3">
+      <c r="H5" s="5">
+        <v>289200</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
         <v>890700</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="5">
         <v>896000</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="T5" s="5">
+        <v>1786700</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3803,52 +3855,66 @@
       <c r="D6" s="3">
         <v>34049</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>167018</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>173712</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="H6" s="5">
+        <v>340730</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
         <v>4179</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>3828</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="L6" s="5">
+        <v>8007</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
         <v>3054</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="5">
         <v>2428</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3">
+      <c r="P6" s="5">
+        <v>5482</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
         <v>744304</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="5">
         <v>798602</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3">
+      <c r="T6" s="5">
+        <v>1542906</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
         <v>28404</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="5">
         <v>27228</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3">
+      <c r="X6" s="5">
+        <v>55632</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
         <v>15346</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="5">
         <v>13221</v>
       </c>
+      <c r="AB6" s="5">
+        <v>28567</v>
+      </c>
+      <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3863,52 +3929,66 @@
       <c r="D7" s="3">
         <v>53324</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>160193</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>158948</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="H7" s="5">
+        <v>319141</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
         <v>6755</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>6705</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
+      <c r="L7" s="5">
+        <v>13460</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
         <v>4805</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>3972</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3">
+      <c r="P7" s="5">
+        <v>8777</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
         <v>821075</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="5">
         <v>877799</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3">
+      <c r="T7" s="5">
+        <v>1698874</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
         <v>38496</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="5">
         <v>37059</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3">
+      <c r="X7" s="5">
+        <v>75555</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5">
         <v>23183</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="5">
         <v>21364</v>
       </c>
+      <c r="AB7" s="5">
+        <v>44547</v>
+      </c>
+      <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3923,52 +4003,66 @@
       <c r="D8" s="3">
         <v>50804</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>36142</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>36710</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="H8" s="5">
+        <v>72852</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
         <v>1810</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>1772</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3">
+      <c r="L8" s="5">
+        <v>3582</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
         <v>1224</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>1028</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3">
+      <c r="P8" s="5">
+        <v>2252</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
         <v>781501</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="5">
         <v>850547</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3">
+      <c r="T8" s="5">
+        <v>1632048</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5">
         <v>39262</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="5">
         <v>37237</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3">
+      <c r="X8" s="5">
+        <v>76499</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5">
         <v>25053</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="5">
         <v>23499</v>
       </c>
+      <c r="AB8" s="5">
+        <v>48552</v>
+      </c>
+      <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3983,52 +4077,66 @@
       <c r="D9" s="3">
         <v>90733</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>155354</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>170152</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="H9" s="5">
+        <v>325506</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
         <v>5484</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>4973</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
+      <c r="L9" s="5">
+        <v>10457</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
         <v>4126</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="5">
         <v>3427</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3">
+      <c r="P9" s="5">
+        <v>7553</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
         <v>1766883</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="5">
         <v>1792936</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3">
+      <c r="T9" s="5">
+        <v>3559819</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5">
         <v>68315</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="5">
         <v>63466</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3">
+      <c r="X9" s="5">
+        <v>131781</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5">
         <v>43901</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="5">
         <v>39279</v>
       </c>
+      <c r="AB9" s="5">
+        <v>83180</v>
+      </c>
+      <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4043,52 +4151,66 @@
       <c r="D10" s="3">
         <v>110219</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>83316</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>82419</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="H10" s="5">
+        <v>165735</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
         <v>2727</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>2548</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
+      <c r="L10" s="5">
+        <v>5275</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
         <v>2219</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>1810</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3">
+      <c r="P10" s="5">
+        <v>4029</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
         <v>1823618</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="5">
         <v>1787211</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3">
+      <c r="T10" s="5">
+        <v>3610829</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5">
         <v>89014</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="5">
         <v>84875</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3">
+      <c r="X10" s="5">
+        <v>173889</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5">
         <v>54959</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="5">
         <v>51231</v>
       </c>
+      <c r="AB10" s="5">
+        <v>106190</v>
+      </c>
+      <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4103,52 +4225,66 @@
       <c r="D11" s="3">
         <v>126554</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>83495</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>69093</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="H11" s="5">
+        <v>152588</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
         <v>2288</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>2071</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
+      <c r="L11" s="5">
+        <v>4359</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
         <v>1974</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>1637</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3">
+      <c r="P11" s="5">
+        <v>3611</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
         <v>1769805</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="5">
         <v>1869285</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3">
+      <c r="T11" s="5">
+        <v>3639090</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5">
         <v>99093</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="5">
         <v>94518</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3">
+      <c r="X11" s="5">
+        <v>193611</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5">
         <v>63448</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="5">
         <v>59495</v>
       </c>
+      <c r="AB11" s="5">
+        <v>122943</v>
+      </c>
+      <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4163,52 +4299,66 @@
       <c r="D12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>190700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>180900</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3">
+      <c r="H12" s="5">
+        <v>371600</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
         <v>850800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="5">
         <v>825800</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="T12" s="5">
+        <v>1676600</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4223,52 +4373,66 @@
       <c r="D13" s="3">
         <v>98490</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>105511</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>95741</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="H13" s="5">
+        <v>201252</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
         <v>4537</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>4503</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3">
+      <c r="L13" s="5">
+        <v>9040</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
         <v>3263</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <v>2656</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3">
+      <c r="P13" s="5">
+        <v>5919</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5">
         <v>1668639</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="5">
         <v>1576017</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3">
+      <c r="T13" s="5">
+        <v>3244656</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5">
         <v>81704</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="5">
         <v>77257</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3">
+      <c r="X13" s="5">
+        <v>158961</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5">
         <v>48939</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="5">
         <v>43632</v>
       </c>
+      <c r="AB13" s="5">
+        <v>92571</v>
+      </c>
+      <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4283,52 +4447,66 @@
       <c r="D14" s="3">
         <v>4343</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>111117</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>116971</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="H14" s="5">
+        <v>228088</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>3529</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>3279</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3">
+      <c r="L14" s="5">
+        <v>6808</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
         <v>2360</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="5">
         <v>1983</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
+      <c r="P14" s="5">
+        <v>4343</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4343,52 +4521,66 @@
       <c r="D15" s="3">
         <v>76108</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>262178</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>242386</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="H15" s="5">
+        <v>504564</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>9455</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>8886</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
+      <c r="L15" s="5">
+        <v>18341</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
         <v>5923</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="5">
         <v>4672</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3">
+      <c r="P15" s="5">
+        <v>10595</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5">
         <v>1585850</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="5">
         <v>1426958</v>
       </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3">
+      <c r="T15" s="5">
+        <v>3012808</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5">
         <v>74133</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="5">
         <v>70627</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3">
+      <c r="X15" s="5">
+        <v>144760</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5">
         <v>35674</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="5">
         <v>29839</v>
       </c>
+      <c r="AB15" s="5">
+        <v>65513</v>
+      </c>
+      <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4403,54 +4595,68 @@
       <c r="D16" s="3">
         <v>83342</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>135881</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>134274</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="H16" s="5">
+        <v>270155</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
         <v>4641</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="5">
         <v>4688</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3">
+      <c r="L16" s="5">
+        <v>9329</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
         <v>3823</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="5">
         <v>3692</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3">
+      <c r="P16" s="5">
+        <v>7515</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5">
         <v>1317999</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="5">
         <v>1308194</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3">
+      <c r="T16" s="5">
+        <v>2626193</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5">
         <v>61255</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="5">
         <v>60758</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3">
+      <c r="X16" s="5">
+        <v>122013</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5">
         <v>38303</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="5">
         <v>37524</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="5">
+        <v>75827</v>
+      </c>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4463,54 +4669,68 @@
       <c r="D17" s="3">
         <v>47895</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>49601</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>48865</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
+      <c r="H17" s="5">
+        <v>98466</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <v>2196</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>2115</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3">
+      <c r="L17" s="5">
+        <v>4311</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
         <v>1886</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="5">
         <v>1586</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3">
+      <c r="P17" s="5">
+        <v>3472</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
         <v>664839</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="5">
         <v>754209</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3">
+      <c r="T17" s="5">
+        <v>1419048</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5">
         <v>33129</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="5">
         <v>31710</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3">
+      <c r="X17" s="5">
+        <v>64839</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5">
         <v>22839</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="5">
         <v>21584</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="5">
+        <v>44423</v>
+      </c>
+      <c r="AC17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -4523,54 +4743,68 @@
       <c r="D18" s="3">
         <v>107838</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>448287</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>469367</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
+      <c r="H18" s="5">
+        <v>917654</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
         <v>11089</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="5">
         <v>10473</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3">
+      <c r="L18" s="5">
+        <v>21562</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
         <v>9149</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="5">
         <v>6545</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3">
+      <c r="P18" s="5">
+        <v>15694</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5">
         <v>1939589</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="5">
         <v>1997959</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3">
+      <c r="T18" s="5">
+        <v>3937548</v>
+      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5">
         <v>82667</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="5">
         <v>78894</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3">
+      <c r="X18" s="5">
+        <v>161561</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5">
         <v>48486</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="5">
         <v>43658</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="5">
+        <v>92144</v>
+      </c>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4583,54 +4817,68 @@
       <c r="D19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>104000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>91100</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3">
+      <c r="H19" s="5">
+        <v>195100</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
         <v>810100</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="5">
         <v>851900</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T19" s="5">
+        <v>1662000</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4643,54 +4891,68 @@
       <c r="D20" s="3">
         <v>50241</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>49132</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>52033</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="H20" s="5">
+        <v>101165</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
         <v>2814</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>2638</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
+      <c r="L20" s="5">
+        <v>5452</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
         <v>1981</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="5">
         <v>1601</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3">
+      <c r="P20" s="5">
+        <v>3582</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5">
         <v>803537</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="5">
         <v>905247</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3">
+      <c r="T20" s="5">
+        <v>1708784</v>
+      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5">
         <v>40316</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="5">
         <v>38376</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3">
+      <c r="X20" s="5">
+        <v>78692</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5">
         <v>24441</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="5">
         <v>22218</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="5">
+        <v>46659</v>
+      </c>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -4703,54 +4965,68 @@
       <c r="D21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>108400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>106900</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3">
+      <c r="H21" s="5">
+        <v>215300</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5">
         <v>280100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="5">
         <v>302900</v>
       </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T21" s="5">
+        <v>583000</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -4763,54 +5039,68 @@
       <c r="D22" s="3">
         <v>82335</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>126699</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>129574</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
+      <c r="H22" s="5">
+        <v>256273</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
         <v>4691</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="5">
         <v>4701</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3">
+      <c r="L22" s="5">
+        <v>9392</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5">
         <v>3503</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="5">
         <v>3628</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3">
+      <c r="P22" s="5">
+        <v>7131</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5">
         <v>1428337</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="5">
         <v>1436650</v>
       </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3">
+      <c r="T22" s="5">
+        <v>2864987</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5">
         <v>54479</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="5">
         <v>55094</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3">
+      <c r="X22" s="5">
+        <v>109573</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5">
         <v>37288</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="5">
         <v>37916</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="5">
+        <v>75204</v>
+      </c>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -4823,54 +5113,68 @@
       <c r="D23" s="3">
         <v>24966</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>265433</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="5">
         <v>276744</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
+      <c r="H23" s="5">
+        <v>542177</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
         <v>7278</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="5">
         <v>6803</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3">
+      <c r="L23" s="5">
+        <v>14081</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5">
         <v>6570</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="5">
         <v>5453</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3">
+      <c r="P23" s="5">
+        <v>12023</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5">
         <v>494392</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="5">
         <v>528215</v>
       </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3">
+      <c r="T23" s="5">
+        <v>1022607</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5">
         <v>8434</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="5">
         <v>8086</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3">
+      <c r="X23" s="5">
+        <v>16520</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5">
         <v>6628</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="5">
         <v>6315</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="5">
+        <v>12943</v>
+      </c>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -4883,54 +5187,68 @@
       <c r="D24" s="3">
         <v>60057</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>134674</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="5">
         <v>131610</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+      <c r="H24" s="5">
+        <v>266284</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
         <v>4860</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="5">
         <v>4243</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3">
+      <c r="L24" s="5">
+        <v>9103</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
         <v>3247</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="5">
         <v>2517</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3">
+      <c r="P24" s="5">
+        <v>5764</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5">
         <v>1389564</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="5">
         <v>1386954</v>
       </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3">
+      <c r="T24" s="5">
+        <v>2776518</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5">
         <v>51933</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="5">
         <v>49380</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3">
+      <c r="X24" s="5">
+        <v>101313</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5">
         <v>28800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="5">
         <v>25493</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="5">
+        <v>54293</v>
+      </c>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4943,54 +5261,68 @@
       <c r="D25" s="3">
         <v>45588</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>145749</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="5">
         <v>145138</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
+      <c r="H25" s="5">
+        <v>290887</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
         <v>2926</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="5">
         <v>2766</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
+      <c r="L25" s="5">
+        <v>5692</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
         <v>1864</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="5">
         <v>1503</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3">
+      <c r="P25" s="5">
+        <v>3367</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5">
         <v>1065620</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="5">
         <v>1059606</v>
       </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3">
+      <c r="T25" s="5">
+        <v>2125226</v>
+      </c>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5">
         <v>42606</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="5">
         <v>40502</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3">
+      <c r="X25" s="5">
+        <v>83108</v>
+      </c>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5">
         <v>22327</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="5">
         <v>19894</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="5">
+        <v>42221</v>
+      </c>
+      <c r="AC25" s="5"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5003,54 +5335,68 @@
       <c r="D26" s="3">
         <v>54156</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>84110</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <v>74893</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
+      <c r="H26" s="5">
+        <v>159003</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>3950</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="5">
         <v>3674</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
+      <c r="L26" s="5">
+        <v>7624</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
         <v>2999</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="5">
         <v>2452</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3">
+      <c r="P26" s="5">
+        <v>5451</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5">
         <v>760123</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="5">
         <v>947190</v>
       </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3">
+      <c r="T26" s="5">
+        <v>1707313</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5">
         <v>37932</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="5">
         <v>36364</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3">
+      <c r="X26" s="5">
+        <v>74296</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5">
         <v>25673</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="5">
         <v>23032</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="5">
+        <v>48705</v>
+      </c>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -5063,54 +5409,68 @@
       <c r="D27" s="3">
         <v>42198</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>930200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5">
         <v>793200</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="H27" s="5">
+        <v>1723400</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
         <v>27961</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="5">
         <v>26412</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3">
+      <c r="L27" s="5">
+        <v>54373</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
         <v>23991</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="5">
         <v>18207</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P27" s="5">
+        <v>42198</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5123,54 +5483,68 @@
       <c r="D28" s="3">
         <v>60172</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>88659</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <v>83485</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+      <c r="H28" s="5">
+        <v>172144</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
         <v>2845</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="5">
         <v>2659</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3">
+      <c r="L28" s="5">
+        <v>5504</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
         <v>2549</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="5">
         <v>1934</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3">
+      <c r="P28" s="5">
+        <v>4483</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5">
         <v>903076</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="5">
         <v>1008569</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3">
+      <c r="T28" s="5">
+        <v>1911645</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5">
         <v>46311</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="5">
         <v>45108</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3">
+      <c r="X28" s="5">
+        <v>91419</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5">
         <v>29255</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA28" s="5">
         <v>26434</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="5">
+        <v>55689</v>
+      </c>
+      <c r="AC28" s="5"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5183,54 +5557,68 @@
       <c r="D29" s="3">
         <v>43554</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>48541</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <v>51038</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="H29" s="5">
+        <v>99579</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
         <v>2089</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="5">
         <v>1851</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3">
+      <c r="L29" s="5">
+        <v>3940</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
         <v>1568</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="5">
         <v>1304</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3">
+      <c r="P29" s="5">
+        <v>2872</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5">
         <v>759257</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="5">
         <v>830633</v>
       </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3">
+      <c r="T29" s="5">
+        <v>1589890</v>
+      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5">
         <v>36207</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="5">
         <v>34474</v>
       </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3">
+      <c r="X29" s="5">
+        <v>70681</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5">
         <v>21712</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="5">
         <v>18970</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="5">
+        <v>40682</v>
+      </c>
+      <c r="AC29" s="5"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -5243,54 +5631,68 @@
       <c r="D30" s="3">
         <v>14689</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>18031</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <v>19396</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
+      <c r="H30" s="5">
+        <v>37427</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
         <v>765</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="5">
         <v>790</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
+      <c r="L30" s="5">
+        <v>1555</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
         <v>605</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="5">
         <v>507</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3">
+      <c r="P30" s="5">
+        <v>1112</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5">
         <v>196267</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="5">
         <v>214007</v>
       </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3">
+      <c r="T30" s="5">
+        <v>410274</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5">
         <v>10933</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="5">
         <v>10404</v>
       </c>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3">
+      <c r="X30" s="5">
+        <v>21337</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5">
         <v>7050</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA30" s="5">
         <v>6527</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="5">
+        <v>13577</v>
+      </c>
+      <c r="AC30" s="5"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -5303,54 +5705,68 @@
       <c r="D31" s="3">
         <v>68492</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>136235</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5">
         <v>125561</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
+      <c r="H31" s="5">
+        <v>261796</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
         <v>5953</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="5">
         <v>5798</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3">
+      <c r="L31" s="5">
+        <v>11751</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5">
         <v>4747</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="5">
         <v>3939</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3">
+      <c r="P31" s="5">
+        <v>8686</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5">
         <v>992647</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="5">
         <v>994945</v>
       </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3">
+      <c r="T31" s="5">
+        <v>1987592</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5">
         <v>54917</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="5">
         <v>52629</v>
       </c>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3">
+      <c r="X31" s="5">
+        <v>107546</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5">
         <v>30907</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AA31" s="5">
         <v>28899</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="5">
+        <v>59806</v>
+      </c>
+      <c r="AC31" s="5"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -5363,54 +5779,68 @@
       <c r="D32" s="4">
         <v>74196</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>153768</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <v>140525</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
+      <c r="H32" s="5">
+        <v>294293</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
         <v>5140</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="5">
         <v>4342</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3">
+      <c r="L32" s="5">
+        <v>9482</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
         <v>4034</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="5">
         <v>3382</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3">
+      <c r="P32" s="5">
+        <v>7416</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5">
         <v>1143657</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="5">
         <v>1151438</v>
       </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3">
+      <c r="T32" s="5">
+        <v>2295095</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5">
         <v>53558</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="5">
         <v>51334</v>
       </c>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3">
+      <c r="X32" s="5">
+        <v>104892</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5">
         <v>34974</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="5">
         <v>31806</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="5">
+        <v>66780</v>
+      </c>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -5423,54 +5853,68 @@
       <c r="D33" s="4">
         <v>57035</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <v>104009</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <v>94552</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3">
+      <c r="H33" s="5">
+        <v>198561</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5">
         <v>3715</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="5">
         <v>3556</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3">
+      <c r="L33" s="5">
+        <v>7271</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
         <v>2886</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="5">
         <v>2373</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3">
+      <c r="P33" s="5">
+        <v>5259</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5">
         <v>903189</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="5">
         <v>944049</v>
       </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3">
+      <c r="T33" s="5">
+        <v>1847238</v>
+      </c>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5">
         <v>43079</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="5">
         <v>42611</v>
       </c>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3">
+      <c r="X33" s="5">
+        <v>85690</v>
+      </c>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5">
         <v>27005</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="5">
         <v>24771</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="5">
+        <v>51776</v>
+      </c>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -5483,54 +5927,68 @@
       <c r="D34" s="4">
         <v>148935</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="5">
         <v>104232</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="5">
         <v>103369</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
+      <c r="H34" s="5">
+        <v>207601</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5">
         <v>5502</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="5">
         <v>5310</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3">
+      <c r="L34" s="5">
+        <v>10812</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
         <v>4653</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="5">
         <v>3890</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3">
+      <c r="P34" s="5">
+        <v>8543</v>
+      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5">
         <v>1776630</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="5">
         <v>1899412</v>
       </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3">
+      <c r="T34" s="5">
+        <v>3676042</v>
+      </c>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5">
         <v>97313</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="5">
         <v>93328</v>
       </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3">
+      <c r="X34" s="5">
+        <v>190641</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5">
         <v>72848</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34" s="5">
         <v>67544</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="5">
+        <v>140392</v>
+      </c>
+      <c r="AC34" s="5"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -5543,54 +6001,68 @@
       <c r="D35" s="4">
         <v>34703</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="5">
         <v>286547</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="5">
         <v>240300</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
+      <c r="H35" s="5">
+        <v>526847</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
         <v>7752</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="5">
         <v>7256</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3">
+      <c r="L35" s="5">
+        <v>15008</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
         <v>7744</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="5">
         <v>5984</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3">
+      <c r="P35" s="5">
+        <v>13728</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5">
         <v>473191</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="5">
         <v>499534</v>
       </c>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3">
+      <c r="T35" s="5">
+        <v>972725</v>
+      </c>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5">
         <v>15572</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="5">
         <v>14756</v>
       </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3">
+      <c r="X35" s="5">
+        <v>30328</v>
+      </c>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5">
         <v>11234</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="5">
         <v>9741</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35" s="5">
+        <v>20975</v>
+      </c>
+      <c r="AC35" s="5"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -5603,54 +6075,68 @@
       <c r="D36" s="4">
         <v>37940</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
         <v>926200</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="5">
         <v>848100</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3">
+      <c r="H36" s="5">
+        <v>1774300</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
         <v>21751</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="5">
         <v>20883</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3">
+      <c r="L36" s="5">
+        <v>42634</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
         <v>21496</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="5">
         <v>16444</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3">
-        <v>0</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0</v>
-      </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P36" s="5">
+        <v>37940</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5663,54 +6149,68 @@
       <c r="D37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="5">
         <v>144451</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="5">
         <v>150935</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3">
+      <c r="H37" s="5">
+        <v>295386</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5">
         <v>1780396</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="5">
         <v>1813442</v>
       </c>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T37" s="5">
+        <v>3593838</v>
+      </c>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC37" s="5"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -5723,54 +6223,68 @@
       <c r="D38" s="4">
         <v>70321</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
         <v>192124</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="5">
         <v>206043</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3">
+      <c r="H38" s="5">
+        <v>398167</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
         <v>6166</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="5">
         <v>5646</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3">
+      <c r="L38" s="5">
+        <v>11812</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
         <v>4283</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="5">
         <v>3284</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3">
+      <c r="P38" s="5">
+        <v>7567</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5">
         <v>1599896</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="5">
         <v>1632704</v>
       </c>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3">
+      <c r="T38" s="5">
+        <v>3232600</v>
+      </c>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5">
         <v>63633</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="5">
         <v>60427</v>
       </c>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3">
+      <c r="X38" s="5">
+        <v>124060</v>
+      </c>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5">
         <v>33325</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AA38" s="5">
         <v>29429</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38" s="5">
+        <v>62754</v>
+      </c>
+      <c r="AC38" s="5"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -5783,54 +6297,68 @@
       <c r="D39" s="4">
         <v>34852</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="5">
         <v>41931</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <v>44439</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3">
+      <c r="H39" s="5">
+        <v>86370</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5">
         <v>1626</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="5">
         <v>1506</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3">
+      <c r="L39" s="5">
+        <v>3132</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5">
         <v>1443</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="5">
         <v>1199</v>
       </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3">
+      <c r="P39" s="5">
+        <v>2642</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5">
         <v>667651</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="5">
         <v>717410</v>
       </c>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3">
+      <c r="T39" s="5">
+        <v>1385061</v>
+      </c>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5">
         <v>27571</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="5">
         <v>25979</v>
       </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3">
+      <c r="X39" s="5">
+        <v>53550</v>
+      </c>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5">
         <v>17031</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AA39" s="5">
         <v>15179</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39" s="5">
+        <v>32210</v>
+      </c>
+      <c r="AC39" s="5"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -5843,54 +6371,68 @@
       <c r="D40" s="4">
         <v>62717</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="5">
         <v>75193</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="5">
         <v>70982</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3">
+      <c r="H40" s="5">
+        <v>146175</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>2852</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="5">
         <v>2879</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3">
+      <c r="L40" s="5">
+        <v>5731</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5">
         <v>2415</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="5">
         <v>2040</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3">
+      <c r="P40" s="5">
+        <v>4455</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5">
         <v>1262671</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="5">
         <v>1283178</v>
       </c>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3">
+      <c r="T40" s="5">
+        <v>2545849</v>
+      </c>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5">
         <v>49555</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="5">
         <v>47380</v>
       </c>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3">
+      <c r="X40" s="5">
+        <v>96935</v>
+      </c>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5">
         <v>30546</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AA40" s="5">
         <v>27716</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40" s="5">
+        <v>58262</v>
+      </c>
+      <c r="AC40" s="5"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -5903,54 +6445,68 @@
       <c r="D41" s="4">
         <v>125052</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="5">
         <v>85863</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="5">
         <v>96453</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3">
+      <c r="H41" s="5">
+        <v>182316</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5">
         <v>6801</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="5">
         <v>6640</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3">
+      <c r="L41" s="5">
+        <v>13441</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
         <v>5934</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="5">
         <v>4804</v>
       </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3">
+      <c r="P41" s="5">
+        <v>10738</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5">
         <v>1838285</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="5">
         <v>1873982</v>
       </c>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3">
+      <c r="T41" s="5">
+        <v>3712267</v>
+      </c>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5">
         <v>102412</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="5">
         <v>97886</v>
       </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3">
+      <c r="X41" s="5">
+        <v>200298</v>
+      </c>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5">
         <v>59686</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="5">
         <v>54628</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41" s="5">
+        <v>114314</v>
+      </c>
+      <c r="AC41" s="5"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5963,54 +6519,68 @@
       <c r="D42" s="4">
         <v>98378</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="5">
         <v>278506</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="5">
         <v>278132</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3">
+      <c r="H42" s="5">
+        <v>556638</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
         <v>10083</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="5">
         <v>9934</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3">
+      <c r="L42" s="5">
+        <v>20017</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
         <v>7848</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="5">
         <v>6631</v>
       </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3">
+      <c r="P42" s="5">
+        <v>14479</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5">
         <v>1366608</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="5">
         <v>1404738</v>
       </c>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3">
+      <c r="T42" s="5">
+        <v>2771346</v>
+      </c>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5">
         <v>69964</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="5">
         <v>66679</v>
       </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3">
+      <c r="X42" s="5">
+        <v>136643</v>
+      </c>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5">
         <v>43559</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="5">
         <v>40340</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42" s="5">
+        <v>83899</v>
+      </c>
+      <c r="AC42" s="5"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -6023,54 +6593,68 @@
       <c r="D43" s="4">
         <v>60247</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="5">
         <v>106664</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="5">
         <v>83127</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3">
+      <c r="H43" s="5">
+        <v>189791</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5">
         <v>4467</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="5">
         <v>4049</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3">
+      <c r="L43" s="5">
+        <v>8516</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5">
         <v>3306</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="5">
         <v>2752</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3">
+      <c r="P43" s="5">
+        <v>6058</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5">
         <v>907777</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="5">
         <v>961706</v>
       </c>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3">
+      <c r="T43" s="5">
+        <v>1869483</v>
+      </c>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5">
         <v>46412</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="5">
         <v>43915</v>
       </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3">
+      <c r="X43" s="5">
+        <v>90327</v>
+      </c>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5">
         <v>27443</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="5">
         <v>26746</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43" s="5">
+        <v>54189</v>
+      </c>
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -6083,54 +6667,68 @@
       <c r="D44" s="4">
         <v>59098</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="5">
         <v>116540</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="5">
         <v>91374</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3">
+      <c r="H44" s="5">
+        <v>207914</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
         <v>2030</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="5">
         <v>1942</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3">
+      <c r="L44" s="5">
+        <v>3972</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5">
         <v>1788</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="5">
         <v>1463</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3">
+      <c r="P44" s="5">
+        <v>3251</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5">
         <v>911132</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="5">
         <v>901996</v>
       </c>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3">
+      <c r="T44" s="5">
+        <v>1813128</v>
+      </c>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5">
         <v>44643</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="5">
         <v>42905</v>
       </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3">
+      <c r="X44" s="5">
+        <v>87548</v>
+      </c>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5">
         <v>29372</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="5">
         <v>26475</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44" s="5">
+        <v>55847</v>
+      </c>
+      <c r="AC44" s="5"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -6143,54 +6741,68 @@
       <c r="D45" s="4">
         <v>46327</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="5">
         <v>198986</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="5">
         <v>174760</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3">
+      <c r="H45" s="5">
+        <v>373746</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5">
         <v>7103</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="5">
         <v>6560</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3">
+      <c r="L45" s="5">
+        <v>13663</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
         <v>5468</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="5">
         <v>4160</v>
       </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3">
+      <c r="P45" s="5">
+        <v>9628</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5">
         <v>774871</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="5">
         <v>739225</v>
       </c>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3">
+      <c r="T45" s="5">
+        <v>1514096</v>
+      </c>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5">
         <v>37078</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="5">
         <v>34988</v>
       </c>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3">
+      <c r="X45" s="5">
+        <v>72066</v>
+      </c>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5">
         <v>19074</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="5">
         <v>17625</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45" s="5">
+        <v>36699</v>
+      </c>
+      <c r="AC45" s="5"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -6203,54 +6815,68 @@
       <c r="D46" s="4">
         <v>1350</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>47200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="5">
         <v>40300</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
+      <c r="H46" s="5">
+        <v>87500</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
         <v>1279</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="5">
         <v>1177</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3">
+      <c r="L46" s="5">
+        <v>2456</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
         <v>786</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="5">
         <v>564</v>
       </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P46" s="5">
+        <v>1350</v>
+      </c>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5">
+        <v>0</v>
+      </c>
+      <c r="S46" s="5">
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
+        <v>0</v>
+      </c>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="5"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -6263,54 +6889,68 @@
       <c r="D47" s="4">
         <v>109126</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="5">
         <v>155603</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="5">
         <v>143138</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3">
+      <c r="H47" s="5">
+        <v>298741</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5">
         <v>5650</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="5">
         <v>5709</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3">
+      <c r="L47" s="5">
+        <v>11359</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
         <v>4211</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="5">
         <v>4026</v>
       </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3">
+      <c r="P47" s="5">
+        <v>8237</v>
+      </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5">
         <v>1761144</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="5">
         <v>1798701</v>
       </c>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3">
+      <c r="T47" s="5">
+        <v>3559845</v>
+      </c>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5">
         <v>84163</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="5">
         <v>83956</v>
       </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3">
+      <c r="X47" s="5">
+        <v>168119</v>
+      </c>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5">
         <v>50686</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="5">
         <v>50203</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB47" s="5">
+        <v>100889</v>
+      </c>
+      <c r="AC47" s="5"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6323,54 +6963,68 @@
       <c r="D48" s="4">
         <v>61633</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="5">
         <v>84812</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="5">
         <v>85337</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3">
+      <c r="H48" s="5">
+        <v>170149</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5">
         <v>2634</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="5">
         <v>2509</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3">
+      <c r="L48" s="5">
+        <v>5143</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5">
         <v>1918</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="5">
         <v>1773</v>
       </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3">
+      <c r="P48" s="5">
+        <v>3691</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5">
         <v>1022726</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="5">
         <v>1220508</v>
       </c>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3">
+      <c r="T48" s="5">
+        <v>2243234</v>
+      </c>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5">
         <v>47606</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="5">
         <v>45588</v>
       </c>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3">
+      <c r="X48" s="5">
+        <v>93194</v>
+      </c>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5">
         <v>30520</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="5">
         <v>27422</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB48" s="5">
+        <v>57942</v>
+      </c>
+      <c r="AC48" s="5"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -6383,54 +7037,68 @@
       <c r="D49" s="4">
         <v>58705</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="5">
         <v>106820</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>104792</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3">
+      <c r="H49" s="5">
+        <v>211612</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
         <v>4019</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="5">
         <v>3782</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3">
+      <c r="L49" s="5">
+        <v>7801</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5">
         <v>3208</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="5">
         <v>2556</v>
       </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3">
+      <c r="P49" s="5">
+        <v>5764</v>
+      </c>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5">
         <v>861707</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="5">
         <v>896681</v>
       </c>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3">
+      <c r="T49" s="5">
+        <v>1758388</v>
+      </c>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5">
         <v>39083</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="5">
         <v>37065</v>
       </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3">
+      <c r="X49" s="5">
+        <v>76148</v>
+      </c>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5">
         <v>28029</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="5">
         <v>24912</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB49" s="5">
+        <v>52941</v>
+      </c>
+      <c r="AC49" s="5"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -6443,54 +7111,68 @@
       <c r="D50" s="4">
         <v>84641</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="5">
         <v>95051</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="5">
         <v>96958</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3">
+      <c r="H50" s="5">
+        <v>192009</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5">
         <v>4096</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="5">
         <v>3898</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3">
+      <c r="L50" s="5">
+        <v>7994</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5">
         <v>3026</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="5">
         <v>2589</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3">
+      <c r="P50" s="5">
+        <v>5616</v>
+      </c>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5">
         <v>1450500</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50" s="5">
         <v>1460800</v>
       </c>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3">
+      <c r="T50" s="5">
+        <v>2911300</v>
+      </c>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5">
         <v>71278</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="5">
         <v>68425</v>
       </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3">
+      <c r="X50" s="5">
+        <v>139703</v>
+      </c>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5">
         <v>40486</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA50" s="5">
         <v>38540</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB50" s="5">
+        <v>79026</v>
+      </c>
+      <c r="AC50" s="5"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -6503,54 +7185,68 @@
       <c r="D51" s="4">
         <v>79007</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="5">
         <v>225344</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="5">
         <v>219523</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3">
+      <c r="H51" s="5">
+        <v>444867</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
         <v>7882</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="5">
         <v>7467</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3">
+      <c r="L51" s="5">
+        <v>15349</v>
+      </c>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5">
         <v>6008</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="5">
         <v>4642</v>
       </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3">
+      <c r="P51" s="5">
+        <v>10650</v>
+      </c>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5">
         <v>1560328</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="5">
         <v>1530477</v>
       </c>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3">
+      <c r="T51" s="5">
+        <v>3090805</v>
+      </c>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5">
         <v>69989</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="5">
         <v>65865</v>
       </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3">
+      <c r="X51" s="5">
+        <v>135854</v>
+      </c>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5">
         <v>36834</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA51" s="5">
         <v>31523</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB51" s="5">
+        <v>68357</v>
+      </c>
+      <c r="AC51" s="5"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -6563,54 +7259,68 @@
       <c r="D52" s="4">
         <v>68866</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="5">
         <v>119426</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="5">
         <v>107776</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3">
+      <c r="H52" s="5">
+        <v>227202</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5">
         <v>4259</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="5">
         <v>4170</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3">
+      <c r="L52" s="5">
+        <v>8429</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5">
         <v>3283</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="5">
         <v>2669</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3">
+      <c r="P52" s="5">
+        <v>5952</v>
+      </c>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5">
         <v>1466043</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="5">
         <v>1421165</v>
       </c>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3">
+      <c r="T52" s="5">
+        <v>2887208</v>
+      </c>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5">
         <v>61028</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="5">
         <v>58713</v>
       </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3">
+      <c r="X52" s="5">
+        <v>119741</v>
+      </c>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5">
         <v>33453</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="5">
         <v>29461</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB52" s="5">
+        <v>62914</v>
+      </c>
+      <c r="AC52" s="5"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -6623,54 +7333,68 @@
       <c r="D53" s="4">
         <v>3289</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="5">
         <v>61975</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="5">
         <v>55604</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3">
+      <c r="H53" s="5">
+        <v>117579</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5">
         <v>2427</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="5">
         <v>2289</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3">
+      <c r="L53" s="5">
+        <v>4716</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5">
         <v>1852</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="5">
         <v>1437</v>
       </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3">
-        <v>0</v>
-      </c>
-      <c r="S53" s="3">
-        <v>0</v>
-      </c>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3">
-        <v>0</v>
-      </c>
-      <c r="W53" s="3">
-        <v>0</v>
-      </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P53" s="5">
+        <v>3289</v>
+      </c>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5">
+        <v>0</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0</v>
+      </c>
+      <c r="T53" s="5">
+        <v>0</v>
+      </c>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5">
+        <v>0</v>
+      </c>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+      <c r="X53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="5"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -6683,54 +7407,68 @@
       <c r="D54" s="4">
         <v>9742</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="5">
         <v>317363</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="5">
         <v>337883</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3">
+      <c r="H54" s="5">
+        <v>655246</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5">
         <v>7317</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="5">
         <v>6466</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3">
+      <c r="L54" s="5">
+        <v>13783</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5">
         <v>5379</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="5">
         <v>4363</v>
       </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P54" s="5">
+        <v>9742</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
+        <v>0</v>
+      </c>
+      <c r="T54" s="5">
+        <v>0</v>
+      </c>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+      <c r="X54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="5"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -6743,54 +7481,68 @@
       <c r="D55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="5">
         <v>79100</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="5">
         <v>69000</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3">
+      <c r="H55" s="5">
+        <v>148100</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5">
         <v>474400</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="5">
         <v>465300</v>
       </c>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA55" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T55" s="5">
+        <v>939700</v>
+      </c>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC55" s="5"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -6803,54 +7555,68 @@
       <c r="D56" s="4">
         <v>65334</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="5">
         <v>136928</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="5">
         <v>141433</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3">
+      <c r="H56" s="5">
+        <v>278361</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
         <v>3924</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="5">
         <v>3717</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3">
+      <c r="L56" s="5">
+        <v>7641</v>
+      </c>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5">
         <v>2828</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="5">
         <v>2471</v>
       </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3">
+      <c r="P56" s="5">
+        <v>5299</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5">
         <v>1332078</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S56" s="5">
         <v>1353699</v>
       </c>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3">
+      <c r="T56" s="5">
+        <v>2685777</v>
+      </c>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5">
         <v>54773</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W56" s="5">
         <v>52132</v>
       </c>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3">
+      <c r="X56" s="5">
+        <v>106905</v>
+      </c>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5">
         <v>31400</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56" s="5">
         <v>28635</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB56" s="5">
+        <v>60035</v>
+      </c>
+      <c r="AC56" s="5"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -6863,54 +7629,68 @@
       <c r="D57" s="4">
         <v>9188</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="5">
         <v>74231</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="5">
         <v>69457</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3">
+      <c r="H57" s="5">
+        <v>143688</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
         <v>1788</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="5">
         <v>1670</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3">
+      <c r="L57" s="5">
+        <v>3458</v>
+      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5">
         <v>1685</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="5">
         <v>1276</v>
       </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3">
+      <c r="P57" s="5">
+        <v>2961</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5">
         <v>191497</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="5">
         <v>200542</v>
       </c>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3">
+      <c r="T57" s="5">
+        <v>392039</v>
+      </c>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5">
         <v>4292</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="5">
         <v>4073</v>
       </c>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3">
+      <c r="X57" s="5">
+        <v>8365</v>
+      </c>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5">
         <v>3287</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="5">
         <v>2940</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB57" s="5">
+        <v>6227</v>
+      </c>
+      <c r="AC57" s="5"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -6923,54 +7703,68 @@
       <c r="D58" s="4">
         <v>31687</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="5">
         <v>97782</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="5">
         <v>115329</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3">
+      <c r="H58" s="5">
+        <v>213111</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5">
         <v>4284</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="5">
         <v>4087</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3">
+      <c r="L58" s="5">
+        <v>8371</v>
+      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5">
         <v>3535</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="5">
         <v>2817</v>
       </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3">
+      <c r="P58" s="5">
+        <v>6352</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5">
         <v>540351</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="5">
         <v>633925</v>
       </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3">
+      <c r="T58" s="5">
+        <v>1174276</v>
+      </c>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5">
         <v>23262</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="5">
         <v>21946</v>
       </c>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3">
+      <c r="X58" s="5">
+        <v>45208</v>
+      </c>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5">
         <v>14517</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="5">
         <v>13818</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB58" s="5">
+        <v>28335</v>
+      </c>
+      <c r="AC58" s="5"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -6983,54 +7777,68 @@
       <c r="D59" s="4">
         <v>3008885</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="5">
         <v>9070486</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="5">
         <v>8668443</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3">
+      <c r="H59" s="5">
+        <v>17738934</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
         <v>268809</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="5">
         <v>254696</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3">
+      <c r="L59" s="5">
+        <v>523505</v>
+      </c>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5">
         <v>216055</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="5">
         <v>171118</v>
       </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3">
+      <c r="P59" s="5">
+        <v>390173</v>
+      </c>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5">
         <v>54211712</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="5">
         <v>55656437</v>
       </c>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3">
+      <c r="T59" s="5">
+        <v>109868149</v>
+      </c>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5">
         <v>2253766</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="5">
         <v>2157908</v>
       </c>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3">
+      <c r="X59" s="5">
+        <v>4411674</v>
+      </c>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5">
         <v>1366181</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="5">
         <v>1252481</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB59" s="5">
+        <v>2618662</v>
+      </c>
+      <c r="AC59" s="5"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -7043,54 +7851,68 @@
       <c r="D60" s="4">
         <v>14405</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="5">
         <v>53044</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="5">
         <v>47115</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3">
+      <c r="H60" s="5">
+        <v>100159</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5">
         <v>901</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="5">
         <v>671</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3">
+      <c r="L60" s="5">
+        <v>1572</v>
+      </c>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5">
         <v>766</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="5">
         <v>522</v>
       </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3">
+      <c r="P60" s="5">
+        <v>1288</v>
+      </c>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5">
         <v>402464</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="5">
         <v>352842</v>
       </c>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3">
+      <c r="T60" s="5">
+        <v>755306</v>
+      </c>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5">
         <v>10010</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="5">
         <v>8927</v>
       </c>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3">
+      <c r="X60" s="5">
+        <v>18937</v>
+      </c>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5">
         <v>7126</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="5">
         <v>5991</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB60" s="5">
+        <v>13117</v>
+      </c>
+      <c r="AC60" s="5"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -7103,54 +7925,68 @@
       <c r="D61" s="4">
         <v>8058</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="5">
         <v>226096</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="5">
         <v>166542</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3">
+      <c r="H61" s="5">
+        <v>392638</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5">
         <v>6047</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="5">
         <v>5147</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3">
+      <c r="L61" s="5">
+        <v>11194</v>
+      </c>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5">
         <v>4731</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="5">
         <v>3327</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P61" s="5">
+        <v>8058</v>
+      </c>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0</v>
+      </c>
+      <c r="T61" s="5">
+        <v>0</v>
+      </c>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61" s="5">
+        <v>0</v>
+      </c>
+      <c r="X61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="5"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -7163,54 +7999,68 @@
       <c r="D62" s="4">
         <v>791</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="5">
         <v>31900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="5">
         <v>22600</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3">
+      <c r="H62" s="5">
+        <v>54500</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5">
         <v>167</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="5">
         <v>130</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3">
+      <c r="L62" s="5">
+        <v>297</v>
+      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5">
         <v>159</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="5">
         <v>109</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3">
+      <c r="P62" s="5">
+        <v>268</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5">
         <v>64800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="5">
         <v>63800</v>
       </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3">
+      <c r="T62" s="5">
+        <v>128600</v>
+      </c>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5">
         <v>898</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="5">
         <v>644</v>
       </c>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3">
+      <c r="X62" s="5">
+        <v>1542</v>
+      </c>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5">
         <v>269</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="5">
         <v>254</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB62" s="5">
+        <v>523</v>
+      </c>
+      <c r="AC62" s="5"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -7223,54 +8073,68 @@
       <c r="D63" s="4">
         <v>11929</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="5">
         <v>42453</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="5">
         <v>27303</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3">
+      <c r="H63" s="5">
+        <v>69756</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5">
         <v>990</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="5">
         <v>771</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3">
+      <c r="L63" s="5">
+        <v>1761</v>
+      </c>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5">
         <v>932</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="5">
         <v>659</v>
       </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3">
+      <c r="P63" s="5">
+        <v>1591</v>
+      </c>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5">
         <v>321842</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S63" s="5">
         <v>311912</v>
       </c>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3">
+      <c r="T63" s="5">
+        <v>633754</v>
+      </c>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5">
         <v>7355</v>
       </c>
-      <c r="W63" s="3">
+      <c r="W63" s="5">
         <v>6451</v>
       </c>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3">
+      <c r="X63" s="5">
+        <v>13806</v>
+      </c>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5">
         <v>5317</v>
       </c>
-      <c r="AA63" s="3">
+      <c r="AA63" s="5">
         <v>5021</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB63" s="5">
+        <v>10338</v>
+      </c>
+      <c r="AC63" s="5"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -7283,54 +8147,68 @@
       <c r="D64" s="4">
         <v>18002</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="5">
         <v>72434</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="5">
         <v>73018</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3">
+      <c r="H64" s="5">
+        <v>145452</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5">
         <v>1468</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="5">
         <v>1185</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3">
+      <c r="L64" s="5">
+        <v>2653</v>
+      </c>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5">
         <v>1028</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="5">
         <v>778</v>
       </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3">
+      <c r="P64" s="5">
+        <v>1806</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5">
         <v>585066</v>
       </c>
-      <c r="S64" s="3">
+      <c r="S64" s="5">
         <v>529898</v>
       </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3">
+      <c r="T64" s="5">
+        <v>1114964</v>
+      </c>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5">
         <v>13954</v>
       </c>
-      <c r="W64" s="3">
+      <c r="W64" s="5">
         <v>12296</v>
       </c>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3">
+      <c r="X64" s="5">
+        <v>26250</v>
+      </c>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5">
         <v>8385</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="AA64" s="5">
         <v>7811</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB64" s="5">
+        <v>16196</v>
+      </c>
+      <c r="AC64" s="5"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -7343,54 +8221,68 @@
       <c r="D65" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="5">
         <v>25400</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="5">
         <v>21700</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3">
+      <c r="H65" s="5">
+        <v>47100</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5">
         <v>185700</v>
       </c>
-      <c r="S65" s="3">
+      <c r="S65" s="5">
         <v>163400</v>
       </c>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA65" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T65" s="5">
+        <v>349100</v>
+      </c>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC65" s="5"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -7403,54 +8295,68 @@
       <c r="D66" s="4">
         <v>85762</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="5">
         <v>125300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="5">
         <v>120200</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3">
+      <c r="H66" s="5">
+        <v>245500</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5">
         <v>4507</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="5">
         <v>4342</v>
       </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3">
+      <c r="L66" s="5">
+        <v>8849</v>
+      </c>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5">
         <v>3952</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="5">
         <v>3286</v>
       </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3">
+      <c r="P66" s="5">
+        <v>7238</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5">
         <v>1388300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="5">
         <v>1350700</v>
       </c>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3">
+      <c r="T66" s="5">
+        <v>2739000</v>
+      </c>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5">
         <v>74423</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="5">
         <v>70773</v>
       </c>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3">
+      <c r="X66" s="5">
+        <v>145196</v>
+      </c>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5">
         <v>40904</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="5">
         <v>37620</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB66" s="5">
+        <v>78524</v>
+      </c>
+      <c r="AC66" s="5"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -7463,54 +8369,68 @@
       <c r="D67" s="4">
         <v>15702</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="5">
         <v>74381</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="5">
         <v>50037</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3">
+      <c r="H67" s="5">
+        <v>124418</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5">
         <v>1038</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="5">
         <v>888</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3">
+      <c r="L67" s="5">
+        <v>1926</v>
+      </c>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5">
         <v>860</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67" s="5">
         <v>650</v>
       </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3">
+      <c r="P67" s="5">
+        <v>1510</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5">
         <v>597152</v>
       </c>
-      <c r="S67" s="3">
+      <c r="S67" s="5">
         <v>511890</v>
       </c>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3">
+      <c r="T67" s="5">
+        <v>1109042</v>
+      </c>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5">
         <v>13698</v>
       </c>
-      <c r="W67" s="3">
+      <c r="W67" s="5">
         <v>12998</v>
       </c>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3">
+      <c r="X67" s="5">
+        <v>26696</v>
+      </c>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5">
         <v>7327</v>
       </c>
-      <c r="AA67" s="3">
+      <c r="AA67" s="5">
         <v>6865</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB67" s="5">
+        <v>14192</v>
+      </c>
+      <c r="AC67" s="5"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -7523,54 +8443,68 @@
       <c r="D68" s="4">
         <v>49338</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="5">
         <v>31728</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="5">
         <v>31122</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3">
+      <c r="H68" s="5">
+        <v>62850</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5">
         <v>1314</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="5">
         <v>1256</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3">
+      <c r="L68" s="5">
+        <v>2570</v>
+      </c>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5">
         <v>947</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="5">
         <v>815</v>
       </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3">
+      <c r="P68" s="5">
+        <v>1762</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5">
         <v>626104</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S68" s="5">
         <v>604698</v>
       </c>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3">
+      <c r="T68" s="5">
+        <v>1230802</v>
+      </c>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5">
         <v>35898</v>
       </c>
-      <c r="W68" s="3">
+      <c r="W68" s="5">
         <v>34321</v>
       </c>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3">
+      <c r="X68" s="5">
+        <v>70219</v>
+      </c>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5">
         <v>24612</v>
       </c>
-      <c r="AA68" s="3">
+      <c r="AA68" s="5">
         <v>22964</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68" s="5">
+        <v>47576</v>
+      </c>
+      <c r="AC68" s="5"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -7583,54 +8517,68 @@
       <c r="D69" s="4">
         <v>33268</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="5">
         <v>119909</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="5">
         <v>103747</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3">
+      <c r="H69" s="5">
+        <v>223656</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5">
         <v>4124</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="5">
         <v>3919</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3">
+      <c r="L69" s="5">
+        <v>8043</v>
+      </c>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5">
         <v>3136</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69" s="5">
         <v>2472</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3">
+      <c r="P69" s="5">
+        <v>5608</v>
+      </c>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5">
         <v>574823</v>
       </c>
-      <c r="S69" s="3">
+      <c r="S69" s="5">
         <v>522849</v>
       </c>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3">
+      <c r="T69" s="5">
+        <v>1097672</v>
+      </c>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5">
         <v>25337</v>
       </c>
-      <c r="W69" s="3">
+      <c r="W69" s="5">
         <v>23688</v>
       </c>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3">
+      <c r="X69" s="5">
+        <v>49025</v>
+      </c>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5">
         <v>14339</v>
       </c>
-      <c r="AA69" s="3">
+      <c r="AA69" s="5">
         <v>13321</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69" s="5">
+        <v>27660</v>
+      </c>
+      <c r="AC69" s="5"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -7643,54 +8591,68 @@
       <c r="D70" s="4">
         <v>26951</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="5">
         <v>224342</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="5">
         <v>194711</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3">
+      <c r="H70" s="5">
+        <v>419053</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5">
         <v>3601</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="5">
         <v>3380</v>
       </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3">
+      <c r="L70" s="5">
+        <v>6981</v>
+      </c>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5">
         <v>3233</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="5">
         <v>2395</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3">
+      <c r="P70" s="5">
+        <v>5628</v>
+      </c>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5">
         <v>554740</v>
       </c>
-      <c r="S70" s="3">
+      <c r="S70" s="5">
         <v>487009</v>
       </c>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3">
+      <c r="T70" s="5">
+        <v>1041749</v>
+      </c>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5">
         <v>22239</v>
       </c>
-      <c r="W70" s="3">
+      <c r="W70" s="5">
         <v>19243</v>
       </c>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3">
+      <c r="X70" s="5">
+        <v>41482</v>
+      </c>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5">
         <v>11959</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AA70" s="5">
         <v>9364</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB70" s="5">
+        <v>21323</v>
+      </c>
+      <c r="AC70" s="5"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -7703,54 +8665,68 @@
       <c r="D71" s="4">
         <v>2658</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="5">
         <v>62013</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="5">
         <v>37886</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3">
+      <c r="H71" s="5">
+        <v>99899</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5">
         <v>1105</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="5">
         <v>1095</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3">
+      <c r="L71" s="5">
+        <v>2200</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5">
         <v>778</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71" s="5">
         <v>551</v>
       </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3">
+      <c r="P71" s="5">
+        <v>1329</v>
+      </c>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5">
         <v>56061</v>
       </c>
-      <c r="S71" s="3">
+      <c r="S71" s="5">
         <v>38510</v>
       </c>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3">
+      <c r="T71" s="5">
+        <v>94571</v>
+      </c>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5">
         <v>1764</v>
       </c>
-      <c r="W71" s="3">
+      <c r="W71" s="5">
         <v>1564</v>
       </c>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3">
+      <c r="X71" s="5">
+        <v>3328</v>
+      </c>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5">
         <v>726</v>
       </c>
-      <c r="AA71" s="3">
+      <c r="AA71" s="5">
         <v>603</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB71" s="5">
+        <v>1329</v>
+      </c>
+      <c r="AC71" s="5"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -7763,54 +8739,68 @@
       <c r="D72" s="4">
         <v>19553</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="5">
         <v>53440</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="5">
         <v>39472</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
+      <c r="H72" s="5">
+        <v>92912</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5">
         <v>1242</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="5">
         <v>1215</v>
       </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3">
+      <c r="L72" s="5">
+        <v>2457</v>
+      </c>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5">
         <v>1186</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="5">
         <v>880</v>
       </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3">
+      <c r="P72" s="5">
+        <v>2066</v>
+      </c>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5">
         <v>447652</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="5">
         <v>395242</v>
       </c>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3">
+      <c r="T72" s="5">
+        <v>842894</v>
+      </c>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5">
         <v>17967</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="5">
         <v>15807</v>
       </c>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3">
+      <c r="X72" s="5">
+        <v>33774</v>
+      </c>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5">
         <v>9174</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="5">
         <v>8313</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB72" s="5">
+        <v>17487</v>
+      </c>
+      <c r="AC72" s="5"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -7823,54 +8813,68 @@
       <c r="D73" s="4">
         <v>286417</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="5">
         <v>1142440</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="5">
         <v>935453</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3">
+      <c r="H73" s="5">
+        <v>2077893</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5">
         <v>26504</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="5">
         <v>23999</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3">
+      <c r="L73" s="5">
+        <v>50503</v>
+      </c>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5">
         <v>21708</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="5">
         <v>16444</v>
       </c>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3">
+      <c r="P73" s="5">
+        <v>38152</v>
+      </c>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5">
         <v>5804704</v>
       </c>
-      <c r="S73" s="3">
+      <c r="S73" s="5">
         <v>5332750</v>
       </c>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3">
+      <c r="T73" s="5">
+        <v>11137454</v>
+      </c>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5">
         <v>223543</v>
       </c>
-      <c r="W73" s="3">
+      <c r="W73" s="5">
         <v>206712</v>
       </c>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3">
+      <c r="X73" s="5">
+        <v>430255</v>
+      </c>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5">
         <v>130138</v>
       </c>
-      <c r="AA73" s="3">
+      <c r="AA73" s="5">
         <v>118127</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB73" s="5">
+        <v>248265</v>
+      </c>
+      <c r="AC73" s="5"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -7883,54 +8887,68 @@
       <c r="D74" s="4">
         <v>7725</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="5">
         <v>38790</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="5">
         <v>24224</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3">
+      <c r="H74" s="5">
+        <v>63014</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5">
         <v>2181</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="5">
         <v>2116</v>
       </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3">
+      <c r="L74" s="5">
+        <v>4297</v>
+      </c>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5">
         <v>1311</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="5">
         <v>953</v>
       </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3">
+      <c r="P74" s="5">
+        <v>2264</v>
+      </c>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5">
         <v>154714</v>
       </c>
-      <c r="S74" s="3">
+      <c r="S74" s="5">
         <v>102474</v>
       </c>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3">
+      <c r="T74" s="5">
+        <v>257188</v>
+      </c>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5">
         <v>6532</v>
       </c>
-      <c r="W74" s="3">
+      <c r="W74" s="5">
         <v>5728</v>
       </c>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3">
+      <c r="X74" s="5">
+        <v>12260</v>
+      </c>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5">
         <v>3101</v>
       </c>
-      <c r="AA74" s="3">
+      <c r="AA74" s="5">
         <v>2360</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB74" s="5">
+        <v>5461</v>
+      </c>
+      <c r="AC74" s="5"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -7943,54 +8961,68 @@
       <c r="D75" s="4">
         <v>35696</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="5">
         <v>84229</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="5">
         <v>69193</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3">
+      <c r="H75" s="5">
+        <v>153422</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5">
         <v>2609</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="5">
         <v>2441</v>
       </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3">
+      <c r="L75" s="5">
+        <v>5050</v>
+      </c>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5">
         <v>2103</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="5">
         <v>1612</v>
       </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3">
+      <c r="P75" s="5">
+        <v>3715</v>
+      </c>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5">
         <v>503119</v>
       </c>
-      <c r="S75" s="3">
+      <c r="S75" s="5">
         <v>477667</v>
       </c>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3">
+      <c r="T75" s="5">
+        <v>980786</v>
+      </c>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5">
         <v>28692</v>
       </c>
-      <c r="W75" s="3">
+      <c r="W75" s="5">
         <v>26999</v>
       </c>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3">
+      <c r="X75" s="5">
+        <v>55691</v>
+      </c>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5">
         <v>16781</v>
       </c>
-      <c r="AA75" s="3">
+      <c r="AA75" s="5">
         <v>15200</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB75" s="5">
+        <v>31981</v>
+      </c>
+      <c r="AC75" s="5"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -8003,54 +9035,68 @@
       <c r="D76" s="4">
         <v>24791</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="5">
         <v>82591</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="5">
         <v>60776</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
+      <c r="H76" s="5">
+        <v>143367</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5">
         <v>2674</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="5">
         <v>2575</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3">
+      <c r="L76" s="5">
+        <v>5249</v>
+      </c>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5">
         <v>1985</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="5">
         <v>1482</v>
       </c>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3">
+      <c r="P76" s="5">
+        <v>3467</v>
+      </c>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5">
         <v>421751</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="5">
         <v>388352</v>
       </c>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3">
+      <c r="T76" s="5">
+        <v>810103</v>
+      </c>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5">
         <v>18910</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="5">
         <v>17842</v>
       </c>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3">
+      <c r="X76" s="5">
+        <v>36752</v>
+      </c>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5">
         <v>11115</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="5">
         <v>10209</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB76" s="5">
+        <v>21324</v>
+      </c>
+      <c r="AC76" s="5"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -8063,54 +9109,68 @@
       <c r="D77" s="4">
         <v>21326</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="5">
         <v>77730</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="5">
         <v>65064</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3">
+      <c r="H77" s="5">
+        <v>142794</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5">
         <v>3207</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="5">
         <v>3021</v>
       </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3">
+      <c r="L77" s="5">
+        <v>6228</v>
+      </c>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5">
         <v>2081</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="5">
         <v>1726</v>
       </c>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3">
+      <c r="P77" s="5">
+        <v>3807</v>
+      </c>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5">
         <v>323501</v>
       </c>
-      <c r="S77" s="3">
+      <c r="S77" s="5">
         <v>278066</v>
       </c>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3">
+      <c r="T77" s="5">
+        <v>601567</v>
+      </c>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5">
         <v>15174</v>
       </c>
-      <c r="W77" s="3">
+      <c r="W77" s="5">
         <v>13929</v>
       </c>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3">
+      <c r="X77" s="5">
+        <v>29103</v>
+      </c>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5">
         <v>9414</v>
       </c>
-      <c r="AA77" s="3">
+      <c r="AA77" s="5">
         <v>8105</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB77" s="5">
+        <v>17519</v>
+      </c>
+      <c r="AC77" s="5"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -8123,54 +9183,68 @@
       <c r="D78" s="4">
         <v>605</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="5">
         <v>1623</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="5">
         <v>1119</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3">
+      <c r="H78" s="5">
+        <v>2742</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5">
         <v>40</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="5">
         <v>45</v>
       </c>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3">
+      <c r="L78" s="5">
+        <v>85</v>
+      </c>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5">
         <v>24</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="5">
         <v>30</v>
       </c>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3">
+      <c r="P78" s="5">
+        <v>54</v>
+      </c>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5">
         <v>15282</v>
       </c>
-      <c r="S78" s="3">
+      <c r="S78" s="5">
         <v>14506</v>
       </c>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3">
+      <c r="T78" s="5">
+        <v>29788</v>
+      </c>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5">
         <v>364</v>
       </c>
-      <c r="W78" s="3">
+      <c r="W78" s="5">
         <v>307</v>
       </c>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3">
+      <c r="X78" s="5">
+        <v>671</v>
+      </c>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5">
         <v>287</v>
       </c>
-      <c r="AA78" s="3">
+      <c r="AA78" s="5">
         <v>264</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB78" s="5">
+        <v>551</v>
+      </c>
+      <c r="AC78" s="5"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -8183,54 +9257,68 @@
       <c r="D79" s="4">
         <v>8698</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="5">
         <v>98440</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="5">
         <v>53783</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3">
+      <c r="H79" s="5">
+        <v>152223</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5">
         <v>2721</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="5">
         <v>2519</v>
       </c>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3">
+      <c r="L79" s="5">
+        <v>5240</v>
+      </c>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5">
         <v>1779</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="5">
         <v>983</v>
       </c>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3">
+      <c r="P79" s="5">
+        <v>2762</v>
+      </c>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5">
         <v>206361</v>
       </c>
-      <c r="S79" s="3">
+      <c r="S79" s="5">
         <v>165549</v>
       </c>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3">
+      <c r="T79" s="5">
+        <v>371910</v>
+      </c>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5">
         <v>7720</v>
       </c>
-      <c r="W79" s="3">
+      <c r="W79" s="5">
         <v>6985</v>
       </c>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3">
+      <c r="X79" s="5">
+        <v>14705</v>
+      </c>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5">
         <v>3243</v>
       </c>
-      <c r="AA79" s="3">
+      <c r="AA79" s="5">
         <v>2693</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB79" s="5">
+        <v>5936</v>
+      </c>
+      <c r="AC79" s="5"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -8243,54 +9331,68 @@
       <c r="D80" s="4">
         <v>699</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="5">
         <v>9079</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="5">
         <v>5335</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3">
+      <c r="H80" s="5">
+        <v>14414</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5">
         <v>279</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="5">
         <v>225</v>
       </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3">
+      <c r="L80" s="5">
+        <v>504</v>
+      </c>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5">
         <v>173</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="5">
         <v>127</v>
       </c>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3">
+      <c r="P80" s="5">
+        <v>300</v>
+      </c>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5">
         <v>11719</v>
       </c>
-      <c r="S80" s="3">
+      <c r="S80" s="5">
         <v>7668</v>
       </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3">
+      <c r="T80" s="5">
+        <v>19387</v>
+      </c>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5">
         <v>413</v>
       </c>
-      <c r="W80" s="3">
+      <c r="W80" s="5">
         <v>313</v>
       </c>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3">
+      <c r="X80" s="5">
+        <v>726</v>
+      </c>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5">
         <v>248</v>
       </c>
-      <c r="AA80" s="3">
+      <c r="AA80" s="5">
         <v>151</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB80" s="5">
+        <v>399</v>
+      </c>
+      <c r="AC80" s="5"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -8303,54 +9405,68 @@
       <c r="D81" s="4">
         <v>80174</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="5">
         <v>83792</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="5">
         <v>66273</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3">
+      <c r="H81" s="5">
+        <v>150065</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5">
         <v>2990</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="5">
         <v>2771</v>
       </c>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3">
+      <c r="L81" s="5">
+        <v>5761</v>
+      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5">
         <v>2692</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="5">
         <v>2187</v>
       </c>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3">
+      <c r="P81" s="5">
+        <v>4879</v>
+      </c>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5">
         <v>979559</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="5">
         <v>996068</v>
       </c>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3">
+      <c r="T81" s="5">
+        <v>1975627</v>
+      </c>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5">
         <v>56949</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="5">
         <v>54669</v>
       </c>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3">
+      <c r="X81" s="5">
+        <v>111618</v>
+      </c>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5">
         <v>39142</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="5">
         <v>36153</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB81" s="5">
+        <v>75295</v>
+      </c>
+      <c r="AC81" s="5"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -8363,54 +9479,68 @@
       <c r="D82" s="4">
         <v>131947</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="5">
         <v>119671</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="5">
         <v>114875</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3">
+      <c r="H82" s="5">
+        <v>234546</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5">
         <v>4917</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="5">
         <v>4732</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3">
+      <c r="L82" s="5">
+        <v>9649</v>
+      </c>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5">
         <v>3319</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="5">
         <v>2686</v>
       </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3">
+      <c r="P82" s="5">
+        <v>6005</v>
+      </c>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5">
         <v>1999810</v>
       </c>
-      <c r="S82" s="3">
+      <c r="S82" s="5">
         <v>1980807</v>
       </c>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3">
+      <c r="T82" s="5">
+        <v>3980617</v>
+      </c>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5">
         <v>110491</v>
       </c>
-      <c r="W82" s="3">
+      <c r="W82" s="5">
         <v>106448</v>
       </c>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3">
+      <c r="X82" s="5">
+        <v>216939</v>
+      </c>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5">
         <v>65199</v>
       </c>
-      <c r="AA82" s="3">
+      <c r="AA82" s="5">
         <v>60743</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB82" s="5">
+        <v>125942</v>
+      </c>
+      <c r="AC82" s="5"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -8423,54 +9553,68 @@
       <c r="D83" s="4">
         <v>7047</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="5">
         <v>6724</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="5">
         <v>4686</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3">
+      <c r="H83" s="5">
+        <v>11410</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5">
         <v>136946</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="5">
         <v>121757</v>
       </c>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3">
+      <c r="T83" s="5">
+        <v>258703</v>
+      </c>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5">
         <v>5176</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="5">
         <v>4919</v>
       </c>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3">
+      <c r="X83" s="5">
+        <v>10095</v>
+      </c>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5">
         <v>3651</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="5">
         <v>3396</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB83" s="5">
+        <v>7047</v>
+      </c>
+      <c r="AC83" s="5"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -8483,54 +9627,68 @@
       <c r="D84" s="4">
         <v>318708</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="5">
         <v>602669</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="5">
         <v>465328</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3">
+      <c r="H84" s="5">
+        <v>1067997</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5">
         <v>21618</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="5">
         <v>20445</v>
       </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3">
+      <c r="L84" s="5">
+        <v>42063</v>
+      </c>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5">
         <v>15467</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="5">
         <v>11786</v>
       </c>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3">
+      <c r="P84" s="5">
+        <v>27253</v>
+      </c>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5">
         <v>4752762</v>
       </c>
-      <c r="S84" s="3">
+      <c r="S84" s="5">
         <v>4532914</v>
       </c>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="W84" s="3">
+      <c r="T84" s="5">
+        <v>9285676</v>
+      </c>
+      <c r="U84" s="5"/>
+      <c r="V84" s="6">
+        <v>250421</v>
+      </c>
+      <c r="W84" s="5">
         <v>238139</v>
       </c>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3">
+      <c r="X84" s="5">
+        <v>488560</v>
+      </c>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5">
         <v>152181</v>
       </c>
-      <c r="AA84" s="3">
+      <c r="AA84" s="5">
         <v>139274</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB84" s="5">
+        <v>291455</v>
+      </c>
+      <c r="AC84" s="5"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -8543,54 +9701,68 @@
       <c r="D85" s="4">
         <v>36604</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="5">
         <v>111779</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="5">
         <v>105722</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3">
+      <c r="H85" s="5">
+        <v>217501</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5">
         <v>3128</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="5">
         <v>3044</v>
       </c>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3">
+      <c r="L85" s="5">
+        <v>6172</v>
+      </c>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5">
         <v>2488</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85" s="5">
         <v>2070</v>
       </c>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3">
+      <c r="P85" s="5">
+        <v>4558</v>
+      </c>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5">
         <v>693896</v>
       </c>
-      <c r="S85" s="3">
+      <c r="S85" s="5">
         <v>644282</v>
       </c>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3">
+      <c r="T85" s="5">
+        <v>1338178</v>
+      </c>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5">
         <v>31244</v>
       </c>
-      <c r="W85" s="3">
+      <c r="W85" s="5">
         <v>29324</v>
       </c>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3">
+      <c r="X85" s="5">
+        <v>60568</v>
+      </c>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5">
         <v>16664</v>
       </c>
-      <c r="AA85" s="3">
+      <c r="AA85" s="5">
         <v>15382</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB85" s="5">
+        <v>32046</v>
+      </c>
+      <c r="AC85" s="5"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -8603,54 +9775,68 @@
       <c r="D86" s="4">
         <v>13113</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="5">
         <v>37665</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="5">
         <v>35649</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3">
+      <c r="H86" s="5">
+        <v>73314</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5">
         <v>1379</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="5">
         <v>1353</v>
       </c>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3">
+      <c r="L86" s="5">
+        <v>2732</v>
+      </c>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5">
         <v>1376</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86" s="5">
         <v>1337</v>
       </c>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3">
+      <c r="P86" s="5">
+        <v>2713</v>
+      </c>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5">
         <v>224989</v>
       </c>
-      <c r="S86" s="3">
+      <c r="S86" s="5">
         <v>208833</v>
       </c>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3">
+      <c r="T86" s="5">
+        <v>433822</v>
+      </c>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5">
         <v>6652</v>
       </c>
-      <c r="W86" s="3">
+      <c r="W86" s="5">
         <v>6283</v>
       </c>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3">
+      <c r="X86" s="5">
+        <v>12935</v>
+      </c>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5">
         <v>5338</v>
       </c>
-      <c r="AA86" s="3">
+      <c r="AA86" s="5">
         <v>5062</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB86" s="5">
+        <v>10400</v>
+      </c>
+      <c r="AC86" s="5"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -8663,54 +9849,68 @@
       <c r="D87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="5">
         <v>114600</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="5">
         <v>93900</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S87" s="3">
+      <c r="H87" s="5">
+        <v>208500</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="6">
+        <v>542100</v>
+      </c>
+      <c r="S87" s="5">
         <v>447400</v>
       </c>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA87" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T87" s="5">
+        <v>989500</v>
+      </c>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC87" s="5"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -8723,54 +9923,68 @@
       <c r="D88" s="4">
         <v>15983</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="5">
         <v>48064</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="5">
         <v>42166</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3">
+      <c r="H88" s="5">
+        <v>90230</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5">
         <v>1911</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="5">
         <v>1719</v>
       </c>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3">
+      <c r="L88" s="5">
+        <v>3630</v>
+      </c>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5">
         <v>1290</v>
       </c>
-      <c r="O88" s="3">
+      <c r="O88" s="5">
         <v>1096</v>
       </c>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3">
+      <c r="P88" s="5">
+        <v>2386</v>
+      </c>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5">
         <v>457107</v>
       </c>
-      <c r="S88" s="3">
+      <c r="S88" s="5">
         <v>381172</v>
       </c>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3">
+      <c r="T88" s="5">
+        <v>838279</v>
+      </c>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5">
         <v>11524</v>
       </c>
-      <c r="W88" s="3">
+      <c r="W88" s="5">
         <v>10447</v>
       </c>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3">
+      <c r="X88" s="5">
+        <v>21971</v>
+      </c>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5">
         <v>7301</v>
       </c>
-      <c r="AA88" s="3">
+      <c r="AA88" s="5">
         <v>6296</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB88" s="5">
+        <v>13597</v>
+      </c>
+      <c r="AC88" s="5"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -8783,54 +9997,68 @@
       <c r="D89" s="4">
         <v>34688</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="5">
         <v>55448</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="5">
         <v>47156</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3">
+      <c r="H89" s="5">
+        <v>102604</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5">
         <v>3402</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="5">
         <v>3205</v>
       </c>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3">
+      <c r="L89" s="5">
+        <v>6607</v>
+      </c>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5">
         <v>2267</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="5">
         <v>2258</v>
       </c>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3">
+      <c r="P89" s="5">
+        <v>4525</v>
+      </c>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5">
         <v>679477</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="5">
         <v>549084</v>
       </c>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3">
+      <c r="T89" s="5">
+        <v>1228561</v>
+      </c>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5">
         <v>26794</v>
       </c>
-      <c r="W89" s="3">
+      <c r="W89" s="5">
         <v>22832</v>
       </c>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3">
+      <c r="X89" s="5">
+        <v>49626</v>
+      </c>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5">
         <v>16080</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="5">
         <v>14083</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB89" s="5">
+        <v>30163</v>
+      </c>
+      <c r="AC89" s="5"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -8843,54 +10071,68 @@
       <c r="D90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="5">
         <v>200600</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="5">
         <v>162700</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3">
+      <c r="H90" s="5">
+        <v>363300</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5">
         <v>884500</v>
       </c>
-      <c r="S90" s="3">
+      <c r="S90" s="5">
         <v>764500</v>
       </c>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA90" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T90" s="5">
+        <v>1649000</v>
+      </c>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC90" s="5"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -8903,54 +10145,68 @@
       <c r="D91" s="4">
         <v>24917</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="5">
         <v>19694</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="5">
         <v>20348</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3">
+      <c r="H91" s="5">
+        <v>40042</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5">
         <v>819</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="5">
         <v>913</v>
       </c>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3">
+      <c r="L91" s="5">
+        <v>1732</v>
+      </c>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5">
         <v>543</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="5">
         <v>517</v>
       </c>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3">
+      <c r="P91" s="5">
+        <v>1060</v>
+      </c>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5">
         <v>420492</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="5">
         <v>381872</v>
       </c>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3">
+      <c r="T91" s="5">
+        <v>802364</v>
+      </c>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5">
         <v>19921</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="5">
         <v>18224</v>
       </c>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3">
+      <c r="X91" s="5">
+        <v>38145</v>
+      </c>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5">
         <v>13557</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="5">
         <v>10300</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB91" s="5">
+        <v>23857</v>
+      </c>
+      <c r="AC91" s="5"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -8963,54 +10219,68 @@
       <c r="D92" s="4">
         <v>14953</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="5">
         <v>32850</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="5">
         <v>32147</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3">
+      <c r="H92" s="5">
+        <v>64997</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5">
         <v>1154</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="5">
         <v>1099</v>
       </c>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3">
+      <c r="L92" s="5">
+        <v>2253</v>
+      </c>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5">
         <v>661</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O92" s="5">
         <v>497</v>
       </c>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3">
+      <c r="P92" s="5">
+        <v>1158</v>
+      </c>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5">
         <v>406600</v>
       </c>
-      <c r="S92" s="3">
+      <c r="S92" s="5">
         <v>364331</v>
       </c>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3">
+      <c r="T92" s="5">
+        <v>770931</v>
+      </c>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5">
         <v>9976</v>
       </c>
-      <c r="W92" s="3">
+      <c r="W92" s="5">
         <v>8472</v>
       </c>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3">
+      <c r="X92" s="5">
+        <v>18448</v>
+      </c>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5">
         <v>7410</v>
       </c>
-      <c r="AA92" s="3">
+      <c r="AA92" s="5">
         <v>6385</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB92" s="5">
+        <v>13795</v>
+      </c>
+      <c r="AC92" s="5"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -9023,54 +10293,68 @@
       <c r="D93" s="4">
         <v>34503</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="5">
         <v>242988</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="5">
         <v>168999</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3">
+      <c r="H93" s="5">
+        <v>411987</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5">
         <v>9297</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="5">
         <v>6599</v>
       </c>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3">
+      <c r="L93" s="5">
+        <v>15896</v>
+      </c>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5">
         <v>5014</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O93" s="5">
         <v>4784</v>
       </c>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3">
+      <c r="P93" s="5">
+        <v>9798</v>
+      </c>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5">
         <v>926425</v>
       </c>
-      <c r="S93" s="3">
+      <c r="S93" s="5">
         <v>785524</v>
       </c>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3">
+      <c r="T93" s="5">
+        <v>1711949</v>
+      </c>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5">
         <v>27598</v>
       </c>
-      <c r="W93" s="3">
+      <c r="W93" s="5">
         <v>22209</v>
       </c>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3">
+      <c r="X93" s="5">
+        <v>49807</v>
+      </c>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5">
         <v>12919</v>
       </c>
-      <c r="AA93" s="3">
+      <c r="AA93" s="5">
         <v>11786</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB93" s="5">
+        <v>24705</v>
+      </c>
+      <c r="AC93" s="5"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -9083,54 +10367,68 @@
       <c r="D94" s="4">
         <v>174761</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="5">
         <v>863688</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="5">
         <v>708787</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3">
+      <c r="H94" s="5">
+        <v>1572475</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5">
         <v>21090</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="5">
         <v>17932</v>
       </c>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3">
+      <c r="L94" s="5">
+        <v>39022</v>
+      </c>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5">
         <v>13639</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="5">
         <v>12559</v>
       </c>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3">
+      <c r="P94" s="5">
+        <v>26198</v>
+      </c>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5">
         <v>5235586</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="5">
         <v>4526998</v>
       </c>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3">
+      <c r="T94" s="5">
+        <v>9762584</v>
+      </c>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5">
         <v>133709</v>
       </c>
-      <c r="W94" s="3">
+      <c r="W94" s="5">
         <v>117791</v>
       </c>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3">
+      <c r="X94" s="5">
+        <v>251500</v>
+      </c>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5">
         <v>79269</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="5">
         <v>69294</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB94" s="5">
+        <v>148563</v>
+      </c>
+      <c r="AC94" s="5"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -9143,54 +10441,68 @@
       <c r="D95" s="4">
         <v>779886</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="5">
         <v>2608797</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="5">
         <v>2109568</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3">
+      <c r="H95" s="5">
+        <v>4718365</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5">
         <v>69212</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="5">
         <v>62376</v>
       </c>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3">
+      <c r="L95" s="5">
+        <v>131588</v>
+      </c>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5">
         <v>50814</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95" s="5">
         <v>40789</v>
       </c>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3">
+      <c r="P95" s="5">
+        <v>91603</v>
+      </c>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5">
         <v>15793052</v>
       </c>
-      <c r="S95" s="3">
+      <c r="S95" s="5">
         <v>14392662</v>
       </c>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3">
+      <c r="T95" s="5">
+        <v>30185714</v>
+      </c>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5">
         <v>607678</v>
       </c>
-      <c r="W95" s="3">
+      <c r="W95" s="5">
         <v>562642</v>
       </c>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3">
+      <c r="X95" s="5">
+        <v>1170315</v>
+      </c>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5">
         <v>361588</v>
       </c>
-      <c r="AA95" s="3">
+      <c r="AA95" s="5">
         <v>326695</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB95" s="5">
+        <v>688283</v>
+      </c>
+      <c r="AC95" s="5"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -9203,52 +10515,66 @@
       <c r="D96" s="4">
         <v>3788721</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="5">
         <v>11679283</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="5">
         <v>10778016</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3">
+      <c r="H96" s="5">
+        <v>22457299</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5">
         <v>338021</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="5">
         <v>317072</v>
       </c>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3">
+      <c r="L96" s="5">
+        <v>655093</v>
+      </c>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5">
         <v>266869</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96" s="5">
         <v>214907</v>
       </c>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3">
+      <c r="P96" s="5">
+        <v>481776</v>
+      </c>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5">
         <v>70004764</v>
       </c>
-      <c r="S96" s="3">
+      <c r="S96" s="5">
         <v>70049099</v>
       </c>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3">
+      <c r="T96" s="5">
+        <v>140058863</v>
+      </c>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5">
         <v>2861439</v>
       </c>
-      <c r="W96" s="3">
+      <c r="W96" s="5">
         <v>2720550</v>
       </c>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3">
+      <c r="X96" s="5">
+        <v>5581989</v>
+      </c>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5">
         <v>1727769</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AA96" s="5">
         <v>1579176</v>
       </c>
+      <c r="AB96" s="5">
+        <v>3306945</v>
+      </c>
+      <c r="AC96" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4C5E8-A616-4679-9BD9-7EBD10DB89AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D4C1DC-F009-4240-A747-421632856649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
@@ -532,12 +532,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -552,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -562,6 +568,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3432,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,21 +3452,22 @@
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3482,7 +3492,7 @@
       <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3494,7 +3504,7 @@
       <c r="L1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -3506,7 +3516,7 @@
       <c r="P1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -3518,7 +3528,7 @@
       <c r="T1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -3530,7 +3540,7 @@
       <c r="X1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -3542,7 +3552,7 @@
       <c r="AB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3568,7 +3578,10 @@
       <c r="H2" s="5">
         <v>59812</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="8">
+        <f>F2+G2-H2</f>
+        <v>0</v>
+      </c>
       <c r="J2" s="5">
         <v>1093</v>
       </c>
@@ -3578,7 +3591,10 @@
       <c r="L2" s="5">
         <v>2149</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="8">
+        <f>J2+K2-L2</f>
+        <v>0</v>
+      </c>
       <c r="N2" s="5">
         <v>1011</v>
       </c>
@@ -3588,7 +3604,10 @@
       <c r="P2" s="5">
         <v>1763</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="8">
+        <f>N2+O2-P2</f>
+        <v>0</v>
+      </c>
       <c r="R2" s="5">
         <v>201470</v>
       </c>
@@ -3598,7 +3617,10 @@
       <c r="T2" s="5">
         <v>420262</v>
       </c>
-      <c r="U2" s="5"/>
+      <c r="U2" s="8">
+        <f>R2+S2-T2</f>
+        <v>0</v>
+      </c>
       <c r="V2" s="5">
         <v>9478</v>
       </c>
@@ -3608,7 +3630,10 @@
       <c r="X2" s="5">
         <v>18547</v>
       </c>
-      <c r="Y2" s="5"/>
+      <c r="Y2" s="8">
+        <f>V2+W2-X2</f>
+        <v>0</v>
+      </c>
       <c r="Z2" s="5">
         <v>6124</v>
       </c>
@@ -3618,7 +3643,10 @@
       <c r="AB2" s="5">
         <v>11824</v>
       </c>
-      <c r="AC2" s="5"/>
+      <c r="AC2" s="8">
+        <f>Z2+AA2-AB2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3642,7 +3670,10 @@
       <c r="H3" s="5">
         <v>191733</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I66" si="0">F3+G3-H3</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="5">
         <v>4054</v>
       </c>
@@ -3652,7 +3683,10 @@
       <c r="L3" s="5">
         <v>7967</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M66" si="1">J3+K3-L3</f>
+        <v>0</v>
+      </c>
       <c r="N3" s="5">
         <v>3347</v>
       </c>
@@ -3662,7 +3696,10 @@
       <c r="P3" s="5">
         <v>6032</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q66" si="2">N3+O3-P3</f>
+        <v>0</v>
+      </c>
       <c r="R3" s="5">
         <v>637293</v>
       </c>
@@ -3672,7 +3709,10 @@
       <c r="T3" s="5">
         <v>1248094</v>
       </c>
-      <c r="U3" s="5"/>
+      <c r="U3" s="8">
+        <f t="shared" ref="U3:U66" si="3">R3+S3-T3</f>
+        <v>0</v>
+      </c>
       <c r="V3" s="5">
         <v>23014</v>
       </c>
@@ -3682,7 +3722,10 @@
       <c r="X3" s="5">
         <v>44385</v>
       </c>
-      <c r="Y3" s="5"/>
+      <c r="Y3" s="8">
+        <f t="shared" ref="Y3:Y66" si="4">V3+W3-X3</f>
+        <v>0</v>
+      </c>
       <c r="Z3" s="5">
         <v>12334</v>
       </c>
@@ -3692,7 +3735,10 @@
       <c r="AB3" s="5">
         <v>23134</v>
       </c>
-      <c r="AC3" s="5"/>
+      <c r="AC3" s="8">
+        <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3716,7 +3762,10 @@
       <c r="H4" s="5">
         <v>283053</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J4" s="5">
         <v>4293</v>
       </c>
@@ -3726,7 +3775,10 @@
       <c r="L4" s="5">
         <v>8400</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N4" s="5">
         <v>3250</v>
       </c>
@@ -3736,7 +3788,10 @@
       <c r="P4" s="5">
         <v>5861</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R4" s="5">
         <v>797599</v>
       </c>
@@ -3746,7 +3801,10 @@
       <c r="T4" s="5">
         <v>1591498</v>
       </c>
-      <c r="U4" s="5"/>
+      <c r="U4" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V4" s="5">
         <v>35470</v>
       </c>
@@ -3756,7 +3814,10 @@
       <c r="X4" s="5">
         <v>68941</v>
       </c>
-      <c r="Y4" s="5"/>
+      <c r="Y4" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z4" s="5">
         <v>18202</v>
       </c>
@@ -3766,7 +3827,10 @@
       <c r="AB4" s="5">
         <v>34705</v>
       </c>
-      <c r="AC4" s="5"/>
+      <c r="AC4" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3790,7 +3854,10 @@
       <c r="H5" s="5">
         <v>289200</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>84</v>
       </c>
@@ -3800,7 +3867,10 @@
       <c r="L5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N5" s="5" t="s">
         <v>84</v>
       </c>
@@ -3810,7 +3880,10 @@
       <c r="P5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R5" s="5">
         <v>890700</v>
       </c>
@@ -3820,7 +3893,10 @@
       <c r="T5" s="5">
         <v>1786700</v>
       </c>
-      <c r="U5" s="5"/>
+      <c r="U5" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V5" s="5" t="s">
         <v>84</v>
       </c>
@@ -3830,7 +3906,10 @@
       <c r="X5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z5" s="5" t="s">
         <v>84</v>
       </c>
@@ -3840,7 +3919,10 @@
       <c r="AB5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC5" s="5"/>
+      <c r="AC5" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3864,7 +3946,10 @@
       <c r="H6" s="5">
         <v>340730</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J6" s="5">
         <v>4179</v>
       </c>
@@ -3874,7 +3959,10 @@
       <c r="L6" s="5">
         <v>8007</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="5">
         <v>3054</v>
       </c>
@@ -3884,7 +3972,10 @@
       <c r="P6" s="5">
         <v>5482</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R6" s="5">
         <v>744304</v>
       </c>
@@ -3894,7 +3985,10 @@
       <c r="T6" s="5">
         <v>1542906</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="U6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V6" s="5">
         <v>28404</v>
       </c>
@@ -3904,7 +3998,10 @@
       <c r="X6" s="5">
         <v>55632</v>
       </c>
-      <c r="Y6" s="5"/>
+      <c r="Y6" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z6" s="5">
         <v>15346</v>
       </c>
@@ -3914,7 +4011,10 @@
       <c r="AB6" s="5">
         <v>28567</v>
       </c>
-      <c r="AC6" s="5"/>
+      <c r="AC6" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3938,7 +4038,10 @@
       <c r="H7" s="5">
         <v>319141</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J7" s="5">
         <v>6755</v>
       </c>
@@ -3948,7 +4051,10 @@
       <c r="L7" s="5">
         <v>13460</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N7" s="5">
         <v>4805</v>
       </c>
@@ -3958,7 +4064,10 @@
       <c r="P7" s="5">
         <v>8777</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R7" s="5">
         <v>821075</v>
       </c>
@@ -3968,7 +4077,10 @@
       <c r="T7" s="5">
         <v>1698874</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V7" s="5">
         <v>38496</v>
       </c>
@@ -3978,7 +4090,10 @@
       <c r="X7" s="5">
         <v>75555</v>
       </c>
-      <c r="Y7" s="5"/>
+      <c r="Y7" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z7" s="5">
         <v>23183</v>
       </c>
@@ -3988,7 +4103,10 @@
       <c r="AB7" s="5">
         <v>44547</v>
       </c>
-      <c r="AC7" s="5"/>
+      <c r="AC7" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4012,7 +4130,10 @@
       <c r="H8" s="5">
         <v>72852</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="5">
         <v>1810</v>
       </c>
@@ -4022,7 +4143,10 @@
       <c r="L8" s="5">
         <v>3582</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N8" s="5">
         <v>1224</v>
       </c>
@@ -4032,7 +4156,10 @@
       <c r="P8" s="5">
         <v>2252</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R8" s="5">
         <v>781501</v>
       </c>
@@ -4042,7 +4169,10 @@
       <c r="T8" s="5">
         <v>1632048</v>
       </c>
-      <c r="U8" s="5"/>
+      <c r="U8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V8" s="5">
         <v>39262</v>
       </c>
@@ -4052,7 +4182,10 @@
       <c r="X8" s="5">
         <v>76499</v>
       </c>
-      <c r="Y8" s="5"/>
+      <c r="Y8" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z8" s="5">
         <v>25053</v>
       </c>
@@ -4062,7 +4195,10 @@
       <c r="AB8" s="5">
         <v>48552</v>
       </c>
-      <c r="AC8" s="5"/>
+      <c r="AC8" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4086,7 +4222,10 @@
       <c r="H9" s="5">
         <v>325506</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="5">
         <v>5484</v>
       </c>
@@ -4096,7 +4235,10 @@
       <c r="L9" s="5">
         <v>10457</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N9" s="5">
         <v>4126</v>
       </c>
@@ -4106,7 +4248,10 @@
       <c r="P9" s="5">
         <v>7553</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R9" s="5">
         <v>1766883</v>
       </c>
@@ -4116,7 +4261,10 @@
       <c r="T9" s="5">
         <v>3559819</v>
       </c>
-      <c r="U9" s="5"/>
+      <c r="U9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V9" s="5">
         <v>68315</v>
       </c>
@@ -4126,7 +4274,10 @@
       <c r="X9" s="5">
         <v>131781</v>
       </c>
-      <c r="Y9" s="5"/>
+      <c r="Y9" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z9" s="5">
         <v>43901</v>
       </c>
@@ -4136,7 +4287,10 @@
       <c r="AB9" s="5">
         <v>83180</v>
       </c>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4160,7 +4314,10 @@
       <c r="H10" s="5">
         <v>165735</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="5">
         <v>2727</v>
       </c>
@@ -4170,7 +4327,10 @@
       <c r="L10" s="5">
         <v>5275</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N10" s="5">
         <v>2219</v>
       </c>
@@ -4180,7 +4340,10 @@
       <c r="P10" s="5">
         <v>4029</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R10" s="5">
         <v>1823618</v>
       </c>
@@ -4190,7 +4353,10 @@
       <c r="T10" s="5">
         <v>3610829</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V10" s="5">
         <v>89014</v>
       </c>
@@ -4200,7 +4366,10 @@
       <c r="X10" s="5">
         <v>173889</v>
       </c>
-      <c r="Y10" s="5"/>
+      <c r="Y10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z10" s="5">
         <v>54959</v>
       </c>
@@ -4210,7 +4379,10 @@
       <c r="AB10" s="5">
         <v>106190</v>
       </c>
-      <c r="AC10" s="5"/>
+      <c r="AC10" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4234,7 +4406,10 @@
       <c r="H11" s="5">
         <v>152588</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="5">
         <v>2288</v>
       </c>
@@ -4244,7 +4419,10 @@
       <c r="L11" s="5">
         <v>4359</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N11" s="5">
         <v>1974</v>
       </c>
@@ -4254,7 +4432,10 @@
       <c r="P11" s="5">
         <v>3611</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R11" s="5">
         <v>1769805</v>
       </c>
@@ -4264,7 +4445,10 @@
       <c r="T11" s="5">
         <v>3639090</v>
       </c>
-      <c r="U11" s="5"/>
+      <c r="U11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V11" s="5">
         <v>99093</v>
       </c>
@@ -4274,7 +4458,10 @@
       <c r="X11" s="5">
         <v>193611</v>
       </c>
-      <c r="Y11" s="5"/>
+      <c r="Y11" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z11" s="5">
         <v>63448</v>
       </c>
@@ -4284,7 +4471,10 @@
       <c r="AB11" s="5">
         <v>122943</v>
       </c>
-      <c r="AC11" s="5"/>
+      <c r="AC11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4308,7 +4498,10 @@
       <c r="H12" s="5">
         <v>371600</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>84</v>
       </c>
@@ -4318,7 +4511,10 @@
       <c r="L12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N12" s="5" t="s">
         <v>84</v>
       </c>
@@ -4328,7 +4524,10 @@
       <c r="P12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R12" s="5">
         <v>850800</v>
       </c>
@@ -4338,7 +4537,10 @@
       <c r="T12" s="5">
         <v>1676600</v>
       </c>
-      <c r="U12" s="5"/>
+      <c r="U12" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V12" s="5" t="s">
         <v>84</v>
       </c>
@@ -4348,7 +4550,10 @@
       <c r="X12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y12" s="5"/>
+      <c r="Y12" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z12" s="5" t="s">
         <v>84</v>
       </c>
@@ -4358,7 +4563,10 @@
       <c r="AB12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="5"/>
+      <c r="AC12" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4382,7 +4590,10 @@
       <c r="H13" s="5">
         <v>201252</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="5">
         <v>4537</v>
       </c>
@@ -4392,7 +4603,10 @@
       <c r="L13" s="5">
         <v>9040</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N13" s="5">
         <v>3263</v>
       </c>
@@ -4402,7 +4616,10 @@
       <c r="P13" s="5">
         <v>5919</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R13" s="5">
         <v>1668639</v>
       </c>
@@ -4412,7 +4629,10 @@
       <c r="T13" s="5">
         <v>3244656</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V13" s="5">
         <v>81704</v>
       </c>
@@ -4422,7 +4642,10 @@
       <c r="X13" s="5">
         <v>158961</v>
       </c>
-      <c r="Y13" s="5"/>
+      <c r="Y13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z13" s="5">
         <v>48939</v>
       </c>
@@ -4432,7 +4655,10 @@
       <c r="AB13" s="5">
         <v>92571</v>
       </c>
-      <c r="AC13" s="5"/>
+      <c r="AC13" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4456,7 +4682,10 @@
       <c r="H14" s="5">
         <v>228088</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="5">
         <v>3529</v>
       </c>
@@ -4466,7 +4695,10 @@
       <c r="L14" s="5">
         <v>6808</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N14" s="5">
         <v>2360</v>
       </c>
@@ -4476,7 +4708,10 @@
       <c r="P14" s="5">
         <v>4343</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R14" s="5">
         <v>0</v>
       </c>
@@ -4486,7 +4721,10 @@
       <c r="T14" s="5">
         <v>0</v>
       </c>
-      <c r="U14" s="5"/>
+      <c r="U14" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V14" s="5">
         <v>0</v>
       </c>
@@ -4496,7 +4734,10 @@
       <c r="X14" s="5">
         <v>0</v>
       </c>
-      <c r="Y14" s="5"/>
+      <c r="Y14" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z14" s="5">
         <v>0</v>
       </c>
@@ -4506,7 +4747,10 @@
       <c r="AB14" s="5">
         <v>0</v>
       </c>
-      <c r="AC14" s="5"/>
+      <c r="AC14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4530,7 +4774,10 @@
       <c r="H15" s="5">
         <v>504564</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="5">
         <v>9455</v>
       </c>
@@ -4540,7 +4787,10 @@
       <c r="L15" s="5">
         <v>18341</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N15" s="5">
         <v>5923</v>
       </c>
@@ -4550,7 +4800,10 @@
       <c r="P15" s="5">
         <v>10595</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R15" s="5">
         <v>1585850</v>
       </c>
@@ -4560,7 +4813,10 @@
       <c r="T15" s="5">
         <v>3012808</v>
       </c>
-      <c r="U15" s="5"/>
+      <c r="U15" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V15" s="5">
         <v>74133</v>
       </c>
@@ -4570,7 +4826,10 @@
       <c r="X15" s="5">
         <v>144760</v>
       </c>
-      <c r="Y15" s="5"/>
+      <c r="Y15" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z15" s="5">
         <v>35674</v>
       </c>
@@ -4580,7 +4839,10 @@
       <c r="AB15" s="5">
         <v>65513</v>
       </c>
-      <c r="AC15" s="5"/>
+      <c r="AC15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4604,7 +4866,10 @@
       <c r="H16" s="5">
         <v>270155</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="5">
         <v>4641</v>
       </c>
@@ -4614,7 +4879,10 @@
       <c r="L16" s="5">
         <v>9329</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N16" s="5">
         <v>3823</v>
       </c>
@@ -4624,7 +4892,10 @@
       <c r="P16" s="5">
         <v>7515</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R16" s="5">
         <v>1317999</v>
       </c>
@@ -4634,7 +4905,10 @@
       <c r="T16" s="5">
         <v>2626193</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V16" s="5">
         <v>61255</v>
       </c>
@@ -4644,7 +4918,10 @@
       <c r="X16" s="5">
         <v>122013</v>
       </c>
-      <c r="Y16" s="5"/>
+      <c r="Y16" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z16" s="5">
         <v>38303</v>
       </c>
@@ -4654,7 +4931,10 @@
       <c r="AB16" s="5">
         <v>75827</v>
       </c>
-      <c r="AC16" s="5"/>
+      <c r="AC16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4678,7 +4958,10 @@
       <c r="H17" s="5">
         <v>98466</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="5">
         <v>2196</v>
       </c>
@@ -4688,7 +4971,10 @@
       <c r="L17" s="5">
         <v>4311</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N17" s="5">
         <v>1886</v>
       </c>
@@ -4698,7 +4984,10 @@
       <c r="P17" s="5">
         <v>3472</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R17" s="5">
         <v>664839</v>
       </c>
@@ -4708,7 +4997,10 @@
       <c r="T17" s="5">
         <v>1419048</v>
       </c>
-      <c r="U17" s="5"/>
+      <c r="U17" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V17" s="5">
         <v>33129</v>
       </c>
@@ -4718,7 +5010,10 @@
       <c r="X17" s="5">
         <v>64839</v>
       </c>
-      <c r="Y17" s="5"/>
+      <c r="Y17" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z17" s="5">
         <v>22839</v>
       </c>
@@ -4728,7 +5023,10 @@
       <c r="AB17" s="5">
         <v>44423</v>
       </c>
-      <c r="AC17" s="5"/>
+      <c r="AC17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4752,7 +5050,10 @@
       <c r="H18" s="5">
         <v>917654</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="5">
         <v>11089</v>
       </c>
@@ -4762,7 +5063,10 @@
       <c r="L18" s="5">
         <v>21562</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N18" s="5">
         <v>9149</v>
       </c>
@@ -4772,7 +5076,10 @@
       <c r="P18" s="5">
         <v>15694</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R18" s="5">
         <v>1939589</v>
       </c>
@@ -4782,7 +5089,10 @@
       <c r="T18" s="5">
         <v>3937548</v>
       </c>
-      <c r="U18" s="5"/>
+      <c r="U18" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V18" s="5">
         <v>82667</v>
       </c>
@@ -4792,7 +5102,10 @@
       <c r="X18" s="5">
         <v>161561</v>
       </c>
-      <c r="Y18" s="5"/>
+      <c r="Y18" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z18" s="5">
         <v>48486</v>
       </c>
@@ -4802,7 +5115,10 @@
       <c r="AB18" s="5">
         <v>92144</v>
       </c>
-      <c r="AC18" s="5"/>
+      <c r="AC18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4826,7 +5142,10 @@
       <c r="H19" s="5">
         <v>195100</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>84</v>
       </c>
@@ -4836,7 +5155,10 @@
       <c r="L19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N19" s="5" t="s">
         <v>84</v>
       </c>
@@ -4846,7 +5168,10 @@
       <c r="P19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R19" s="5">
         <v>810100</v>
       </c>
@@ -4856,7 +5181,10 @@
       <c r="T19" s="5">
         <v>1662000</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V19" s="5" t="s">
         <v>84</v>
       </c>
@@ -4866,7 +5194,10 @@
       <c r="X19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" s="5"/>
+      <c r="Y19" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z19" s="5" t="s">
         <v>84</v>
       </c>
@@ -4876,7 +5207,10 @@
       <c r="AB19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC19" s="5"/>
+      <c r="AC19" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4900,7 +5234,10 @@
       <c r="H20" s="5">
         <v>101165</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="5">
         <v>2814</v>
       </c>
@@ -4910,7 +5247,10 @@
       <c r="L20" s="5">
         <v>5452</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N20" s="5">
         <v>1981</v>
       </c>
@@ -4920,7 +5260,10 @@
       <c r="P20" s="5">
         <v>3582</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R20" s="5">
         <v>803537</v>
       </c>
@@ -4930,7 +5273,10 @@
       <c r="T20" s="5">
         <v>1708784</v>
       </c>
-      <c r="U20" s="5"/>
+      <c r="U20" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V20" s="5">
         <v>40316</v>
       </c>
@@ -4940,7 +5286,10 @@
       <c r="X20" s="5">
         <v>78692</v>
       </c>
-      <c r="Y20" s="5"/>
+      <c r="Y20" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z20" s="5">
         <v>24441</v>
       </c>
@@ -4950,7 +5299,10 @@
       <c r="AB20" s="5">
         <v>46659</v>
       </c>
-      <c r="AC20" s="5"/>
+      <c r="AC20" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4974,7 +5326,10 @@
       <c r="H21" s="5">
         <v>215300</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="5" t="s">
         <v>84</v>
       </c>
@@ -4984,7 +5339,10 @@
       <c r="L21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N21" s="5" t="s">
         <v>84</v>
       </c>
@@ -4994,7 +5352,10 @@
       <c r="P21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R21" s="5">
         <v>280100</v>
       </c>
@@ -5004,7 +5365,10 @@
       <c r="T21" s="5">
         <v>583000</v>
       </c>
-      <c r="U21" s="5"/>
+      <c r="U21" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V21" s="5" t="s">
         <v>84</v>
       </c>
@@ -5014,7 +5378,10 @@
       <c r="X21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y21" s="5"/>
+      <c r="Y21" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z21" s="5" t="s">
         <v>84</v>
       </c>
@@ -5024,7 +5391,10 @@
       <c r="AB21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC21" s="5"/>
+      <c r="AC21" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5048,7 +5418,10 @@
       <c r="H22" s="5">
         <v>256273</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="5">
         <v>4691</v>
       </c>
@@ -5058,7 +5431,10 @@
       <c r="L22" s="5">
         <v>9392</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N22" s="5">
         <v>3503</v>
       </c>
@@ -5068,7 +5444,10 @@
       <c r="P22" s="5">
         <v>7131</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R22" s="5">
         <v>1428337</v>
       </c>
@@ -5078,7 +5457,10 @@
       <c r="T22" s="5">
         <v>2864987</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V22" s="5">
         <v>54479</v>
       </c>
@@ -5088,7 +5470,10 @@
       <c r="X22" s="5">
         <v>109573</v>
       </c>
-      <c r="Y22" s="5"/>
+      <c r="Y22" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z22" s="5">
         <v>37288</v>
       </c>
@@ -5098,7 +5483,10 @@
       <c r="AB22" s="5">
         <v>75204</v>
       </c>
-      <c r="AC22" s="5"/>
+      <c r="AC22" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5122,7 +5510,10 @@
       <c r="H23" s="5">
         <v>542177</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="5">
         <v>7278</v>
       </c>
@@ -5132,7 +5523,10 @@
       <c r="L23" s="5">
         <v>14081</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N23" s="5">
         <v>6570</v>
       </c>
@@ -5142,7 +5536,10 @@
       <c r="P23" s="5">
         <v>12023</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R23" s="5">
         <v>494392</v>
       </c>
@@ -5152,7 +5549,10 @@
       <c r="T23" s="5">
         <v>1022607</v>
       </c>
-      <c r="U23" s="5"/>
+      <c r="U23" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V23" s="5">
         <v>8434</v>
       </c>
@@ -5162,7 +5562,10 @@
       <c r="X23" s="5">
         <v>16520</v>
       </c>
-      <c r="Y23" s="5"/>
+      <c r="Y23" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z23" s="5">
         <v>6628</v>
       </c>
@@ -5172,7 +5575,10 @@
       <c r="AB23" s="5">
         <v>12943</v>
       </c>
-      <c r="AC23" s="5"/>
+      <c r="AC23" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5196,7 +5602,10 @@
       <c r="H24" s="5">
         <v>266284</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="5">
         <v>4860</v>
       </c>
@@ -5206,7 +5615,10 @@
       <c r="L24" s="5">
         <v>9103</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="5">
         <v>3247</v>
       </c>
@@ -5216,7 +5628,10 @@
       <c r="P24" s="5">
         <v>5764</v>
       </c>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R24" s="5">
         <v>1389564</v>
       </c>
@@ -5226,7 +5641,10 @@
       <c r="T24" s="5">
         <v>2776518</v>
       </c>
-      <c r="U24" s="5"/>
+      <c r="U24" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V24" s="5">
         <v>51933</v>
       </c>
@@ -5236,7 +5654,10 @@
       <c r="X24" s="5">
         <v>101313</v>
       </c>
-      <c r="Y24" s="5"/>
+      <c r="Y24" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z24" s="5">
         <v>28800</v>
       </c>
@@ -5246,7 +5667,10 @@
       <c r="AB24" s="5">
         <v>54293</v>
       </c>
-      <c r="AC24" s="5"/>
+      <c r="AC24" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5270,7 +5694,10 @@
       <c r="H25" s="5">
         <v>290887</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="5">
         <v>2926</v>
       </c>
@@ -5280,7 +5707,10 @@
       <c r="L25" s="5">
         <v>5692</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N25" s="5">
         <v>1864</v>
       </c>
@@ -5290,7 +5720,10 @@
       <c r="P25" s="5">
         <v>3367</v>
       </c>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R25" s="5">
         <v>1065620</v>
       </c>
@@ -5300,7 +5733,10 @@
       <c r="T25" s="5">
         <v>2125226</v>
       </c>
-      <c r="U25" s="5"/>
+      <c r="U25" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V25" s="5">
         <v>42606</v>
       </c>
@@ -5310,7 +5746,10 @@
       <c r="X25" s="5">
         <v>83108</v>
       </c>
-      <c r="Y25" s="5"/>
+      <c r="Y25" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z25" s="5">
         <v>22327</v>
       </c>
@@ -5320,7 +5759,10 @@
       <c r="AB25" s="5">
         <v>42221</v>
       </c>
-      <c r="AC25" s="5"/>
+      <c r="AC25" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5344,7 +5786,10 @@
       <c r="H26" s="5">
         <v>159003</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="5">
         <v>3950</v>
       </c>
@@ -5354,7 +5799,10 @@
       <c r="L26" s="5">
         <v>7624</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="5">
         <v>2999</v>
       </c>
@@ -5364,7 +5812,10 @@
       <c r="P26" s="5">
         <v>5451</v>
       </c>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R26" s="5">
         <v>760123</v>
       </c>
@@ -5374,7 +5825,10 @@
       <c r="T26" s="5">
         <v>1707313</v>
       </c>
-      <c r="U26" s="5"/>
+      <c r="U26" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V26" s="5">
         <v>37932</v>
       </c>
@@ -5384,7 +5838,10 @@
       <c r="X26" s="5">
         <v>74296</v>
       </c>
-      <c r="Y26" s="5"/>
+      <c r="Y26" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z26" s="5">
         <v>25673</v>
       </c>
@@ -5394,7 +5851,10 @@
       <c r="AB26" s="5">
         <v>48705</v>
       </c>
-      <c r="AC26" s="5"/>
+      <c r="AC26" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5418,7 +5878,10 @@
       <c r="H27" s="5">
         <v>1723400</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J27" s="5">
         <v>27961</v>
       </c>
@@ -5428,7 +5891,10 @@
       <c r="L27" s="5">
         <v>54373</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="5">
         <v>23991</v>
       </c>
@@ -5438,7 +5904,10 @@
       <c r="P27" s="5">
         <v>42198</v>
       </c>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R27" s="5">
         <v>0</v>
       </c>
@@ -5448,7 +5917,10 @@
       <c r="T27" s="5">
         <v>0</v>
       </c>
-      <c r="U27" s="5"/>
+      <c r="U27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V27" s="5">
         <v>0</v>
       </c>
@@ -5458,7 +5930,10 @@
       <c r="X27" s="5">
         <v>0</v>
       </c>
-      <c r="Y27" s="5"/>
+      <c r="Y27" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z27" s="5">
         <v>0</v>
       </c>
@@ -5468,7 +5943,10 @@
       <c r="AB27" s="5">
         <v>0</v>
       </c>
-      <c r="AC27" s="5"/>
+      <c r="AC27" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5492,7 +5970,10 @@
       <c r="H28" s="5">
         <v>172144</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J28" s="5">
         <v>2845</v>
       </c>
@@ -5502,7 +5983,10 @@
       <c r="L28" s="5">
         <v>5504</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="5">
         <v>2549</v>
       </c>
@@ -5512,7 +5996,10 @@
       <c r="P28" s="5">
         <v>4483</v>
       </c>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R28" s="5">
         <v>903076</v>
       </c>
@@ -5522,7 +6009,10 @@
       <c r="T28" s="5">
         <v>1911645</v>
       </c>
-      <c r="U28" s="5"/>
+      <c r="U28" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V28" s="5">
         <v>46311</v>
       </c>
@@ -5532,7 +6022,10 @@
       <c r="X28" s="5">
         <v>91419</v>
       </c>
-      <c r="Y28" s="5"/>
+      <c r="Y28" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z28" s="5">
         <v>29255</v>
       </c>
@@ -5542,7 +6035,10 @@
       <c r="AB28" s="5">
         <v>55689</v>
       </c>
-      <c r="AC28" s="5"/>
+      <c r="AC28" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5566,7 +6062,10 @@
       <c r="H29" s="5">
         <v>99579</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J29" s="5">
         <v>2089</v>
       </c>
@@ -5576,7 +6075,10 @@
       <c r="L29" s="5">
         <v>3940</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="5">
         <v>1568</v>
       </c>
@@ -5586,7 +6088,10 @@
       <c r="P29" s="5">
         <v>2872</v>
       </c>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R29" s="5">
         <v>759257</v>
       </c>
@@ -5596,7 +6101,10 @@
       <c r="T29" s="5">
         <v>1589890</v>
       </c>
-      <c r="U29" s="5"/>
+      <c r="U29" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V29" s="5">
         <v>36207</v>
       </c>
@@ -5606,7 +6114,10 @@
       <c r="X29" s="5">
         <v>70681</v>
       </c>
-      <c r="Y29" s="5"/>
+      <c r="Y29" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z29" s="5">
         <v>21712</v>
       </c>
@@ -5616,7 +6127,10 @@
       <c r="AB29" s="5">
         <v>40682</v>
       </c>
-      <c r="AC29" s="5"/>
+      <c r="AC29" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5640,7 +6154,10 @@
       <c r="H30" s="5">
         <v>37427</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J30" s="5">
         <v>765</v>
       </c>
@@ -5650,7 +6167,10 @@
       <c r="L30" s="5">
         <v>1555</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="5">
         <v>605</v>
       </c>
@@ -5660,7 +6180,10 @@
       <c r="P30" s="5">
         <v>1112</v>
       </c>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R30" s="5">
         <v>196267</v>
       </c>
@@ -5670,7 +6193,10 @@
       <c r="T30" s="5">
         <v>410274</v>
       </c>
-      <c r="U30" s="5"/>
+      <c r="U30" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V30" s="5">
         <v>10933</v>
       </c>
@@ -5680,7 +6206,10 @@
       <c r="X30" s="5">
         <v>21337</v>
       </c>
-      <c r="Y30" s="5"/>
+      <c r="Y30" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z30" s="5">
         <v>7050</v>
       </c>
@@ -5690,7 +6219,10 @@
       <c r="AB30" s="5">
         <v>13577</v>
       </c>
-      <c r="AC30" s="5"/>
+      <c r="AC30" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5714,7 +6246,10 @@
       <c r="H31" s="5">
         <v>261796</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J31" s="5">
         <v>5953</v>
       </c>
@@ -5724,7 +6259,10 @@
       <c r="L31" s="5">
         <v>11751</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="5">
         <v>4747</v>
       </c>
@@ -5734,7 +6272,10 @@
       <c r="P31" s="5">
         <v>8686</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R31" s="5">
         <v>992647</v>
       </c>
@@ -5744,7 +6285,10 @@
       <c r="T31" s="5">
         <v>1987592</v>
       </c>
-      <c r="U31" s="5"/>
+      <c r="U31" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V31" s="5">
         <v>54917</v>
       </c>
@@ -5754,7 +6298,10 @@
       <c r="X31" s="5">
         <v>107546</v>
       </c>
-      <c r="Y31" s="5"/>
+      <c r="Y31" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z31" s="5">
         <v>30907</v>
       </c>
@@ -5764,7 +6311,10 @@
       <c r="AB31" s="5">
         <v>59806</v>
       </c>
-      <c r="AC31" s="5"/>
+      <c r="AC31" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5788,7 +6338,10 @@
       <c r="H32" s="5">
         <v>294293</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J32" s="5">
         <v>5140</v>
       </c>
@@ -5798,7 +6351,10 @@
       <c r="L32" s="5">
         <v>9482</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="5">
         <v>4034</v>
       </c>
@@ -5808,7 +6364,10 @@
       <c r="P32" s="5">
         <v>7416</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R32" s="5">
         <v>1143657</v>
       </c>
@@ -5818,7 +6377,10 @@
       <c r="T32" s="5">
         <v>2295095</v>
       </c>
-      <c r="U32" s="5"/>
+      <c r="U32" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V32" s="5">
         <v>53558</v>
       </c>
@@ -5828,7 +6390,10 @@
       <c r="X32" s="5">
         <v>104892</v>
       </c>
-      <c r="Y32" s="5"/>
+      <c r="Y32" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z32" s="5">
         <v>34974</v>
       </c>
@@ -5838,7 +6403,10 @@
       <c r="AB32" s="5">
         <v>66780</v>
       </c>
-      <c r="AC32" s="5"/>
+      <c r="AC32" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5862,7 +6430,10 @@
       <c r="H33" s="5">
         <v>198561</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J33" s="5">
         <v>3715</v>
       </c>
@@ -5872,7 +6443,10 @@
       <c r="L33" s="5">
         <v>7271</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N33" s="5">
         <v>2886</v>
       </c>
@@ -5882,7 +6456,10 @@
       <c r="P33" s="5">
         <v>5259</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R33" s="5">
         <v>903189</v>
       </c>
@@ -5892,7 +6469,10 @@
       <c r="T33" s="5">
         <v>1847238</v>
       </c>
-      <c r="U33" s="5"/>
+      <c r="U33" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V33" s="5">
         <v>43079</v>
       </c>
@@ -5902,7 +6482,10 @@
       <c r="X33" s="5">
         <v>85690</v>
       </c>
-      <c r="Y33" s="5"/>
+      <c r="Y33" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z33" s="5">
         <v>27005</v>
       </c>
@@ -5912,7 +6495,10 @@
       <c r="AB33" s="5">
         <v>51776</v>
       </c>
-      <c r="AC33" s="5"/>
+      <c r="AC33" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -5936,7 +6522,10 @@
       <c r="H34" s="5">
         <v>207601</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J34" s="5">
         <v>5502</v>
       </c>
@@ -5946,7 +6535,10 @@
       <c r="L34" s="5">
         <v>10812</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="5">
         <v>4653</v>
       </c>
@@ -5956,7 +6548,10 @@
       <c r="P34" s="5">
         <v>8543</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R34" s="5">
         <v>1776630</v>
       </c>
@@ -5966,7 +6561,10 @@
       <c r="T34" s="5">
         <v>3676042</v>
       </c>
-      <c r="U34" s="5"/>
+      <c r="U34" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V34" s="5">
         <v>97313</v>
       </c>
@@ -5976,7 +6574,10 @@
       <c r="X34" s="5">
         <v>190641</v>
       </c>
-      <c r="Y34" s="5"/>
+      <c r="Y34" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z34" s="5">
         <v>72848</v>
       </c>
@@ -5986,7 +6587,10 @@
       <c r="AB34" s="5">
         <v>140392</v>
       </c>
-      <c r="AC34" s="5"/>
+      <c r="AC34" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -6010,7 +6614,10 @@
       <c r="H35" s="5">
         <v>526847</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="5">
         <v>7752</v>
       </c>
@@ -6020,7 +6627,10 @@
       <c r="L35" s="5">
         <v>15008</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="5">
         <v>7744</v>
       </c>
@@ -6030,7 +6640,10 @@
       <c r="P35" s="5">
         <v>13728</v>
       </c>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R35" s="5">
         <v>473191</v>
       </c>
@@ -6040,7 +6653,10 @@
       <c r="T35" s="5">
         <v>972725</v>
       </c>
-      <c r="U35" s="5"/>
+      <c r="U35" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V35" s="5">
         <v>15572</v>
       </c>
@@ -6050,7 +6666,10 @@
       <c r="X35" s="5">
         <v>30328</v>
       </c>
-      <c r="Y35" s="5"/>
+      <c r="Y35" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z35" s="5">
         <v>11234</v>
       </c>
@@ -6060,7 +6679,10 @@
       <c r="AB35" s="5">
         <v>20975</v>
       </c>
-      <c r="AC35" s="5"/>
+      <c r="AC35" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6084,7 +6706,10 @@
       <c r="H36" s="5">
         <v>1774300</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="5">
         <v>21751</v>
       </c>
@@ -6094,7 +6719,10 @@
       <c r="L36" s="5">
         <v>42634</v>
       </c>
-      <c r="M36" s="5"/>
+      <c r="M36" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="5">
         <v>21496</v>
       </c>
@@ -6104,7 +6732,10 @@
       <c r="P36" s="5">
         <v>37940</v>
       </c>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R36" s="5">
         <v>0</v>
       </c>
@@ -6114,7 +6745,10 @@
       <c r="T36" s="5">
         <v>0</v>
       </c>
-      <c r="U36" s="5"/>
+      <c r="U36" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V36" s="5">
         <v>0</v>
       </c>
@@ -6124,7 +6758,10 @@
       <c r="X36" s="5">
         <v>0</v>
       </c>
-      <c r="Y36" s="5"/>
+      <c r="Y36" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z36" s="5">
         <v>0</v>
       </c>
@@ -6134,7 +6771,10 @@
       <c r="AB36" s="5">
         <v>0</v>
       </c>
-      <c r="AC36" s="5"/>
+      <c r="AC36" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6158,7 +6798,10 @@
       <c r="H37" s="5">
         <v>295386</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J37" s="5" t="s">
         <v>84</v>
       </c>
@@ -6168,7 +6811,10 @@
       <c r="L37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N37" s="5" t="s">
         <v>84</v>
       </c>
@@ -6178,7 +6824,10 @@
       <c r="P37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R37" s="5">
         <v>1780396</v>
       </c>
@@ -6188,7 +6837,10 @@
       <c r="T37" s="5">
         <v>3593838</v>
       </c>
-      <c r="U37" s="5"/>
+      <c r="U37" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V37" s="5" t="s">
         <v>84</v>
       </c>
@@ -6198,7 +6850,10 @@
       <c r="X37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y37" s="5"/>
+      <c r="Y37" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z37" s="5" t="s">
         <v>84</v>
       </c>
@@ -6208,7 +6863,10 @@
       <c r="AB37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC37" s="5"/>
+      <c r="AC37" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6232,7 +6890,10 @@
       <c r="H38" s="5">
         <v>398167</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J38" s="5">
         <v>6166</v>
       </c>
@@ -6242,7 +6903,10 @@
       <c r="L38" s="5">
         <v>11812</v>
       </c>
-      <c r="M38" s="5"/>
+      <c r="M38" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="5">
         <v>4283</v>
       </c>
@@ -6252,7 +6916,10 @@
       <c r="P38" s="5">
         <v>7567</v>
       </c>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R38" s="5">
         <v>1599896</v>
       </c>
@@ -6262,7 +6929,10 @@
       <c r="T38" s="5">
         <v>3232600</v>
       </c>
-      <c r="U38" s="5"/>
+      <c r="U38" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V38" s="5">
         <v>63633</v>
       </c>
@@ -6272,7 +6942,10 @@
       <c r="X38" s="5">
         <v>124060</v>
       </c>
-      <c r="Y38" s="5"/>
+      <c r="Y38" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z38" s="5">
         <v>33325</v>
       </c>
@@ -6282,7 +6955,10 @@
       <c r="AB38" s="5">
         <v>62754</v>
       </c>
-      <c r="AC38" s="5"/>
+      <c r="AC38" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6306,7 +6982,10 @@
       <c r="H39" s="5">
         <v>86370</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="5">
         <v>1626</v>
       </c>
@@ -6316,7 +6995,10 @@
       <c r="L39" s="5">
         <v>3132</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="5">
         <v>1443</v>
       </c>
@@ -6326,7 +7008,10 @@
       <c r="P39" s="5">
         <v>2642</v>
       </c>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R39" s="5">
         <v>667651</v>
       </c>
@@ -6336,7 +7021,10 @@
       <c r="T39" s="5">
         <v>1385061</v>
       </c>
-      <c r="U39" s="5"/>
+      <c r="U39" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V39" s="5">
         <v>27571</v>
       </c>
@@ -6346,7 +7034,10 @@
       <c r="X39" s="5">
         <v>53550</v>
       </c>
-      <c r="Y39" s="5"/>
+      <c r="Y39" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z39" s="5">
         <v>17031</v>
       </c>
@@ -6356,7 +7047,10 @@
       <c r="AB39" s="5">
         <v>32210</v>
       </c>
-      <c r="AC39" s="5"/>
+      <c r="AC39" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6380,7 +7074,10 @@
       <c r="H40" s="5">
         <v>146175</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J40" s="5">
         <v>2852</v>
       </c>
@@ -6390,7 +7087,10 @@
       <c r="L40" s="5">
         <v>5731</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="5">
         <v>2415</v>
       </c>
@@ -6400,7 +7100,10 @@
       <c r="P40" s="5">
         <v>4455</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R40" s="5">
         <v>1262671</v>
       </c>
@@ -6410,7 +7113,10 @@
       <c r="T40" s="5">
         <v>2545849</v>
       </c>
-      <c r="U40" s="5"/>
+      <c r="U40" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V40" s="5">
         <v>49555</v>
       </c>
@@ -6420,7 +7126,10 @@
       <c r="X40" s="5">
         <v>96935</v>
       </c>
-      <c r="Y40" s="5"/>
+      <c r="Y40" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z40" s="5">
         <v>30546</v>
       </c>
@@ -6430,7 +7139,10 @@
       <c r="AB40" s="5">
         <v>58262</v>
       </c>
-      <c r="AC40" s="5"/>
+      <c r="AC40" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6454,7 +7166,10 @@
       <c r="H41" s="5">
         <v>182316</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J41" s="5">
         <v>6801</v>
       </c>
@@ -6464,7 +7179,10 @@
       <c r="L41" s="5">
         <v>13441</v>
       </c>
-      <c r="M41" s="5"/>
+      <c r="M41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="5">
         <v>5934</v>
       </c>
@@ -6474,7 +7192,10 @@
       <c r="P41" s="5">
         <v>10738</v>
       </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R41" s="5">
         <v>1838285</v>
       </c>
@@ -6484,7 +7205,10 @@
       <c r="T41" s="5">
         <v>3712267</v>
       </c>
-      <c r="U41" s="5"/>
+      <c r="U41" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V41" s="5">
         <v>102412</v>
       </c>
@@ -6494,7 +7218,10 @@
       <c r="X41" s="5">
         <v>200298</v>
       </c>
-      <c r="Y41" s="5"/>
+      <c r="Y41" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z41" s="5">
         <v>59686</v>
       </c>
@@ -6504,7 +7231,10 @@
       <c r="AB41" s="5">
         <v>114314</v>
       </c>
-      <c r="AC41" s="5"/>
+      <c r="AC41" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6528,7 +7258,10 @@
       <c r="H42" s="5">
         <v>556638</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J42" s="5">
         <v>10083</v>
       </c>
@@ -6538,7 +7271,10 @@
       <c r="L42" s="5">
         <v>20017</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="5">
         <v>7848</v>
       </c>
@@ -6548,7 +7284,10 @@
       <c r="P42" s="5">
         <v>14479</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R42" s="5">
         <v>1366608</v>
       </c>
@@ -6558,7 +7297,10 @@
       <c r="T42" s="5">
         <v>2771346</v>
       </c>
-      <c r="U42" s="5"/>
+      <c r="U42" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V42" s="5">
         <v>69964</v>
       </c>
@@ -6568,7 +7310,10 @@
       <c r="X42" s="5">
         <v>136643</v>
       </c>
-      <c r="Y42" s="5"/>
+      <c r="Y42" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z42" s="5">
         <v>43559</v>
       </c>
@@ -6578,7 +7323,10 @@
       <c r="AB42" s="5">
         <v>83899</v>
       </c>
-      <c r="AC42" s="5"/>
+      <c r="AC42" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6602,7 +7350,10 @@
       <c r="H43" s="5">
         <v>189791</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J43" s="5">
         <v>4467</v>
       </c>
@@ -6612,7 +7363,10 @@
       <c r="L43" s="5">
         <v>8516</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="5">
         <v>3306</v>
       </c>
@@ -6622,7 +7376,10 @@
       <c r="P43" s="5">
         <v>6058</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R43" s="5">
         <v>907777</v>
       </c>
@@ -6632,7 +7389,10 @@
       <c r="T43" s="5">
         <v>1869483</v>
       </c>
-      <c r="U43" s="5"/>
+      <c r="U43" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V43" s="5">
         <v>46412</v>
       </c>
@@ -6642,7 +7402,10 @@
       <c r="X43" s="5">
         <v>90327</v>
       </c>
-      <c r="Y43" s="5"/>
+      <c r="Y43" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z43" s="5">
         <v>27443</v>
       </c>
@@ -6652,7 +7415,10 @@
       <c r="AB43" s="5">
         <v>54189</v>
       </c>
-      <c r="AC43" s="5"/>
+      <c r="AC43" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6676,7 +7442,10 @@
       <c r="H44" s="5">
         <v>207914</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J44" s="5">
         <v>2030</v>
       </c>
@@ -6686,7 +7455,10 @@
       <c r="L44" s="5">
         <v>3972</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="5">
         <v>1788</v>
       </c>
@@ -6696,7 +7468,10 @@
       <c r="P44" s="5">
         <v>3251</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R44" s="5">
         <v>911132</v>
       </c>
@@ -6706,7 +7481,10 @@
       <c r="T44" s="5">
         <v>1813128</v>
       </c>
-      <c r="U44" s="5"/>
+      <c r="U44" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V44" s="5">
         <v>44643</v>
       </c>
@@ -6716,7 +7494,10 @@
       <c r="X44" s="5">
         <v>87548</v>
       </c>
-      <c r="Y44" s="5"/>
+      <c r="Y44" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z44" s="5">
         <v>29372</v>
       </c>
@@ -6726,7 +7507,10 @@
       <c r="AB44" s="5">
         <v>55847</v>
       </c>
-      <c r="AC44" s="5"/>
+      <c r="AC44" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6750,7 +7534,10 @@
       <c r="H45" s="5">
         <v>373746</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J45" s="5">
         <v>7103</v>
       </c>
@@ -6760,7 +7547,10 @@
       <c r="L45" s="5">
         <v>13663</v>
       </c>
-      <c r="M45" s="5"/>
+      <c r="M45" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N45" s="5">
         <v>5468</v>
       </c>
@@ -6770,7 +7560,10 @@
       <c r="P45" s="5">
         <v>9628</v>
       </c>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R45" s="5">
         <v>774871</v>
       </c>
@@ -6780,7 +7573,10 @@
       <c r="T45" s="5">
         <v>1514096</v>
       </c>
-      <c r="U45" s="5"/>
+      <c r="U45" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V45" s="5">
         <v>37078</v>
       </c>
@@ -6790,7 +7586,10 @@
       <c r="X45" s="5">
         <v>72066</v>
       </c>
-      <c r="Y45" s="5"/>
+      <c r="Y45" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z45" s="5">
         <v>19074</v>
       </c>
@@ -6800,7 +7599,10 @@
       <c r="AB45" s="5">
         <v>36699</v>
       </c>
-      <c r="AC45" s="5"/>
+      <c r="AC45" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6824,7 +7626,10 @@
       <c r="H46" s="5">
         <v>87500</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J46" s="5">
         <v>1279</v>
       </c>
@@ -6834,7 +7639,10 @@
       <c r="L46" s="5">
         <v>2456</v>
       </c>
-      <c r="M46" s="5"/>
+      <c r="M46" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N46" s="5">
         <v>786</v>
       </c>
@@ -6844,7 +7652,10 @@
       <c r="P46" s="5">
         <v>1350</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R46" s="5">
         <v>0</v>
       </c>
@@ -6854,7 +7665,10 @@
       <c r="T46" s="5">
         <v>0</v>
       </c>
-      <c r="U46" s="5"/>
+      <c r="U46" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V46" s="5">
         <v>0</v>
       </c>
@@ -6864,7 +7678,10 @@
       <c r="X46" s="5">
         <v>0</v>
       </c>
-      <c r="Y46" s="5"/>
+      <c r="Y46" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z46" s="5">
         <v>0</v>
       </c>
@@ -6874,7 +7691,10 @@
       <c r="AB46" s="5">
         <v>0</v>
       </c>
-      <c r="AC46" s="5"/>
+      <c r="AC46" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -6898,7 +7718,10 @@
       <c r="H47" s="5">
         <v>298741</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J47" s="5">
         <v>5650</v>
       </c>
@@ -6908,7 +7731,10 @@
       <c r="L47" s="5">
         <v>11359</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="5">
         <v>4211</v>
       </c>
@@ -6918,7 +7744,10 @@
       <c r="P47" s="5">
         <v>8237</v>
       </c>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R47" s="5">
         <v>1761144</v>
       </c>
@@ -6928,7 +7757,10 @@
       <c r="T47" s="5">
         <v>3559845</v>
       </c>
-      <c r="U47" s="5"/>
+      <c r="U47" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V47" s="5">
         <v>84163</v>
       </c>
@@ -6938,7 +7770,10 @@
       <c r="X47" s="5">
         <v>168119</v>
       </c>
-      <c r="Y47" s="5"/>
+      <c r="Y47" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z47" s="5">
         <v>50686</v>
       </c>
@@ -6948,7 +7783,10 @@
       <c r="AB47" s="5">
         <v>100889</v>
       </c>
-      <c r="AC47" s="5"/>
+      <c r="AC47" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6972,7 +7810,10 @@
       <c r="H48" s="5">
         <v>170149</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J48" s="5">
         <v>2634</v>
       </c>
@@ -6982,7 +7823,10 @@
       <c r="L48" s="5">
         <v>5143</v>
       </c>
-      <c r="M48" s="5"/>
+      <c r="M48" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N48" s="5">
         <v>1918</v>
       </c>
@@ -6992,7 +7836,10 @@
       <c r="P48" s="5">
         <v>3691</v>
       </c>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R48" s="5">
         <v>1022726</v>
       </c>
@@ -7002,7 +7849,10 @@
       <c r="T48" s="5">
         <v>2243234</v>
       </c>
-      <c r="U48" s="5"/>
+      <c r="U48" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V48" s="5">
         <v>47606</v>
       </c>
@@ -7012,7 +7862,10 @@
       <c r="X48" s="5">
         <v>93194</v>
       </c>
-      <c r="Y48" s="5"/>
+      <c r="Y48" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z48" s="5">
         <v>30520</v>
       </c>
@@ -7022,7 +7875,10 @@
       <c r="AB48" s="5">
         <v>57942</v>
       </c>
-      <c r="AC48" s="5"/>
+      <c r="AC48" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -7046,7 +7902,10 @@
       <c r="H49" s="5">
         <v>211612</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J49" s="5">
         <v>4019</v>
       </c>
@@ -7056,7 +7915,10 @@
       <c r="L49" s="5">
         <v>7801</v>
       </c>
-      <c r="M49" s="5"/>
+      <c r="M49" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N49" s="5">
         <v>3208</v>
       </c>
@@ -7066,7 +7928,10 @@
       <c r="P49" s="5">
         <v>5764</v>
       </c>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R49" s="5">
         <v>861707</v>
       </c>
@@ -7076,7 +7941,10 @@
       <c r="T49" s="5">
         <v>1758388</v>
       </c>
-      <c r="U49" s="5"/>
+      <c r="U49" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V49" s="5">
         <v>39083</v>
       </c>
@@ -7086,7 +7954,10 @@
       <c r="X49" s="5">
         <v>76148</v>
       </c>
-      <c r="Y49" s="5"/>
+      <c r="Y49" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z49" s="5">
         <v>28029</v>
       </c>
@@ -7096,7 +7967,10 @@
       <c r="AB49" s="5">
         <v>52941</v>
       </c>
-      <c r="AC49" s="5"/>
+      <c r="AC49" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -7120,7 +7994,10 @@
       <c r="H50" s="5">
         <v>192009</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J50" s="5">
         <v>4096</v>
       </c>
@@ -7130,7 +8007,10 @@
       <c r="L50" s="5">
         <v>7994</v>
       </c>
-      <c r="M50" s="5"/>
+      <c r="M50" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N50" s="5">
         <v>3026</v>
       </c>
@@ -7140,7 +8020,10 @@
       <c r="P50" s="5">
         <v>5616</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="8">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
       <c r="R50" s="5">
         <v>1450500</v>
       </c>
@@ -7150,7 +8033,10 @@
       <c r="T50" s="5">
         <v>2911300</v>
       </c>
-      <c r="U50" s="5"/>
+      <c r="U50" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V50" s="5">
         <v>71278</v>
       </c>
@@ -7160,7 +8046,10 @@
       <c r="X50" s="5">
         <v>139703</v>
       </c>
-      <c r="Y50" s="5"/>
+      <c r="Y50" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z50" s="5">
         <v>40486</v>
       </c>
@@ -7170,7 +8059,10 @@
       <c r="AB50" s="5">
         <v>79026</v>
       </c>
-      <c r="AC50" s="5"/>
+      <c r="AC50" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -7194,7 +8086,10 @@
       <c r="H51" s="5">
         <v>444867</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J51" s="5">
         <v>7882</v>
       </c>
@@ -7204,7 +8099,10 @@
       <c r="L51" s="5">
         <v>15349</v>
       </c>
-      <c r="M51" s="5"/>
+      <c r="M51" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N51" s="5">
         <v>6008</v>
       </c>
@@ -7214,7 +8112,10 @@
       <c r="P51" s="5">
         <v>10650</v>
       </c>
-      <c r="Q51" s="5"/>
+      <c r="Q51" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R51" s="5">
         <v>1560328</v>
       </c>
@@ -7224,7 +8125,10 @@
       <c r="T51" s="5">
         <v>3090805</v>
       </c>
-      <c r="U51" s="5"/>
+      <c r="U51" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V51" s="5">
         <v>69989</v>
       </c>
@@ -7234,7 +8138,10 @@
       <c r="X51" s="5">
         <v>135854</v>
       </c>
-      <c r="Y51" s="5"/>
+      <c r="Y51" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z51" s="5">
         <v>36834</v>
       </c>
@@ -7244,7 +8151,10 @@
       <c r="AB51" s="5">
         <v>68357</v>
       </c>
-      <c r="AC51" s="5"/>
+      <c r="AC51" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -7268,7 +8178,10 @@
       <c r="H52" s="5">
         <v>227202</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J52" s="5">
         <v>4259</v>
       </c>
@@ -7278,7 +8191,10 @@
       <c r="L52" s="5">
         <v>8429</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N52" s="5">
         <v>3283</v>
       </c>
@@ -7288,7 +8204,10 @@
       <c r="P52" s="5">
         <v>5952</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R52" s="5">
         <v>1466043</v>
       </c>
@@ -7298,7 +8217,10 @@
       <c r="T52" s="5">
         <v>2887208</v>
       </c>
-      <c r="U52" s="5"/>
+      <c r="U52" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V52" s="5">
         <v>61028</v>
       </c>
@@ -7308,7 +8230,10 @@
       <c r="X52" s="5">
         <v>119741</v>
       </c>
-      <c r="Y52" s="5"/>
+      <c r="Y52" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z52" s="5">
         <v>33453</v>
       </c>
@@ -7318,7 +8243,10 @@
       <c r="AB52" s="5">
         <v>62914</v>
       </c>
-      <c r="AC52" s="5"/>
+      <c r="AC52" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -7342,7 +8270,10 @@
       <c r="H53" s="5">
         <v>117579</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J53" s="5">
         <v>2427</v>
       </c>
@@ -7352,7 +8283,10 @@
       <c r="L53" s="5">
         <v>4716</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N53" s="5">
         <v>1852</v>
       </c>
@@ -7362,7 +8296,10 @@
       <c r="P53" s="5">
         <v>3289</v>
       </c>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R53" s="5">
         <v>0</v>
       </c>
@@ -7372,7 +8309,10 @@
       <c r="T53" s="5">
         <v>0</v>
       </c>
-      <c r="U53" s="5"/>
+      <c r="U53" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V53" s="5">
         <v>0</v>
       </c>
@@ -7382,7 +8322,10 @@
       <c r="X53" s="5">
         <v>0</v>
       </c>
-      <c r="Y53" s="5"/>
+      <c r="Y53" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z53" s="5">
         <v>0</v>
       </c>
@@ -7392,7 +8335,10 @@
       <c r="AB53" s="5">
         <v>0</v>
       </c>
-      <c r="AC53" s="5"/>
+      <c r="AC53" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -7416,7 +8362,10 @@
       <c r="H54" s="5">
         <v>655246</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J54" s="5">
         <v>7317</v>
       </c>
@@ -7426,7 +8375,10 @@
       <c r="L54" s="5">
         <v>13783</v>
       </c>
-      <c r="M54" s="5"/>
+      <c r="M54" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N54" s="5">
         <v>5379</v>
       </c>
@@ -7436,7 +8388,10 @@
       <c r="P54" s="5">
         <v>9742</v>
       </c>
-      <c r="Q54" s="5"/>
+      <c r="Q54" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R54" s="5">
         <v>0</v>
       </c>
@@ -7446,7 +8401,10 @@
       <c r="T54" s="5">
         <v>0</v>
       </c>
-      <c r="U54" s="5"/>
+      <c r="U54" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V54" s="5">
         <v>0</v>
       </c>
@@ -7456,7 +8414,10 @@
       <c r="X54" s="5">
         <v>0</v>
       </c>
-      <c r="Y54" s="5"/>
+      <c r="Y54" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z54" s="5">
         <v>0</v>
       </c>
@@ -7466,7 +8427,10 @@
       <c r="AB54" s="5">
         <v>0</v>
       </c>
-      <c r="AC54" s="5"/>
+      <c r="AC54" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -7490,7 +8454,10 @@
       <c r="H55" s="5">
         <v>148100</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J55" s="5" t="s">
         <v>84</v>
       </c>
@@ -7500,7 +8467,10 @@
       <c r="L55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="5"/>
+      <c r="M55" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N55" s="5" t="s">
         <v>84</v>
       </c>
@@ -7510,7 +8480,10 @@
       <c r="P55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q55" s="5"/>
+      <c r="Q55" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R55" s="5">
         <v>474400</v>
       </c>
@@ -7520,7 +8493,10 @@
       <c r="T55" s="5">
         <v>939700</v>
       </c>
-      <c r="U55" s="5"/>
+      <c r="U55" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V55" s="5" t="s">
         <v>84</v>
       </c>
@@ -7530,7 +8506,10 @@
       <c r="X55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y55" s="5"/>
+      <c r="Y55" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z55" s="5" t="s">
         <v>84</v>
       </c>
@@ -7540,7 +8519,10 @@
       <c r="AB55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC55" s="5"/>
+      <c r="AC55" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -7564,7 +8546,10 @@
       <c r="H56" s="5">
         <v>278361</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J56" s="5">
         <v>3924</v>
       </c>
@@ -7574,7 +8559,10 @@
       <c r="L56" s="5">
         <v>7641</v>
       </c>
-      <c r="M56" s="5"/>
+      <c r="M56" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N56" s="5">
         <v>2828</v>
       </c>
@@ -7584,7 +8572,10 @@
       <c r="P56" s="5">
         <v>5299</v>
       </c>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R56" s="5">
         <v>1332078</v>
       </c>
@@ -7594,7 +8585,10 @@
       <c r="T56" s="5">
         <v>2685777</v>
       </c>
-      <c r="U56" s="5"/>
+      <c r="U56" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V56" s="5">
         <v>54773</v>
       </c>
@@ -7604,7 +8598,10 @@
       <c r="X56" s="5">
         <v>106905</v>
       </c>
-      <c r="Y56" s="5"/>
+      <c r="Y56" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z56" s="5">
         <v>31400</v>
       </c>
@@ -7614,7 +8611,10 @@
       <c r="AB56" s="5">
         <v>60035</v>
       </c>
-      <c r="AC56" s="5"/>
+      <c r="AC56" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -7638,7 +8638,10 @@
       <c r="H57" s="5">
         <v>143688</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J57" s="5">
         <v>1788</v>
       </c>
@@ -7648,7 +8651,10 @@
       <c r="L57" s="5">
         <v>3458</v>
       </c>
-      <c r="M57" s="5"/>
+      <c r="M57" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N57" s="5">
         <v>1685</v>
       </c>
@@ -7658,7 +8664,10 @@
       <c r="P57" s="5">
         <v>2961</v>
       </c>
-      <c r="Q57" s="5"/>
+      <c r="Q57" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R57" s="5">
         <v>191497</v>
       </c>
@@ -7668,7 +8677,10 @@
       <c r="T57" s="5">
         <v>392039</v>
       </c>
-      <c r="U57" s="5"/>
+      <c r="U57" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V57" s="5">
         <v>4292</v>
       </c>
@@ -7678,7 +8690,10 @@
       <c r="X57" s="5">
         <v>8365</v>
       </c>
-      <c r="Y57" s="5"/>
+      <c r="Y57" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z57" s="5">
         <v>3287</v>
       </c>
@@ -7688,7 +8703,10 @@
       <c r="AB57" s="5">
         <v>6227</v>
       </c>
-      <c r="AC57" s="5"/>
+      <c r="AC57" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -7712,7 +8730,10 @@
       <c r="H58" s="5">
         <v>213111</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J58" s="5">
         <v>4284</v>
       </c>
@@ -7722,7 +8743,10 @@
       <c r="L58" s="5">
         <v>8371</v>
       </c>
-      <c r="M58" s="5"/>
+      <c r="M58" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N58" s="5">
         <v>3535</v>
       </c>
@@ -7732,7 +8756,10 @@
       <c r="P58" s="5">
         <v>6352</v>
       </c>
-      <c r="Q58" s="5"/>
+      <c r="Q58" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R58" s="5">
         <v>540351</v>
       </c>
@@ -7742,7 +8769,10 @@
       <c r="T58" s="5">
         <v>1174276</v>
       </c>
-      <c r="U58" s="5"/>
+      <c r="U58" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V58" s="5">
         <v>23262</v>
       </c>
@@ -7752,7 +8782,10 @@
       <c r="X58" s="5">
         <v>45208</v>
       </c>
-      <c r="Y58" s="5"/>
+      <c r="Y58" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z58" s="5">
         <v>14517</v>
       </c>
@@ -7762,7 +8795,10 @@
       <c r="AB58" s="5">
         <v>28335</v>
       </c>
-      <c r="AC58" s="5"/>
+      <c r="AC58" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -7781,12 +8817,15 @@
         <v>9070486</v>
       </c>
       <c r="G59" s="5">
-        <v>8668443</v>
+        <v>8668448</v>
       </c>
       <c r="H59" s="5">
         <v>17738934</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J59" s="5">
         <v>268809</v>
       </c>
@@ -7796,7 +8835,10 @@
       <c r="L59" s="5">
         <v>523505</v>
       </c>
-      <c r="M59" s="5"/>
+      <c r="M59" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N59" s="5">
         <v>216055</v>
       </c>
@@ -7806,7 +8848,10 @@
       <c r="P59" s="5">
         <v>390173</v>
       </c>
-      <c r="Q59" s="5"/>
+      <c r="Q59" s="8">
+        <f t="shared" si="2"/>
+        <v>-3000</v>
+      </c>
       <c r="R59" s="5">
         <v>54211712</v>
       </c>
@@ -7816,7 +8861,10 @@
       <c r="T59" s="5">
         <v>109868149</v>
       </c>
-      <c r="U59" s="5"/>
+      <c r="U59" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V59" s="5">
         <v>2253766</v>
       </c>
@@ -7826,7 +8874,10 @@
       <c r="X59" s="5">
         <v>4411674</v>
       </c>
-      <c r="Y59" s="5"/>
+      <c r="Y59" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z59" s="5">
         <v>1366181</v>
       </c>
@@ -7836,7 +8887,10 @@
       <c r="AB59" s="5">
         <v>2618662</v>
       </c>
-      <c r="AC59" s="5"/>
+      <c r="AC59" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -7860,7 +8914,10 @@
       <c r="H60" s="5">
         <v>100159</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J60" s="5">
         <v>901</v>
       </c>
@@ -7870,7 +8927,10 @@
       <c r="L60" s="5">
         <v>1572</v>
       </c>
-      <c r="M60" s="5"/>
+      <c r="M60" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N60" s="5">
         <v>766</v>
       </c>
@@ -7880,7 +8940,10 @@
       <c r="P60" s="5">
         <v>1288</v>
       </c>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R60" s="5">
         <v>402464</v>
       </c>
@@ -7890,7 +8953,10 @@
       <c r="T60" s="5">
         <v>755306</v>
       </c>
-      <c r="U60" s="5"/>
+      <c r="U60" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V60" s="5">
         <v>10010</v>
       </c>
@@ -7900,7 +8966,10 @@
       <c r="X60" s="5">
         <v>18937</v>
       </c>
-      <c r="Y60" s="5"/>
+      <c r="Y60" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z60" s="5">
         <v>7126</v>
       </c>
@@ -7910,7 +8979,10 @@
       <c r="AB60" s="5">
         <v>13117</v>
       </c>
-      <c r="AC60" s="5"/>
+      <c r="AC60" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -7934,7 +9006,10 @@
       <c r="H61" s="5">
         <v>392638</v>
       </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J61" s="5">
         <v>6047</v>
       </c>
@@ -7944,7 +9019,10 @@
       <c r="L61" s="5">
         <v>11194</v>
       </c>
-      <c r="M61" s="5"/>
+      <c r="M61" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="5">
         <v>4731</v>
       </c>
@@ -7954,7 +9032,10 @@
       <c r="P61" s="5">
         <v>8058</v>
       </c>
-      <c r="Q61" s="5"/>
+      <c r="Q61" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R61" s="5">
         <v>0</v>
       </c>
@@ -7964,7 +9045,10 @@
       <c r="T61" s="5">
         <v>0</v>
       </c>
-      <c r="U61" s="5"/>
+      <c r="U61" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V61" s="5">
         <v>0</v>
       </c>
@@ -7974,7 +9058,10 @@
       <c r="X61" s="5">
         <v>0</v>
       </c>
-      <c r="Y61" s="5"/>
+      <c r="Y61" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z61" s="5">
         <v>0</v>
       </c>
@@ -7984,7 +9071,10 @@
       <c r="AB61" s="5">
         <v>0</v>
       </c>
-      <c r="AC61" s="5"/>
+      <c r="AC61" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -8008,7 +9098,10 @@
       <c r="H62" s="5">
         <v>54500</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J62" s="5">
         <v>167</v>
       </c>
@@ -8018,7 +9111,10 @@
       <c r="L62" s="5">
         <v>297</v>
       </c>
-      <c r="M62" s="5"/>
+      <c r="M62" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="5">
         <v>159</v>
       </c>
@@ -8028,7 +9124,10 @@
       <c r="P62" s="5">
         <v>268</v>
       </c>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R62" s="5">
         <v>64800</v>
       </c>
@@ -8038,7 +9137,10 @@
       <c r="T62" s="5">
         <v>128600</v>
       </c>
-      <c r="U62" s="5"/>
+      <c r="U62" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V62" s="5">
         <v>898</v>
       </c>
@@ -8048,7 +9150,10 @@
       <c r="X62" s="5">
         <v>1542</v>
       </c>
-      <c r="Y62" s="5"/>
+      <c r="Y62" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z62" s="5">
         <v>269</v>
       </c>
@@ -8058,7 +9163,10 @@
       <c r="AB62" s="5">
         <v>523</v>
       </c>
-      <c r="AC62" s="5"/>
+      <c r="AC62" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -8082,7 +9190,10 @@
       <c r="H63" s="5">
         <v>69756</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J63" s="5">
         <v>990</v>
       </c>
@@ -8092,7 +9203,10 @@
       <c r="L63" s="5">
         <v>1761</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="5">
         <v>932</v>
       </c>
@@ -8102,7 +9216,10 @@
       <c r="P63" s="5">
         <v>1591</v>
       </c>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R63" s="5">
         <v>321842</v>
       </c>
@@ -8112,7 +9229,10 @@
       <c r="T63" s="5">
         <v>633754</v>
       </c>
-      <c r="U63" s="5"/>
+      <c r="U63" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V63" s="5">
         <v>7355</v>
       </c>
@@ -8122,7 +9242,10 @@
       <c r="X63" s="5">
         <v>13806</v>
       </c>
-      <c r="Y63" s="5"/>
+      <c r="Y63" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z63" s="5">
         <v>5317</v>
       </c>
@@ -8132,7 +9255,10 @@
       <c r="AB63" s="5">
         <v>10338</v>
       </c>
-      <c r="AC63" s="5"/>
+      <c r="AC63" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -8156,7 +9282,10 @@
       <c r="H64" s="5">
         <v>145452</v>
       </c>
-      <c r="I64" s="5"/>
+      <c r="I64" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J64" s="5">
         <v>1468</v>
       </c>
@@ -8166,7 +9295,10 @@
       <c r="L64" s="5">
         <v>2653</v>
       </c>
-      <c r="M64" s="5"/>
+      <c r="M64" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="5">
         <v>1028</v>
       </c>
@@ -8176,7 +9308,10 @@
       <c r="P64" s="5">
         <v>1806</v>
       </c>
-      <c r="Q64" s="5"/>
+      <c r="Q64" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R64" s="5">
         <v>585066</v>
       </c>
@@ -8186,7 +9321,10 @@
       <c r="T64" s="5">
         <v>1114964</v>
       </c>
-      <c r="U64" s="5"/>
+      <c r="U64" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V64" s="5">
         <v>13954</v>
       </c>
@@ -8196,7 +9334,10 @@
       <c r="X64" s="5">
         <v>26250</v>
       </c>
-      <c r="Y64" s="5"/>
+      <c r="Y64" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z64" s="5">
         <v>8385</v>
       </c>
@@ -8206,7 +9347,10 @@
       <c r="AB64" s="5">
         <v>16196</v>
       </c>
-      <c r="AC64" s="5"/>
+      <c r="AC64" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8230,7 +9374,10 @@
       <c r="H65" s="5">
         <v>47100</v>
       </c>
-      <c r="I65" s="5"/>
+      <c r="I65" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J65" s="5" t="s">
         <v>84</v>
       </c>
@@ -8240,7 +9387,10 @@
       <c r="L65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M65" s="5"/>
+      <c r="M65" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N65" s="5" t="s">
         <v>84</v>
       </c>
@@ -8250,7 +9400,10 @@
       <c r="P65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q65" s="5"/>
+      <c r="Q65" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R65" s="5">
         <v>185700</v>
       </c>
@@ -8260,7 +9413,10 @@
       <c r="T65" s="5">
         <v>349100</v>
       </c>
-      <c r="U65" s="5"/>
+      <c r="U65" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V65" s="5" t="s">
         <v>84</v>
       </c>
@@ -8270,7 +9426,10 @@
       <c r="X65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y65" s="5"/>
+      <c r="Y65" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z65" s="5" t="s">
         <v>84</v>
       </c>
@@ -8280,7 +9439,10 @@
       <c r="AB65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC65" s="5"/>
+      <c r="AC65" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8304,7 +9466,10 @@
       <c r="H66" s="5">
         <v>245500</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="I66" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J66" s="5">
         <v>4507</v>
       </c>
@@ -8314,7 +9479,10 @@
       <c r="L66" s="5">
         <v>8849</v>
       </c>
-      <c r="M66" s="5"/>
+      <c r="M66" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N66" s="5">
         <v>3952</v>
       </c>
@@ -8324,7 +9492,10 @@
       <c r="P66" s="5">
         <v>7238</v>
       </c>
-      <c r="Q66" s="5"/>
+      <c r="Q66" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R66" s="5">
         <v>1388300</v>
       </c>
@@ -8334,7 +9505,10 @@
       <c r="T66" s="5">
         <v>2739000</v>
       </c>
-      <c r="U66" s="5"/>
+      <c r="U66" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V66" s="5">
         <v>74423</v>
       </c>
@@ -8344,7 +9518,10 @@
       <c r="X66" s="5">
         <v>145196</v>
       </c>
-      <c r="Y66" s="5"/>
+      <c r="Y66" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Z66" s="5">
         <v>40904</v>
       </c>
@@ -8354,7 +9531,10 @@
       <c r="AB66" s="5">
         <v>78524</v>
       </c>
-      <c r="AC66" s="5"/>
+      <c r="AC66" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -8378,7 +9558,10 @@
       <c r="H67" s="5">
         <v>124418</v>
       </c>
-      <c r="I67" s="5"/>
+      <c r="I67" s="8">
+        <f t="shared" ref="I67:I96" si="6">F67+G67-H67</f>
+        <v>0</v>
+      </c>
       <c r="J67" s="5">
         <v>1038</v>
       </c>
@@ -8388,7 +9571,10 @@
       <c r="L67" s="5">
         <v>1926</v>
       </c>
-      <c r="M67" s="5"/>
+      <c r="M67" s="8">
+        <f t="shared" ref="M67:M96" si="7">J67+K67-L67</f>
+        <v>0</v>
+      </c>
       <c r="N67" s="5">
         <v>860</v>
       </c>
@@ -8398,7 +9584,10 @@
       <c r="P67" s="5">
         <v>1510</v>
       </c>
-      <c r="Q67" s="5"/>
+      <c r="Q67" s="8">
+        <f t="shared" ref="Q67:Q96" si="8">N67+O67-P67</f>
+        <v>0</v>
+      </c>
       <c r="R67" s="5">
         <v>597152</v>
       </c>
@@ -8408,7 +9597,10 @@
       <c r="T67" s="5">
         <v>1109042</v>
       </c>
-      <c r="U67" s="5"/>
+      <c r="U67" s="8">
+        <f t="shared" ref="U67:U96" si="9">R67+S67-T67</f>
+        <v>0</v>
+      </c>
       <c r="V67" s="5">
         <v>13698</v>
       </c>
@@ -8418,7 +9610,10 @@
       <c r="X67" s="5">
         <v>26696</v>
       </c>
-      <c r="Y67" s="5"/>
+      <c r="Y67" s="8">
+        <f t="shared" ref="Y67:Y96" si="10">V67+W67-X67</f>
+        <v>0</v>
+      </c>
       <c r="Z67" s="5">
         <v>7327</v>
       </c>
@@ -8428,7 +9623,10 @@
       <c r="AB67" s="5">
         <v>14192</v>
       </c>
-      <c r="AC67" s="5"/>
+      <c r="AC67" s="8">
+        <f t="shared" ref="AC67:AC96" si="11">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -8452,7 +9650,10 @@
       <c r="H68" s="5">
         <v>62850</v>
       </c>
-      <c r="I68" s="5"/>
+      <c r="I68" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J68" s="5">
         <v>1314</v>
       </c>
@@ -8462,7 +9663,10 @@
       <c r="L68" s="5">
         <v>2570</v>
       </c>
-      <c r="M68" s="5"/>
+      <c r="M68" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N68" s="5">
         <v>947</v>
       </c>
@@ -8472,7 +9676,10 @@
       <c r="P68" s="5">
         <v>1762</v>
       </c>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R68" s="5">
         <v>626104</v>
       </c>
@@ -8482,7 +9689,10 @@
       <c r="T68" s="5">
         <v>1230802</v>
       </c>
-      <c r="U68" s="5"/>
+      <c r="U68" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V68" s="5">
         <v>35898</v>
       </c>
@@ -8492,7 +9702,10 @@
       <c r="X68" s="5">
         <v>70219</v>
       </c>
-      <c r="Y68" s="5"/>
+      <c r="Y68" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z68" s="5">
         <v>24612</v>
       </c>
@@ -8502,7 +9715,10 @@
       <c r="AB68" s="5">
         <v>47576</v>
       </c>
-      <c r="AC68" s="5"/>
+      <c r="AC68" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -8526,7 +9742,10 @@
       <c r="H69" s="5">
         <v>223656</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J69" s="5">
         <v>4124</v>
       </c>
@@ -8536,7 +9755,10 @@
       <c r="L69" s="5">
         <v>8043</v>
       </c>
-      <c r="M69" s="5"/>
+      <c r="M69" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N69" s="5">
         <v>3136</v>
       </c>
@@ -8546,7 +9768,10 @@
       <c r="P69" s="5">
         <v>5608</v>
       </c>
-      <c r="Q69" s="5"/>
+      <c r="Q69" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R69" s="5">
         <v>574823</v>
       </c>
@@ -8556,7 +9781,10 @@
       <c r="T69" s="5">
         <v>1097672</v>
       </c>
-      <c r="U69" s="5"/>
+      <c r="U69" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V69" s="5">
         <v>25337</v>
       </c>
@@ -8566,7 +9794,10 @@
       <c r="X69" s="5">
         <v>49025</v>
       </c>
-      <c r="Y69" s="5"/>
+      <c r="Y69" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z69" s="5">
         <v>14339</v>
       </c>
@@ -8576,7 +9807,10 @@
       <c r="AB69" s="5">
         <v>27660</v>
       </c>
-      <c r="AC69" s="5"/>
+      <c r="AC69" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -8600,7 +9834,10 @@
       <c r="H70" s="5">
         <v>419053</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J70" s="5">
         <v>3601</v>
       </c>
@@ -8610,7 +9847,10 @@
       <c r="L70" s="5">
         <v>6981</v>
       </c>
-      <c r="M70" s="5"/>
+      <c r="M70" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N70" s="5">
         <v>3233</v>
       </c>
@@ -8620,7 +9860,10 @@
       <c r="P70" s="5">
         <v>5628</v>
       </c>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R70" s="5">
         <v>554740</v>
       </c>
@@ -8630,7 +9873,10 @@
       <c r="T70" s="5">
         <v>1041749</v>
       </c>
-      <c r="U70" s="5"/>
+      <c r="U70" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V70" s="5">
         <v>22239</v>
       </c>
@@ -8640,7 +9886,10 @@
       <c r="X70" s="5">
         <v>41482</v>
       </c>
-      <c r="Y70" s="5"/>
+      <c r="Y70" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z70" s="5">
         <v>11959</v>
       </c>
@@ -8650,7 +9899,10 @@
       <c r="AB70" s="5">
         <v>21323</v>
       </c>
-      <c r="AC70" s="5"/>
+      <c r="AC70" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -8674,7 +9926,10 @@
       <c r="H71" s="5">
         <v>99899</v>
       </c>
-      <c r="I71" s="5"/>
+      <c r="I71" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J71" s="5">
         <v>1105</v>
       </c>
@@ -8684,7 +9939,10 @@
       <c r="L71" s="5">
         <v>2200</v>
       </c>
-      <c r="M71" s="5"/>
+      <c r="M71" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N71" s="5">
         <v>778</v>
       </c>
@@ -8694,7 +9952,10 @@
       <c r="P71" s="5">
         <v>1329</v>
       </c>
-      <c r="Q71" s="5"/>
+      <c r="Q71" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R71" s="5">
         <v>56061</v>
       </c>
@@ -8704,7 +9965,10 @@
       <c r="T71" s="5">
         <v>94571</v>
       </c>
-      <c r="U71" s="5"/>
+      <c r="U71" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V71" s="5">
         <v>1764</v>
       </c>
@@ -8714,7 +9978,10 @@
       <c r="X71" s="5">
         <v>3328</v>
       </c>
-      <c r="Y71" s="5"/>
+      <c r="Y71" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z71" s="5">
         <v>726</v>
       </c>
@@ -8724,7 +9991,10 @@
       <c r="AB71" s="5">
         <v>1329</v>
       </c>
-      <c r="AC71" s="5"/>
+      <c r="AC71" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8748,7 +10018,10 @@
       <c r="H72" s="5">
         <v>92912</v>
       </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J72" s="5">
         <v>1242</v>
       </c>
@@ -8758,7 +10031,10 @@
       <c r="L72" s="5">
         <v>2457</v>
       </c>
-      <c r="M72" s="5"/>
+      <c r="M72" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N72" s="5">
         <v>1186</v>
       </c>
@@ -8768,7 +10044,10 @@
       <c r="P72" s="5">
         <v>2066</v>
       </c>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R72" s="5">
         <v>447652</v>
       </c>
@@ -8778,7 +10057,10 @@
       <c r="T72" s="5">
         <v>842894</v>
       </c>
-      <c r="U72" s="5"/>
+      <c r="U72" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V72" s="5">
         <v>17967</v>
       </c>
@@ -8788,7 +10070,10 @@
       <c r="X72" s="5">
         <v>33774</v>
       </c>
-      <c r="Y72" s="5"/>
+      <c r="Y72" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z72" s="5">
         <v>9174</v>
       </c>
@@ -8798,7 +10083,10 @@
       <c r="AB72" s="5">
         <v>17487</v>
       </c>
-      <c r="AC72" s="5"/>
+      <c r="AC72" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -8822,7 +10110,10 @@
       <c r="H73" s="5">
         <v>2077893</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J73" s="5">
         <v>26504</v>
       </c>
@@ -8832,7 +10123,10 @@
       <c r="L73" s="5">
         <v>50503</v>
       </c>
-      <c r="M73" s="5"/>
+      <c r="M73" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N73" s="5">
         <v>21708</v>
       </c>
@@ -8842,7 +10136,10 @@
       <c r="P73" s="5">
         <v>38152</v>
       </c>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R73" s="5">
         <v>5804704</v>
       </c>
@@ -8852,7 +10149,10 @@
       <c r="T73" s="5">
         <v>11137454</v>
       </c>
-      <c r="U73" s="5"/>
+      <c r="U73" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V73" s="5">
         <v>223543</v>
       </c>
@@ -8862,7 +10162,10 @@
       <c r="X73" s="5">
         <v>430255</v>
       </c>
-      <c r="Y73" s="5"/>
+      <c r="Y73" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z73" s="5">
         <v>130138</v>
       </c>
@@ -8872,7 +10175,10 @@
       <c r="AB73" s="5">
         <v>248265</v>
       </c>
-      <c r="AC73" s="5"/>
+      <c r="AC73" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -8896,7 +10202,10 @@
       <c r="H74" s="5">
         <v>63014</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J74" s="5">
         <v>2181</v>
       </c>
@@ -8906,7 +10215,10 @@
       <c r="L74" s="5">
         <v>4297</v>
       </c>
-      <c r="M74" s="5"/>
+      <c r="M74" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N74" s="5">
         <v>1311</v>
       </c>
@@ -8916,7 +10228,10 @@
       <c r="P74" s="5">
         <v>2264</v>
       </c>
-      <c r="Q74" s="5"/>
+      <c r="Q74" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R74" s="5">
         <v>154714</v>
       </c>
@@ -8926,7 +10241,10 @@
       <c r="T74" s="5">
         <v>257188</v>
       </c>
-      <c r="U74" s="5"/>
+      <c r="U74" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V74" s="5">
         <v>6532</v>
       </c>
@@ -8936,7 +10254,10 @@
       <c r="X74" s="5">
         <v>12260</v>
       </c>
-      <c r="Y74" s="5"/>
+      <c r="Y74" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z74" s="5">
         <v>3101</v>
       </c>
@@ -8946,7 +10267,10 @@
       <c r="AB74" s="5">
         <v>5461</v>
       </c>
-      <c r="AC74" s="5"/>
+      <c r="AC74" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -8970,7 +10294,10 @@
       <c r="H75" s="5">
         <v>153422</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J75" s="5">
         <v>2609</v>
       </c>
@@ -8980,7 +10307,10 @@
       <c r="L75" s="5">
         <v>5050</v>
       </c>
-      <c r="M75" s="5"/>
+      <c r="M75" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N75" s="5">
         <v>2103</v>
       </c>
@@ -8990,7 +10320,10 @@
       <c r="P75" s="5">
         <v>3715</v>
       </c>
-      <c r="Q75" s="5"/>
+      <c r="Q75" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R75" s="5">
         <v>503119</v>
       </c>
@@ -9000,7 +10333,10 @@
       <c r="T75" s="5">
         <v>980786</v>
       </c>
-      <c r="U75" s="5"/>
+      <c r="U75" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V75" s="5">
         <v>28692</v>
       </c>
@@ -9010,7 +10346,10 @@
       <c r="X75" s="5">
         <v>55691</v>
       </c>
-      <c r="Y75" s="5"/>
+      <c r="Y75" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z75" s="5">
         <v>16781</v>
       </c>
@@ -9020,7 +10359,10 @@
       <c r="AB75" s="5">
         <v>31981</v>
       </c>
-      <c r="AC75" s="5"/>
+      <c r="AC75" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -9044,7 +10386,10 @@
       <c r="H76" s="5">
         <v>143367</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J76" s="5">
         <v>2674</v>
       </c>
@@ -9054,7 +10399,10 @@
       <c r="L76" s="5">
         <v>5249</v>
       </c>
-      <c r="M76" s="5"/>
+      <c r="M76" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N76" s="5">
         <v>1985</v>
       </c>
@@ -9064,7 +10412,10 @@
       <c r="P76" s="5">
         <v>3467</v>
       </c>
-      <c r="Q76" s="5"/>
+      <c r="Q76" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R76" s="5">
         <v>421751</v>
       </c>
@@ -9074,7 +10425,10 @@
       <c r="T76" s="5">
         <v>810103</v>
       </c>
-      <c r="U76" s="5"/>
+      <c r="U76" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V76" s="5">
         <v>18910</v>
       </c>
@@ -9084,7 +10438,10 @@
       <c r="X76" s="5">
         <v>36752</v>
       </c>
-      <c r="Y76" s="5"/>
+      <c r="Y76" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z76" s="5">
         <v>11115</v>
       </c>
@@ -9094,7 +10451,10 @@
       <c r="AB76" s="5">
         <v>21324</v>
       </c>
-      <c r="AC76" s="5"/>
+      <c r="AC76" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -9118,7 +10478,10 @@
       <c r="H77" s="5">
         <v>142794</v>
       </c>
-      <c r="I77" s="5"/>
+      <c r="I77" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J77" s="5">
         <v>3207</v>
       </c>
@@ -9128,7 +10491,10 @@
       <c r="L77" s="5">
         <v>6228</v>
       </c>
-      <c r="M77" s="5"/>
+      <c r="M77" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N77" s="5">
         <v>2081</v>
       </c>
@@ -9138,7 +10504,10 @@
       <c r="P77" s="5">
         <v>3807</v>
       </c>
-      <c r="Q77" s="5"/>
+      <c r="Q77" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R77" s="5">
         <v>323501</v>
       </c>
@@ -9148,7 +10517,10 @@
       <c r="T77" s="5">
         <v>601567</v>
       </c>
-      <c r="U77" s="5"/>
+      <c r="U77" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V77" s="5">
         <v>15174</v>
       </c>
@@ -9158,7 +10530,10 @@
       <c r="X77" s="5">
         <v>29103</v>
       </c>
-      <c r="Y77" s="5"/>
+      <c r="Y77" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z77" s="5">
         <v>9414</v>
       </c>
@@ -9168,7 +10543,10 @@
       <c r="AB77" s="5">
         <v>17519</v>
       </c>
-      <c r="AC77" s="5"/>
+      <c r="AC77" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -9192,7 +10570,10 @@
       <c r="H78" s="5">
         <v>2742</v>
       </c>
-      <c r="I78" s="5"/>
+      <c r="I78" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J78" s="5">
         <v>40</v>
       </c>
@@ -9202,7 +10583,10 @@
       <c r="L78" s="5">
         <v>85</v>
       </c>
-      <c r="M78" s="5"/>
+      <c r="M78" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N78" s="5">
         <v>24</v>
       </c>
@@ -9212,7 +10596,10 @@
       <c r="P78" s="5">
         <v>54</v>
       </c>
-      <c r="Q78" s="5"/>
+      <c r="Q78" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R78" s="5">
         <v>15282</v>
       </c>
@@ -9222,7 +10609,10 @@
       <c r="T78" s="5">
         <v>29788</v>
       </c>
-      <c r="U78" s="5"/>
+      <c r="U78" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V78" s="5">
         <v>364</v>
       </c>
@@ -9232,7 +10622,10 @@
       <c r="X78" s="5">
         <v>671</v>
       </c>
-      <c r="Y78" s="5"/>
+      <c r="Y78" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z78" s="5">
         <v>287</v>
       </c>
@@ -9242,7 +10635,10 @@
       <c r="AB78" s="5">
         <v>551</v>
       </c>
-      <c r="AC78" s="5"/>
+      <c r="AC78" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -9266,7 +10662,10 @@
       <c r="H79" s="5">
         <v>152223</v>
       </c>
-      <c r="I79" s="5"/>
+      <c r="I79" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J79" s="5">
         <v>2721</v>
       </c>
@@ -9276,7 +10675,10 @@
       <c r="L79" s="5">
         <v>5240</v>
       </c>
-      <c r="M79" s="5"/>
+      <c r="M79" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N79" s="5">
         <v>1779</v>
       </c>
@@ -9286,7 +10688,10 @@
       <c r="P79" s="5">
         <v>2762</v>
       </c>
-      <c r="Q79" s="5"/>
+      <c r="Q79" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R79" s="5">
         <v>206361</v>
       </c>
@@ -9296,7 +10701,10 @@
       <c r="T79" s="5">
         <v>371910</v>
       </c>
-      <c r="U79" s="5"/>
+      <c r="U79" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V79" s="5">
         <v>7720</v>
       </c>
@@ -9306,7 +10714,10 @@
       <c r="X79" s="5">
         <v>14705</v>
       </c>
-      <c r="Y79" s="5"/>
+      <c r="Y79" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z79" s="5">
         <v>3243</v>
       </c>
@@ -9316,7 +10727,10 @@
       <c r="AB79" s="5">
         <v>5936</v>
       </c>
-      <c r="AC79" s="5"/>
+      <c r="AC79" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -9340,7 +10754,10 @@
       <c r="H80" s="5">
         <v>14414</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J80" s="5">
         <v>279</v>
       </c>
@@ -9350,7 +10767,10 @@
       <c r="L80" s="5">
         <v>504</v>
       </c>
-      <c r="M80" s="5"/>
+      <c r="M80" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N80" s="5">
         <v>173</v>
       </c>
@@ -9360,7 +10780,10 @@
       <c r="P80" s="5">
         <v>300</v>
       </c>
-      <c r="Q80" s="5"/>
+      <c r="Q80" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R80" s="5">
         <v>11719</v>
       </c>
@@ -9370,7 +10793,10 @@
       <c r="T80" s="5">
         <v>19387</v>
       </c>
-      <c r="U80" s="5"/>
+      <c r="U80" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V80" s="5">
         <v>413</v>
       </c>
@@ -9380,7 +10806,10 @@
       <c r="X80" s="5">
         <v>726</v>
       </c>
-      <c r="Y80" s="5"/>
+      <c r="Y80" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z80" s="5">
         <v>248</v>
       </c>
@@ -9390,7 +10819,10 @@
       <c r="AB80" s="5">
         <v>399</v>
       </c>
-      <c r="AC80" s="5"/>
+      <c r="AC80" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -9414,7 +10846,10 @@
       <c r="H81" s="5">
         <v>150065</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J81" s="5">
         <v>2990</v>
       </c>
@@ -9424,7 +10859,10 @@
       <c r="L81" s="5">
         <v>5761</v>
       </c>
-      <c r="M81" s="5"/>
+      <c r="M81" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N81" s="5">
         <v>2692</v>
       </c>
@@ -9434,7 +10872,10 @@
       <c r="P81" s="5">
         <v>4879</v>
       </c>
-      <c r="Q81" s="5"/>
+      <c r="Q81" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R81" s="5">
         <v>979559</v>
       </c>
@@ -9444,7 +10885,10 @@
       <c r="T81" s="5">
         <v>1975627</v>
       </c>
-      <c r="U81" s="5"/>
+      <c r="U81" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V81" s="5">
         <v>56949</v>
       </c>
@@ -9454,7 +10898,10 @@
       <c r="X81" s="5">
         <v>111618</v>
       </c>
-      <c r="Y81" s="5"/>
+      <c r="Y81" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z81" s="5">
         <v>39142</v>
       </c>
@@ -9464,7 +10911,10 @@
       <c r="AB81" s="5">
         <v>75295</v>
       </c>
-      <c r="AC81" s="5"/>
+      <c r="AC81" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -9488,7 +10938,10 @@
       <c r="H82" s="5">
         <v>234546</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J82" s="5">
         <v>4917</v>
       </c>
@@ -9498,7 +10951,10 @@
       <c r="L82" s="5">
         <v>9649</v>
       </c>
-      <c r="M82" s="5"/>
+      <c r="M82" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N82" s="5">
         <v>3319</v>
       </c>
@@ -9508,7 +10964,10 @@
       <c r="P82" s="5">
         <v>6005</v>
       </c>
-      <c r="Q82" s="5"/>
+      <c r="Q82" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R82" s="5">
         <v>1999810</v>
       </c>
@@ -9518,7 +10977,10 @@
       <c r="T82" s="5">
         <v>3980617</v>
       </c>
-      <c r="U82" s="5"/>
+      <c r="U82" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V82" s="5">
         <v>110491</v>
       </c>
@@ -9528,7 +10990,10 @@
       <c r="X82" s="5">
         <v>216939</v>
       </c>
-      <c r="Y82" s="5"/>
+      <c r="Y82" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z82" s="5">
         <v>65199</v>
       </c>
@@ -9538,7 +11003,10 @@
       <c r="AB82" s="5">
         <v>125942</v>
       </c>
-      <c r="AC82" s="5"/>
+      <c r="AC82" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -9562,7 +11030,10 @@
       <c r="H83" s="5">
         <v>11410</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J83" s="5" t="s">
         <v>84</v>
       </c>
@@ -9572,7 +11043,10 @@
       <c r="L83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M83" s="5"/>
+      <c r="M83" s="8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N83" s="5" t="s">
         <v>84</v>
       </c>
@@ -9582,7 +11056,10 @@
       <c r="P83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q83" s="5"/>
+      <c r="Q83" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R83" s="5">
         <v>136946</v>
       </c>
@@ -9592,7 +11069,10 @@
       <c r="T83" s="5">
         <v>258703</v>
       </c>
-      <c r="U83" s="5"/>
+      <c r="U83" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V83" s="5">
         <v>5176</v>
       </c>
@@ -9602,7 +11082,10 @@
       <c r="X83" s="5">
         <v>10095</v>
       </c>
-      <c r="Y83" s="5"/>
+      <c r="Y83" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z83" s="5">
         <v>3651</v>
       </c>
@@ -9612,7 +11095,10 @@
       <c r="AB83" s="5">
         <v>7047</v>
       </c>
-      <c r="AC83" s="5"/>
+      <c r="AC83" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -9636,7 +11122,10 @@
       <c r="H84" s="5">
         <v>1067997</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J84" s="5">
         <v>21618</v>
       </c>
@@ -9646,7 +11135,10 @@
       <c r="L84" s="5">
         <v>42063</v>
       </c>
-      <c r="M84" s="5"/>
+      <c r="M84" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N84" s="5">
         <v>15467</v>
       </c>
@@ -9656,7 +11148,10 @@
       <c r="P84" s="5">
         <v>27253</v>
       </c>
-      <c r="Q84" s="5"/>
+      <c r="Q84" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R84" s="5">
         <v>4752762</v>
       </c>
@@ -9666,7 +11161,10 @@
       <c r="T84" s="5">
         <v>9285676</v>
       </c>
-      <c r="U84" s="5"/>
+      <c r="U84" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V84" s="6">
         <v>250421</v>
       </c>
@@ -9676,7 +11174,10 @@
       <c r="X84" s="5">
         <v>488560</v>
       </c>
-      <c r="Y84" s="5"/>
+      <c r="Y84" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z84" s="5">
         <v>152181</v>
       </c>
@@ -9686,7 +11187,10 @@
       <c r="AB84" s="5">
         <v>291455</v>
       </c>
-      <c r="AC84" s="5"/>
+      <c r="AC84" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -9710,7 +11214,10 @@
       <c r="H85" s="5">
         <v>217501</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J85" s="5">
         <v>3128</v>
       </c>
@@ -9720,7 +11227,10 @@
       <c r="L85" s="5">
         <v>6172</v>
       </c>
-      <c r="M85" s="5"/>
+      <c r="M85" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N85" s="5">
         <v>2488</v>
       </c>
@@ -9730,7 +11240,10 @@
       <c r="P85" s="5">
         <v>4558</v>
       </c>
-      <c r="Q85" s="5"/>
+      <c r="Q85" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R85" s="5">
         <v>693896</v>
       </c>
@@ -9740,7 +11253,10 @@
       <c r="T85" s="5">
         <v>1338178</v>
       </c>
-      <c r="U85" s="5"/>
+      <c r="U85" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V85" s="5">
         <v>31244</v>
       </c>
@@ -9750,7 +11266,10 @@
       <c r="X85" s="5">
         <v>60568</v>
       </c>
-      <c r="Y85" s="5"/>
+      <c r="Y85" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z85" s="5">
         <v>16664</v>
       </c>
@@ -9760,7 +11279,10 @@
       <c r="AB85" s="5">
         <v>32046</v>
       </c>
-      <c r="AC85" s="5"/>
+      <c r="AC85" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -9784,7 +11306,10 @@
       <c r="H86" s="5">
         <v>73314</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J86" s="5">
         <v>1379</v>
       </c>
@@ -9794,7 +11319,10 @@
       <c r="L86" s="5">
         <v>2732</v>
       </c>
-      <c r="M86" s="5"/>
+      <c r="M86" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N86" s="5">
         <v>1376</v>
       </c>
@@ -9804,7 +11332,10 @@
       <c r="P86" s="5">
         <v>2713</v>
       </c>
-      <c r="Q86" s="5"/>
+      <c r="Q86" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R86" s="5">
         <v>224989</v>
       </c>
@@ -9814,7 +11345,10 @@
       <c r="T86" s="5">
         <v>433822</v>
       </c>
-      <c r="U86" s="5"/>
+      <c r="U86" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V86" s="5">
         <v>6652</v>
       </c>
@@ -9824,7 +11358,10 @@
       <c r="X86" s="5">
         <v>12935</v>
       </c>
-      <c r="Y86" s="5"/>
+      <c r="Y86" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z86" s="5">
         <v>5338</v>
       </c>
@@ -9834,7 +11371,10 @@
       <c r="AB86" s="5">
         <v>10400</v>
       </c>
-      <c r="AC86" s="5"/>
+      <c r="AC86" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -9858,7 +11398,10 @@
       <c r="H87" s="5">
         <v>208500</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J87" s="5" t="s">
         <v>84</v>
       </c>
@@ -9868,7 +11411,10 @@
       <c r="L87" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M87" s="5"/>
+      <c r="M87" s="8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N87" s="5" t="s">
         <v>84</v>
       </c>
@@ -9878,7 +11424,10 @@
       <c r="P87" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q87" s="5"/>
+      <c r="Q87" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R87" s="6">
         <v>542100</v>
       </c>
@@ -9888,7 +11437,10 @@
       <c r="T87" s="5">
         <v>989500</v>
       </c>
-      <c r="U87" s="5"/>
+      <c r="U87" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V87" s="5" t="s">
         <v>84</v>
       </c>
@@ -9898,7 +11450,10 @@
       <c r="X87" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y87" s="5"/>
+      <c r="Y87" s="8" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z87" s="5" t="s">
         <v>84</v>
       </c>
@@ -9908,7 +11463,10 @@
       <c r="AB87" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC87" s="5"/>
+      <c r="AC87" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -9932,7 +11490,10 @@
       <c r="H88" s="5">
         <v>90230</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J88" s="5">
         <v>1911</v>
       </c>
@@ -9942,7 +11503,10 @@
       <c r="L88" s="5">
         <v>3630</v>
       </c>
-      <c r="M88" s="5"/>
+      <c r="M88" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N88" s="5">
         <v>1290</v>
       </c>
@@ -9952,7 +11516,10 @@
       <c r="P88" s="5">
         <v>2386</v>
       </c>
-      <c r="Q88" s="5"/>
+      <c r="Q88" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R88" s="5">
         <v>457107</v>
       </c>
@@ -9962,7 +11529,10 @@
       <c r="T88" s="5">
         <v>838279</v>
       </c>
-      <c r="U88" s="5"/>
+      <c r="U88" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V88" s="5">
         <v>11524</v>
       </c>
@@ -9972,7 +11542,10 @@
       <c r="X88" s="5">
         <v>21971</v>
       </c>
-      <c r="Y88" s="5"/>
+      <c r="Y88" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z88" s="5">
         <v>7301</v>
       </c>
@@ -9982,7 +11555,10 @@
       <c r="AB88" s="5">
         <v>13597</v>
       </c>
-      <c r="AC88" s="5"/>
+      <c r="AC88" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -10006,7 +11582,10 @@
       <c r="H89" s="5">
         <v>102604</v>
       </c>
-      <c r="I89" s="5"/>
+      <c r="I89" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J89" s="5">
         <v>3402</v>
       </c>
@@ -10016,7 +11595,10 @@
       <c r="L89" s="5">
         <v>6607</v>
       </c>
-      <c r="M89" s="5"/>
+      <c r="M89" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N89" s="5">
         <v>2267</v>
       </c>
@@ -10026,7 +11608,10 @@
       <c r="P89" s="5">
         <v>4525</v>
       </c>
-      <c r="Q89" s="5"/>
+      <c r="Q89" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R89" s="5">
         <v>679477</v>
       </c>
@@ -10036,7 +11621,10 @@
       <c r="T89" s="5">
         <v>1228561</v>
       </c>
-      <c r="U89" s="5"/>
+      <c r="U89" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V89" s="5">
         <v>26794</v>
       </c>
@@ -10046,7 +11634,10 @@
       <c r="X89" s="5">
         <v>49626</v>
       </c>
-      <c r="Y89" s="5"/>
+      <c r="Y89" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z89" s="5">
         <v>16080</v>
       </c>
@@ -10056,7 +11647,10 @@
       <c r="AB89" s="5">
         <v>30163</v>
       </c>
-      <c r="AC89" s="5"/>
+      <c r="AC89" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -10080,7 +11674,10 @@
       <c r="H90" s="5">
         <v>363300</v>
       </c>
-      <c r="I90" s="5"/>
+      <c r="I90" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J90" s="5" t="s">
         <v>84</v>
       </c>
@@ -10090,7 +11687,10 @@
       <c r="L90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M90" s="5"/>
+      <c r="M90" s="8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="N90" s="5" t="s">
         <v>84</v>
       </c>
@@ -10100,7 +11700,10 @@
       <c r="P90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q90" s="5"/>
+      <c r="Q90" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="R90" s="5">
         <v>884500</v>
       </c>
@@ -10110,7 +11713,10 @@
       <c r="T90" s="5">
         <v>1649000</v>
       </c>
-      <c r="U90" s="5"/>
+      <c r="U90" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V90" s="5" t="s">
         <v>84</v>
       </c>
@@ -10120,7 +11726,10 @@
       <c r="X90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y90" s="5"/>
+      <c r="Y90" s="8" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Z90" s="5" t="s">
         <v>84</v>
       </c>
@@ -10130,7 +11739,10 @@
       <c r="AB90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC90" s="5"/>
+      <c r="AC90" s="8" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -10154,7 +11766,10 @@
       <c r="H91" s="5">
         <v>40042</v>
       </c>
-      <c r="I91" s="5"/>
+      <c r="I91" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J91" s="5">
         <v>819</v>
       </c>
@@ -10164,7 +11779,10 @@
       <c r="L91" s="5">
         <v>1732</v>
       </c>
-      <c r="M91" s="5"/>
+      <c r="M91" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N91" s="5">
         <v>543</v>
       </c>
@@ -10174,7 +11792,10 @@
       <c r="P91" s="5">
         <v>1060</v>
       </c>
-      <c r="Q91" s="5"/>
+      <c r="Q91" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R91" s="5">
         <v>420492</v>
       </c>
@@ -10184,7 +11805,10 @@
       <c r="T91" s="5">
         <v>802364</v>
       </c>
-      <c r="U91" s="5"/>
+      <c r="U91" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V91" s="5">
         <v>19921</v>
       </c>
@@ -10194,7 +11818,10 @@
       <c r="X91" s="5">
         <v>38145</v>
       </c>
-      <c r="Y91" s="5"/>
+      <c r="Y91" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z91" s="5">
         <v>13557</v>
       </c>
@@ -10204,7 +11831,10 @@
       <c r="AB91" s="5">
         <v>23857</v>
       </c>
-      <c r="AC91" s="5"/>
+      <c r="AC91" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -10228,7 +11858,10 @@
       <c r="H92" s="5">
         <v>64997</v>
       </c>
-      <c r="I92" s="5"/>
+      <c r="I92" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J92" s="5">
         <v>1154</v>
       </c>
@@ -10238,7 +11871,10 @@
       <c r="L92" s="5">
         <v>2253</v>
       </c>
-      <c r="M92" s="5"/>
+      <c r="M92" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N92" s="5">
         <v>661</v>
       </c>
@@ -10248,7 +11884,10 @@
       <c r="P92" s="5">
         <v>1158</v>
       </c>
-      <c r="Q92" s="5"/>
+      <c r="Q92" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R92" s="5">
         <v>406600</v>
       </c>
@@ -10258,7 +11897,10 @@
       <c r="T92" s="5">
         <v>770931</v>
       </c>
-      <c r="U92" s="5"/>
+      <c r="U92" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V92" s="5">
         <v>9976</v>
       </c>
@@ -10268,7 +11910,10 @@
       <c r="X92" s="5">
         <v>18448</v>
       </c>
-      <c r="Y92" s="5"/>
+      <c r="Y92" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z92" s="5">
         <v>7410</v>
       </c>
@@ -10278,7 +11923,10 @@
       <c r="AB92" s="5">
         <v>13795</v>
       </c>
-      <c r="AC92" s="5"/>
+      <c r="AC92" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -10302,7 +11950,10 @@
       <c r="H93" s="5">
         <v>411987</v>
       </c>
-      <c r="I93" s="5"/>
+      <c r="I93" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J93" s="5">
         <v>9297</v>
       </c>
@@ -10312,7 +11963,10 @@
       <c r="L93" s="5">
         <v>15896</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N93" s="5">
         <v>5014</v>
       </c>
@@ -10322,7 +11976,10 @@
       <c r="P93" s="5">
         <v>9798</v>
       </c>
-      <c r="Q93" s="5"/>
+      <c r="Q93" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R93" s="5">
         <v>926425</v>
       </c>
@@ -10332,7 +11989,10 @@
       <c r="T93" s="5">
         <v>1711949</v>
       </c>
-      <c r="U93" s="5"/>
+      <c r="U93" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V93" s="5">
         <v>27598</v>
       </c>
@@ -10342,7 +12002,10 @@
       <c r="X93" s="5">
         <v>49807</v>
       </c>
-      <c r="Y93" s="5"/>
+      <c r="Y93" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z93" s="5">
         <v>12919</v>
       </c>
@@ -10352,7 +12015,10 @@
       <c r="AB93" s="5">
         <v>24705</v>
       </c>
-      <c r="AC93" s="5"/>
+      <c r="AC93" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -10376,7 +12042,10 @@
       <c r="H94" s="5">
         <v>1572475</v>
       </c>
-      <c r="I94" s="5"/>
+      <c r="I94" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J94" s="5">
         <v>21090</v>
       </c>
@@ -10386,7 +12055,10 @@
       <c r="L94" s="5">
         <v>39022</v>
       </c>
-      <c r="M94" s="5"/>
+      <c r="M94" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N94" s="5">
         <v>13639</v>
       </c>
@@ -10396,7 +12068,10 @@
       <c r="P94" s="5">
         <v>26198</v>
       </c>
-      <c r="Q94" s="5"/>
+      <c r="Q94" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R94" s="5">
         <v>5235586</v>
       </c>
@@ -10406,7 +12081,10 @@
       <c r="T94" s="5">
         <v>9762584</v>
       </c>
-      <c r="U94" s="5"/>
+      <c r="U94" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V94" s="5">
         <v>133709</v>
       </c>
@@ -10416,7 +12094,10 @@
       <c r="X94" s="5">
         <v>251500</v>
       </c>
-      <c r="Y94" s="5"/>
+      <c r="Y94" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z94" s="5">
         <v>79269</v>
       </c>
@@ -10426,7 +12107,10 @@
       <c r="AB94" s="5">
         <v>148563</v>
       </c>
-      <c r="AC94" s="5"/>
+      <c r="AC94" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -10450,7 +12134,10 @@
       <c r="H95" s="5">
         <v>4718365</v>
       </c>
-      <c r="I95" s="5"/>
+      <c r="I95" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J95" s="5">
         <v>69212</v>
       </c>
@@ -10460,7 +12147,10 @@
       <c r="L95" s="5">
         <v>131588</v>
       </c>
-      <c r="M95" s="5"/>
+      <c r="M95" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N95" s="5">
         <v>50814</v>
       </c>
@@ -10470,7 +12160,10 @@
       <c r="P95" s="5">
         <v>91603</v>
       </c>
-      <c r="Q95" s="5"/>
+      <c r="Q95" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R95" s="5">
         <v>15793052</v>
       </c>
@@ -10480,9 +12173,12 @@
       <c r="T95" s="5">
         <v>30185714</v>
       </c>
-      <c r="U95" s="5"/>
+      <c r="U95" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V95" s="5">
-        <v>607678</v>
+        <v>607673</v>
       </c>
       <c r="W95" s="5">
         <v>562642</v>
@@ -10490,7 +12186,10 @@
       <c r="X95" s="5">
         <v>1170315</v>
       </c>
-      <c r="Y95" s="5"/>
+      <c r="Y95" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z95" s="5">
         <v>361588</v>
       </c>
@@ -10500,7 +12199,10 @@
       <c r="AB95" s="5">
         <v>688283</v>
       </c>
-      <c r="AC95" s="5"/>
+      <c r="AC95" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -10524,7 +12226,10 @@
       <c r="H96" s="5">
         <v>22457299</v>
       </c>
-      <c r="I96" s="5"/>
+      <c r="I96" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="J96" s="5">
         <v>338021</v>
       </c>
@@ -10534,7 +12239,10 @@
       <c r="L96" s="5">
         <v>655093</v>
       </c>
-      <c r="M96" s="5"/>
+      <c r="M96" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N96" s="5">
         <v>266869</v>
       </c>
@@ -10544,7 +12252,10 @@
       <c r="P96" s="5">
         <v>481776</v>
       </c>
-      <c r="Q96" s="5"/>
+      <c r="Q96" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="R96" s="5">
         <v>70004764</v>
       </c>
@@ -10552,9 +12263,12 @@
         <v>70049099</v>
       </c>
       <c r="T96" s="5">
-        <v>140058863</v>
-      </c>
-      <c r="U96" s="5"/>
+        <v>140053863</v>
+      </c>
+      <c r="U96" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="V96" s="5">
         <v>2861439</v>
       </c>
@@ -10564,7 +12278,10 @@
       <c r="X96" s="5">
         <v>5581989</v>
       </c>
-      <c r="Y96" s="5"/>
+      <c r="Y96" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="Z96" s="5">
         <v>1727769</v>
       </c>
@@ -10574,7 +12291,10 @@
       <c r="AB96" s="5">
         <v>3306945</v>
       </c>
-      <c r="AC96" s="5"/>
+      <c r="AC96" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D4C1DC-F009-4240-A747-421632856649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F3397-399E-43F9-AFB7-9B9E0BA8E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -891,13 +896,13 @@
       <selection activeCell="N54" sqref="N54:P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.41796875" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +945,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -987,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1551,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1645,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1880,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2115,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2726,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2867,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3243,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3441,36 +3446,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="T97" sqref="T97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26171875" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.68359375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.26171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -4108,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -5580,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5764,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -6224,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -6776,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -6868,7 +6874,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -7052,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -7144,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -7512,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -8248,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -8524,7 +8530,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -8616,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -8708,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -8800,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -8892,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -8984,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -9260,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -9352,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -9444,7 +9450,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -9536,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -9812,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -9904,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -9996,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -10088,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -10180,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -10272,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -10364,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -10456,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -10548,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -10640,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -10732,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -10824,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -11008,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -11100,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -11192,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -11284,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -11468,7 +11474,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -11560,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -11652,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -11744,7 +11750,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -11836,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -12020,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -12204,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>135</v>
       </c>

--- a/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1914.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F3397-399E-43F9-AFB7-9B9E0BA8E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE82B20F-5DD5-43BB-8989-49D081EA1F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
@@ -537,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -576,6 +582,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3446,9 +3453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG3" sqref="AG3"/>
+      <selection pane="topRight" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8023,12 +8030,12 @@
       <c r="O50" s="5">
         <v>2589</v>
       </c>
-      <c r="P50" s="5">
-        <v>5616</v>
+      <c r="P50" s="10">
+        <v>5615</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="5">
         <v>1450500</v>
@@ -8849,14 +8856,14 @@
         <v>216055</v>
       </c>
       <c r="O59" s="5">
-        <v>171118</v>
+        <v>174118</v>
       </c>
       <c r="P59" s="5">
         <v>390173</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" si="2"/>
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="R59" s="5">
         <v>54211712</v>
